--- a/Rovia.UI.Automation.Tests/DataSheet/CarScenarios.xlsx
+++ b/Rovia.UI.Automation.Tests/DataSheet/CarScenarios.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="28">
   <si>
     <t>Description</t>
   </si>
@@ -31,9 +31,6 @@
     <t>Search</t>
   </si>
   <si>
-    <t>Booking of car for CURRENT LOCATION with same pickup and drop on airport with additional option of rental company.</t>
-  </si>
-  <si>
     <t>PickUpType-Location</t>
   </si>
   <si>
@@ -43,9 +40,6 @@
     <t>Airport-LAS</t>
   </si>
   <si>
-    <t>Airport-LAX</t>
-  </si>
-  <si>
     <t>10|20</t>
   </si>
   <si>
@@ -88,10 +82,22 @@
     <t>DestinationLocation</t>
   </si>
   <si>
-    <t>Las Vegas, NV, US - McCarran International Airport (LAS)</t>
-  </si>
-  <si>
-    <t>Los Angeles, CA - Los Angeles International Airport (LAX)</t>
+    <t>SameAsPickUp</t>
+  </si>
+  <si>
+    <t>City-Las  Vegas, NV, US</t>
+  </si>
+  <si>
+    <t>City-Dfw  Airport, TX, US</t>
+  </si>
+  <si>
+    <t>Booking of car for CURRENT LOCATION with same pickup and drop on airport with all additional options selected</t>
+  </si>
+  <si>
+    <t>Booking of car for CURRENT LOCATION with City as pickup and drop on airport with all additional options selected</t>
+  </si>
+  <si>
+    <t>Booking of car for CURRENT LOCATION with Airport as pickup and drop in City with all additional options selected</t>
   </si>
 </sst>
 </file>
@@ -113,12 +119,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -185,7 +197,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -200,14 +212,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -215,6 +232,94 @@
   </cellStyles>
   <dxfs count="19">
     <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -232,6 +337,79 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -246,163 +424,6 @@
         <bottom/>
         <vertical/>
         <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -522,23 +543,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="A1:N2" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15" totalsRowBorderDxfId="14">
-  <autoFilter ref="A1:N2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="A1:N4" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15" totalsRowBorderDxfId="14">
+  <autoFilter ref="A1:N4"/>
   <tableColumns count="14">
-    <tableColumn id="1" name="Description" dataDxfId="3"/>
+    <tableColumn id="1" name="Description" dataDxfId="0"/>
     <tableColumn id="16" name="ExecutionPipeline" dataDxfId="13"/>
     <tableColumn id="2" name="PickUpType-Location" dataDxfId="12"/>
-    <tableColumn id="19" name="OriginLocation" dataDxfId="1"/>
-    <tableColumn id="3" name="DropOffType-Location" dataDxfId="11"/>
-    <tableColumn id="20" name="DestinationLocation" dataDxfId="0"/>
-    <tableColumn id="4" name="TravelDates" dataDxfId="10"/>
-    <tableColumn id="5" name="RentalAgency" dataDxfId="9"/>
-    <tableColumn id="18" name="CarType" dataDxfId="2"/>
-    <tableColumn id="6" name="AirConditioning" dataDxfId="8"/>
-    <tableColumn id="7" name="Transmission" dataDxfId="7"/>
-    <tableColumn id="8" name="CorpDiscRentalAgency" dataDxfId="6"/>
-    <tableColumn id="9" name="CorpDiscCode" dataDxfId="5"/>
-    <tableColumn id="10" name="CorpDiscPromotionalCode" dataDxfId="4"/>
+    <tableColumn id="19" name="OriginLocation" dataDxfId="11"/>
+    <tableColumn id="3" name="DropOffType-Location" dataDxfId="10"/>
+    <tableColumn id="20" name="DestinationLocation" dataDxfId="9"/>
+    <tableColumn id="4" name="TravelDates" dataDxfId="8"/>
+    <tableColumn id="5" name="RentalAgency" dataDxfId="7"/>
+    <tableColumn id="18" name="CarType" dataDxfId="6"/>
+    <tableColumn id="6" name="AirConditioning" dataDxfId="5"/>
+    <tableColumn id="7" name="Transmission" dataDxfId="4"/>
+    <tableColumn id="8" name="CorpDiscRentalAgency" dataDxfId="3"/>
+    <tableColumn id="9" name="CorpDiscCode" dataDxfId="2"/>
+    <tableColumn id="10" name="CorpDiscPromotionalCode" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -831,22 +852,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="E15" sqref="E15"/>
+      <selection pane="topRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26" style="10" customWidth="1"/>
+    <col min="1" max="1" width="77.5703125" style="13" customWidth="1"/>
     <col min="2" max="2" width="20.140625" customWidth="1"/>
     <col min="3" max="3" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.140625" customWidth="1"/>
     <col min="5" max="5" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.28515625" customWidth="1"/>
+    <col min="6" max="6" width="27.28515625" style="10" customWidth="1"/>
     <col min="7" max="7" width="13.7109375" style="7" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.42578125" customWidth="1"/>
     <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
@@ -858,73 +879,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>23</v>
+      <c r="F1" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="L1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>5</v>
+      <c r="A2" s="12" t="s">
+        <v>26</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="9"/>
+      <c r="G2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>10</v>
-      </c>
       <c r="H2" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>2</v>
@@ -933,16 +950,96 @@
         <v>1</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="9"/>
+      <c r="G3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="9"/>
+      <c r="G4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Rovia.UI.Automation.Tests/DataSheet/CarScenarios.xlsx
+++ b/Rovia.UI.Automation.Tests/DataSheet/CarScenarios.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
   <si>
     <t>Description</t>
   </si>
@@ -98,13 +98,31 @@
   </si>
   <si>
     <t>Booking of car for CURRENT LOCATION with Airport as pickup and drop in City with all additional options selected</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>CarSearch_City</t>
+  </si>
+  <si>
+    <t>CarSearch_Airport</t>
+  </si>
+  <si>
+    <t>CarSearch_Airport_SameAsPickUp</t>
+  </si>
+  <si>
+    <t>Las Vegas, NV, US</t>
+  </si>
+  <si>
+    <t>Airport-LAX</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,6 +135,12 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -197,7 +221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -226,12 +250,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
-    <dxf>
+  <dxfs count="20">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -482,6 +522,9 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border>
         <top style="thin">
           <color indexed="64"/>
@@ -543,10 +586,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="A1:N4" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15" totalsRowBorderDxfId="14">
-  <autoFilter ref="A1:N4"/>
-  <tableColumns count="14">
-    <tableColumn id="1" name="Description" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="A1:O4" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16" totalsRowBorderDxfId="15">
+  <autoFilter ref="A1:O4"/>
+  <tableColumns count="15">
+    <tableColumn id="1" name="Description" dataDxfId="14"/>
+    <tableColumn id="11" name="Type" dataDxfId="0"/>
     <tableColumn id="16" name="ExecutionPipeline" dataDxfId="13"/>
     <tableColumn id="2" name="PickUpType-Location" dataDxfId="12"/>
     <tableColumn id="19" name="OriginLocation" dataDxfId="11"/>
@@ -852,193 +896,199 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="A3" sqref="A3"/>
+      <selection pane="topRight" activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="77.5703125" style="13" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" customWidth="1"/>
-    <col min="5" max="5" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.28515625" style="10" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="77.5703125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" customWidth="1"/>
+    <col min="6" max="6" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.28515625" style="10" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="4"/>
       <c r="E2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="9"/>
+      <c r="H2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="O2" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="14"/>
+      <c r="F3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="9"/>
+      <c r="H3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="4" t="b">
+      <c r="K3" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="N3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="O3" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="4"/>
+      <c r="F4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="9"/>
+      <c r="H4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="J4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="4" t="b">
+      <c r="K4" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="L4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="M4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="N4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="O4" s="4" t="s">
         <v>19</v>
       </c>
     </row>

--- a/Rovia.UI.Automation.Tests/DataSheet/CarScenarios.xlsx
+++ b/Rovia.UI.Automation.Tests/DataSheet/CarScenarios.xlsx
@@ -4,17 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="881" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="CarScenario" sheetId="1" r:id="rId1"/>
+    <sheet name="Car_Airport_To_Airport" sheetId="1" r:id="rId1"/>
+    <sheet name="Car_Airport_To_City" sheetId="2" r:id="rId2"/>
+    <sheet name="Car_Airport_To_SameAsPickUp" sheetId="3" r:id="rId3"/>
+    <sheet name="Car_City_To_Airport" sheetId="4" r:id="rId4"/>
+    <sheet name="Car_City_To_City" sheetId="5" r:id="rId5"/>
+    <sheet name="Car_City_To_SameAsPickUp" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="34">
   <si>
     <t>Description</t>
   </si>
@@ -22,13 +27,7 @@
     <t>TravelDates</t>
   </si>
   <si>
-    <t>Economy</t>
-  </si>
-  <si>
     <t>ExecutionPipeline</t>
-  </si>
-  <si>
-    <t>Search</t>
   </si>
   <si>
     <t>PickUpType-Location</t>
@@ -58,9 +57,6 @@
     <t>Avis</t>
   </si>
   <si>
-    <t>Automatic</t>
-  </si>
-  <si>
     <t>CorpDiscRentalAgency</t>
   </si>
   <si>
@@ -88,41 +84,50 @@
     <t>City-Las  Vegas, NV, US</t>
   </si>
   <si>
-    <t>City-Dfw  Airport, TX, US</t>
-  </si>
-  <si>
-    <t>Booking of car for CURRENT LOCATION with same pickup and drop on airport with all additional options selected</t>
-  </si>
-  <si>
-    <t>Booking of car for CURRENT LOCATION with City as pickup and drop on airport with all additional options selected</t>
-  </si>
-  <si>
-    <t>Booking of car for CURRENT LOCATION with Airport as pickup and drop in City with all additional options selected</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>CarSearch_City</t>
-  </si>
-  <si>
-    <t>CarSearch_Airport</t>
-  </si>
-  <si>
-    <t>CarSearch_Airport_SameAsPickUp</t>
-  </si>
-  <si>
     <t>Las Vegas, NV, US</t>
   </si>
   <si>
     <t>Airport-LAX</t>
+  </si>
+  <si>
+    <t>UserType</t>
+  </si>
+  <si>
+    <t>Guest</t>
+  </si>
+  <si>
+    <t>Booking of car for pickup on Airport and drop on airport with all additional options selected</t>
+  </si>
+  <si>
+    <t>Booking of car for pickup on Airport and drop in a City with all additional options selected</t>
+  </si>
+  <si>
+    <t>City-LAX</t>
+  </si>
+  <si>
+    <t>Booking of car for pickup on Airport and drop SameAsPickUp with all additional options selected</t>
+  </si>
+  <si>
+    <t>Booking of car for pickup in a City and drop on airport with all additional options selected</t>
+  </si>
+  <si>
+    <t>City-LAS</t>
+  </si>
+  <si>
+    <t>Booking of car for pickup in a City and drop in a City with all additional options selected</t>
+  </si>
+  <si>
+    <t>Booking of car for pickup in a City and drop same as pickup with all additional options selected</t>
+  </si>
+  <si>
+    <t>Search|AddToCart|CheckOutTrip|Login</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,13 +142,20 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF222222"/>
-      <name val="Consolas"/>
-      <family val="3"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -152,12 +164,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -217,11 +235,105 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -236,11 +348,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -250,12 +357,594 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="116">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -273,9 +962,79 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -283,157 +1042,555 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
         </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.39997558519241921"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -441,43 +1598,530 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -485,6 +2129,771 @@
     </dxf>
     <dxf>
       <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -495,8 +2904,8 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="10"/>
-        <color auto="1"/>
-        <name val="Tahoma"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -516,7 +2925,336 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
         <vertical/>
         <horizontal/>
       </border>
@@ -586,24 +3324,144 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="A1:O4" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16" totalsRowBorderDxfId="15">
-  <autoFilter ref="A1:O4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="A1:O2" totalsRowShown="0" headerRowDxfId="115" dataDxfId="113" headerRowBorderDxfId="114" tableBorderDxfId="112" totalsRowBorderDxfId="111">
+  <autoFilter ref="A1:O2"/>
   <tableColumns count="15">
-    <tableColumn id="1" name="Description" dataDxfId="14"/>
-    <tableColumn id="11" name="Type" dataDxfId="0"/>
-    <tableColumn id="16" name="ExecutionPipeline" dataDxfId="13"/>
-    <tableColumn id="2" name="PickUpType-Location" dataDxfId="12"/>
-    <tableColumn id="19" name="OriginLocation" dataDxfId="11"/>
-    <tableColumn id="3" name="DropOffType-Location" dataDxfId="10"/>
-    <tableColumn id="20" name="DestinationLocation" dataDxfId="9"/>
-    <tableColumn id="4" name="TravelDates" dataDxfId="8"/>
-    <tableColumn id="5" name="RentalAgency" dataDxfId="7"/>
-    <tableColumn id="18" name="CarType" dataDxfId="6"/>
-    <tableColumn id="6" name="AirConditioning" dataDxfId="5"/>
-    <tableColumn id="7" name="Transmission" dataDxfId="4"/>
-    <tableColumn id="8" name="CorpDiscRentalAgency" dataDxfId="3"/>
-    <tableColumn id="9" name="CorpDiscCode" dataDxfId="2"/>
-    <tableColumn id="10" name="CorpDiscPromotionalCode" dataDxfId="1"/>
+    <tableColumn id="1" name="Description" dataDxfId="110"/>
+    <tableColumn id="16" name="ExecutionPipeline" dataDxfId="109"/>
+    <tableColumn id="2" name="PickUpType-Location" dataDxfId="108"/>
+    <tableColumn id="19" name="OriginLocation" dataDxfId="107"/>
+    <tableColumn id="3" name="DropOffType-Location" dataDxfId="106"/>
+    <tableColumn id="20" name="DestinationLocation" dataDxfId="105"/>
+    <tableColumn id="4" name="TravelDates" dataDxfId="104"/>
+    <tableColumn id="5" name="RentalAgency" dataDxfId="103"/>
+    <tableColumn id="18" name="CarType" dataDxfId="102"/>
+    <tableColumn id="6" name="AirConditioning" dataDxfId="101"/>
+    <tableColumn id="7" name="Transmission" dataDxfId="100"/>
+    <tableColumn id="8" name="CorpDiscRentalAgency" dataDxfId="99"/>
+    <tableColumn id="9" name="CorpDiscCode" dataDxfId="98"/>
+    <tableColumn id="10" name="CorpDiscPromotionalCode" dataDxfId="97"/>
+    <tableColumn id="12" name="UserType" dataDxfId="96"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table23" displayName="Table23" ref="A1:O2" totalsRowShown="0" headerRowDxfId="95" dataDxfId="93" headerRowBorderDxfId="94" tableBorderDxfId="92" totalsRowBorderDxfId="91">
+  <autoFilter ref="A1:O2"/>
+  <tableColumns count="15">
+    <tableColumn id="1" name="Description" dataDxfId="90"/>
+    <tableColumn id="16" name="ExecutionPipeline" dataDxfId="89"/>
+    <tableColumn id="2" name="PickUpType-Location" dataDxfId="88"/>
+    <tableColumn id="19" name="OriginLocation" dataDxfId="87"/>
+    <tableColumn id="3" name="DropOffType-Location" dataDxfId="86"/>
+    <tableColumn id="20" name="DestinationLocation" dataDxfId="85"/>
+    <tableColumn id="4" name="TravelDates" dataDxfId="84"/>
+    <tableColumn id="5" name="RentalAgency" dataDxfId="1"/>
+    <tableColumn id="18" name="CarType" dataDxfId="83"/>
+    <tableColumn id="6" name="AirConditioning" dataDxfId="82"/>
+    <tableColumn id="7" name="Transmission" dataDxfId="81"/>
+    <tableColumn id="8" name="CorpDiscRentalAgency" dataDxfId="0"/>
+    <tableColumn id="9" name="CorpDiscCode" dataDxfId="80"/>
+    <tableColumn id="10" name="CorpDiscPromotionalCode" dataDxfId="79"/>
+    <tableColumn id="12" name="UserType" dataDxfId="78"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:O2" totalsRowShown="0" headerRowDxfId="77" dataDxfId="75" headerRowBorderDxfId="76" tableBorderDxfId="74">
+  <autoFilter ref="A1:O2"/>
+  <tableColumns count="15">
+    <tableColumn id="1" name="Description" dataDxfId="73"/>
+    <tableColumn id="2" name="ExecutionPipeline" dataDxfId="72"/>
+    <tableColumn id="3" name="PickUpType-Location" dataDxfId="71"/>
+    <tableColumn id="4" name="OriginLocation" dataDxfId="70"/>
+    <tableColumn id="5" name="DropOffType-Location" dataDxfId="69"/>
+    <tableColumn id="6" name="DestinationLocation" dataDxfId="68"/>
+    <tableColumn id="7" name="TravelDates" dataDxfId="67"/>
+    <tableColumn id="8" name="RentalAgency" dataDxfId="66"/>
+    <tableColumn id="9" name="CarType" dataDxfId="65"/>
+    <tableColumn id="10" name="AirConditioning" dataDxfId="64"/>
+    <tableColumn id="11" name="Transmission" dataDxfId="63"/>
+    <tableColumn id="12" name="CorpDiscRentalAgency" dataDxfId="62"/>
+    <tableColumn id="13" name="CorpDiscCode" dataDxfId="61"/>
+    <tableColumn id="14" name="CorpDiscPromotionalCode" dataDxfId="60"/>
+    <tableColumn id="15" name="UserType" dataDxfId="59"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:O2" totalsRowShown="0" headerRowDxfId="58" dataDxfId="56" headerRowBorderDxfId="57" tableBorderDxfId="55">
+  <autoFilter ref="A1:O2"/>
+  <tableColumns count="15">
+    <tableColumn id="1" name="Description" dataDxfId="54"/>
+    <tableColumn id="2" name="ExecutionPipeline" dataDxfId="53"/>
+    <tableColumn id="3" name="PickUpType-Location" dataDxfId="52"/>
+    <tableColumn id="4" name="OriginLocation" dataDxfId="51"/>
+    <tableColumn id="5" name="DropOffType-Location" dataDxfId="50"/>
+    <tableColumn id="6" name="DestinationLocation" dataDxfId="49"/>
+    <tableColumn id="7" name="TravelDates" dataDxfId="48"/>
+    <tableColumn id="8" name="RentalAgency" dataDxfId="47"/>
+    <tableColumn id="9" name="CarType" dataDxfId="46"/>
+    <tableColumn id="10" name="AirConditioning" dataDxfId="45"/>
+    <tableColumn id="11" name="Transmission" dataDxfId="44"/>
+    <tableColumn id="12" name="CorpDiscRentalAgency" dataDxfId="43"/>
+    <tableColumn id="13" name="CorpDiscCode" dataDxfId="42"/>
+    <tableColumn id="14" name="CorpDiscPromotionalCode" dataDxfId="41"/>
+    <tableColumn id="15" name="UserType" dataDxfId="40"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:O2" totalsRowShown="0" headerRowDxfId="39" dataDxfId="37" headerRowBorderDxfId="38" tableBorderDxfId="36">
+  <autoFilter ref="A1:O2"/>
+  <tableColumns count="15">
+    <tableColumn id="1" name="Description" dataDxfId="35"/>
+    <tableColumn id="2" name="ExecutionPipeline" dataDxfId="34"/>
+    <tableColumn id="3" name="PickUpType-Location" dataDxfId="33"/>
+    <tableColumn id="4" name="OriginLocation" dataDxfId="32"/>
+    <tableColumn id="5" name="DropOffType-Location" dataDxfId="31"/>
+    <tableColumn id="6" name="DestinationLocation" dataDxfId="30"/>
+    <tableColumn id="7" name="TravelDates" dataDxfId="29"/>
+    <tableColumn id="8" name="RentalAgency" dataDxfId="28"/>
+    <tableColumn id="9" name="CarType" dataDxfId="27"/>
+    <tableColumn id="10" name="AirConditioning" dataDxfId="26"/>
+    <tableColumn id="11" name="Transmission" dataDxfId="25"/>
+    <tableColumn id="12" name="CorpDiscRentalAgency" dataDxfId="24"/>
+    <tableColumn id="13" name="CorpDiscCode" dataDxfId="23"/>
+    <tableColumn id="14" name="CorpDiscPromotionalCode" dataDxfId="22"/>
+    <tableColumn id="15" name="UserType" dataDxfId="21"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A1:O2" totalsRowShown="0" headerRowDxfId="20" dataDxfId="18" headerRowBorderDxfId="19" tableBorderDxfId="17">
+  <autoFilter ref="A1:O2"/>
+  <tableColumns count="15">
+    <tableColumn id="1" name="Description" dataDxfId="16"/>
+    <tableColumn id="2" name="ExecutionPipeline" dataDxfId="15"/>
+    <tableColumn id="3" name="PickUpType-Location" dataDxfId="14"/>
+    <tableColumn id="4" name="OriginLocation" dataDxfId="13"/>
+    <tableColumn id="5" name="DropOffType-Location" dataDxfId="12"/>
+    <tableColumn id="6" name="DestinationLocation" dataDxfId="11"/>
+    <tableColumn id="7" name="TravelDates" dataDxfId="10"/>
+    <tableColumn id="8" name="RentalAgency" dataDxfId="9"/>
+    <tableColumn id="9" name="CarType" dataDxfId="8"/>
+    <tableColumn id="10" name="AirConditioning" dataDxfId="7"/>
+    <tableColumn id="11" name="Transmission" dataDxfId="6"/>
+    <tableColumn id="12" name="CorpDiscRentalAgency" dataDxfId="5"/>
+    <tableColumn id="13" name="CorpDiscCode" dataDxfId="4"/>
+    <tableColumn id="14" name="CorpDiscPromotionalCode" dataDxfId="3"/>
+    <tableColumn id="15" name="UserType" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -896,23 +3754,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="M2" sqref="M2"/>
+      <selection pane="topRight" activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="77.5703125" style="13" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="77.5703125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.140625" customWidth="1"/>
     <col min="6" max="6" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.28515625" style="10" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.7109375" style="7" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.42578125" customWidth="1"/>
     <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.42578125" bestFit="1" customWidth="1"/>
@@ -923,173 +3780,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>12</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>29</v>
+      <c r="A2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="6" t="s">
-        <v>8</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="19"/>
+      <c r="G2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
+      <c r="L2" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="M2" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="K4" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1099,4 +3868,585 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="57.42578125" customWidth="1"/>
+    <col min="2" max="2" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="34"/>
+      <c r="G2" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" customWidth="1"/>
+    <col min="10" max="10" width="17.140625" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" customWidth="1"/>
+    <col min="12" max="12" width="23" customWidth="1"/>
+    <col min="13" max="13" width="15.42578125" customWidth="1"/>
+    <col min="14" max="14" width="26.42578125" customWidth="1"/>
+    <col min="15" max="15" width="11.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="20"/>
+      <c r="G2" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="32" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="42.7109375" customWidth="1"/>
+    <col min="2" max="2" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" customWidth="1"/>
+    <col min="10" max="10" width="17.140625" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" customWidth="1"/>
+    <col min="12" max="12" width="23" customWidth="1"/>
+    <col min="13" max="13" width="15.42578125" customWidth="1"/>
+    <col min="14" max="14" width="26.42578125" customWidth="1"/>
+    <col min="15" max="15" width="11.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="19"/>
+      <c r="G2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="52" customWidth="1"/>
+    <col min="2" max="2" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" customWidth="1"/>
+    <col min="10" max="10" width="17.140625" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" customWidth="1"/>
+    <col min="12" max="12" width="23" customWidth="1"/>
+    <col min="13" max="13" width="15.42578125" customWidth="1"/>
+    <col min="14" max="14" width="26.42578125" customWidth="1"/>
+    <col min="15" max="15" width="11.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="20"/>
+      <c r="G2" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="53.140625" customWidth="1"/>
+    <col min="2" max="2" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" customWidth="1"/>
+    <col min="10" max="10" width="17.140625" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" customWidth="1"/>
+    <col min="12" max="12" width="23" customWidth="1"/>
+    <col min="13" max="13" width="15.42578125" customWidth="1"/>
+    <col min="14" max="14" width="26.42578125" customWidth="1"/>
+    <col min="15" max="15" width="11.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="21"/>
+      <c r="G2" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/Rovia.UI.Automation.Tests/DataSheet/CarScenarios.xlsx
+++ b/Rovia.UI.Automation.Tests/DataSheet/CarScenarios.xlsx
@@ -538,6 +538,40 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
         <sz val="10"/>
         <color rgb="FF000000"/>
         <name val="Arial"/>
@@ -1015,40 +1049,6 @@
         </top>
         <bottom style="thin">
           <color theme="4"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
         </bottom>
         <vertical/>
         <horizontal/>
@@ -3352,7 +3352,7 @@
   <autoFilter ref="A1:O2"/>
   <tableColumns count="15">
     <tableColumn id="1" name="Description" dataDxfId="91"/>
-    <tableColumn id="16" name="ExecutionPipeline" dataDxfId="3"/>
+    <tableColumn id="16" name="ExecutionPipeline" dataDxfId="5"/>
     <tableColumn id="2" name="PickUpType-Location" dataDxfId="90"/>
     <tableColumn id="19" name="OriginLocation" dataDxfId="89"/>
     <tableColumn id="3" name="DropOffType-Location" dataDxfId="88"/>
@@ -3376,7 +3376,7 @@
   <autoFilter ref="A1:O2"/>
   <tableColumns count="15">
     <tableColumn id="1" name="Description" dataDxfId="73"/>
-    <tableColumn id="2" name="ExecutionPipeline" dataDxfId="2"/>
+    <tableColumn id="2" name="ExecutionPipeline" dataDxfId="3"/>
     <tableColumn id="3" name="PickUpType-Location" dataDxfId="72"/>
     <tableColumn id="4" name="OriginLocation" dataDxfId="71"/>
     <tableColumn id="5" name="DropOffType-Location" dataDxfId="70"/>
@@ -3400,7 +3400,7 @@
   <autoFilter ref="A1:O2"/>
   <tableColumns count="15">
     <tableColumn id="1" name="Description" dataDxfId="55"/>
-    <tableColumn id="2" name="ExecutionPipeline" dataDxfId="1"/>
+    <tableColumn id="2" name="ExecutionPipeline" dataDxfId="2"/>
     <tableColumn id="3" name="PickUpType-Location" dataDxfId="54"/>
     <tableColumn id="4" name="OriginLocation" dataDxfId="53"/>
     <tableColumn id="5" name="DropOffType-Location" dataDxfId="52"/>
@@ -3424,7 +3424,7 @@
   <autoFilter ref="A1:O2"/>
   <tableColumns count="15">
     <tableColumn id="1" name="Description" dataDxfId="37"/>
-    <tableColumn id="2" name="ExecutionPipeline" dataDxfId="0"/>
+    <tableColumn id="2" name="ExecutionPipeline" dataDxfId="1"/>
     <tableColumn id="3" name="PickUpType-Location" dataDxfId="36"/>
     <tableColumn id="4" name="OriginLocation" dataDxfId="35"/>
     <tableColumn id="5" name="DropOffType-Location" dataDxfId="34"/>
@@ -3448,20 +3448,20 @@
   <autoFilter ref="A1:O2"/>
   <tableColumns count="15">
     <tableColumn id="1" name="Description" dataDxfId="19"/>
-    <tableColumn id="2" name="ExecutionPipeline" dataDxfId="18"/>
-    <tableColumn id="3" name="PickUpType-Location" dataDxfId="17"/>
-    <tableColumn id="4" name="OriginLocation" dataDxfId="16"/>
-    <tableColumn id="5" name="DropOffType-Location" dataDxfId="15"/>
-    <tableColumn id="6" name="DestinationLocation" dataDxfId="14"/>
-    <tableColumn id="7" name="TravelDates" dataDxfId="13"/>
-    <tableColumn id="8" name="RentalAgency" dataDxfId="12"/>
-    <tableColumn id="9" name="CarType" dataDxfId="11"/>
-    <tableColumn id="10" name="AirConditioning" dataDxfId="10"/>
-    <tableColumn id="11" name="Transmission" dataDxfId="9"/>
-    <tableColumn id="12" name="CorpDiscRentalAgency" dataDxfId="8"/>
-    <tableColumn id="13" name="CorpDiscCode" dataDxfId="7"/>
-    <tableColumn id="14" name="CorpDiscPromotionalCode" dataDxfId="6"/>
-    <tableColumn id="15" name="UserType" dataDxfId="5"/>
+    <tableColumn id="2" name="ExecutionPipeline" dataDxfId="0"/>
+    <tableColumn id="3" name="PickUpType-Location" dataDxfId="18"/>
+    <tableColumn id="4" name="OriginLocation" dataDxfId="17"/>
+    <tableColumn id="5" name="DropOffType-Location" dataDxfId="16"/>
+    <tableColumn id="6" name="DestinationLocation" dataDxfId="15"/>
+    <tableColumn id="7" name="TravelDates" dataDxfId="14"/>
+    <tableColumn id="8" name="RentalAgency" dataDxfId="13"/>
+    <tableColumn id="9" name="CarType" dataDxfId="12"/>
+    <tableColumn id="10" name="AirConditioning" dataDxfId="11"/>
+    <tableColumn id="11" name="Transmission" dataDxfId="10"/>
+    <tableColumn id="12" name="CorpDiscRentalAgency" dataDxfId="9"/>
+    <tableColumn id="13" name="CorpDiscCode" dataDxfId="8"/>
+    <tableColumn id="14" name="CorpDiscPromotionalCode" dataDxfId="7"/>
+    <tableColumn id="15" name="UserType" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4337,7 +4337,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Rovia.UI.Automation.Tests/DataSheet/CarScenarios.xlsx
+++ b/Rovia.UI.Automation.Tests/DataSheet/CarScenarios.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="881" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="881" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Car_Airport_To_Airport" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="35">
   <si>
     <t>Description</t>
   </si>
@@ -120,7 +120,10 @@
     <t>Booking of car for pickup in a City and drop same as pickup with all additional options selected</t>
   </si>
   <si>
-    <t>Search|AddToCart</t>
+    <t>Search|AddToCart|checkoutTrip|Login|enterpaxinfo|confirmpaxinfo</t>
+  </si>
+  <si>
+    <t>Search|AddToCart|checkoutTrip|Login|enterpaxinfo|confirmpaxinfo||Paynow</t>
   </si>
 </sst>
 </file>
@@ -446,222 +449,6 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
         <right/>
         <top style="thin">
           <color theme="4"/>
@@ -1049,6 +836,40 @@
         </top>
         <bottom style="thin">
           <color theme="4"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
         </bottom>
         <vertical/>
         <horizontal/>
@@ -1626,6 +1447,40 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Arial"/>
         <scheme val="none"/>
@@ -2150,6 +2005,40 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Arial"/>
         <scheme val="none"/>
@@ -2668,6 +2557,40 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Arial"/>
         <scheme val="none"/>
@@ -2974,6 +2897,46 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF000000"/>
         <name val="Arial"/>
         <scheme val="none"/>
@@ -3257,6 +3220,46 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -3328,140 +3331,140 @@
   <autoFilter ref="A1:O2"/>
   <tableColumns count="15">
     <tableColumn id="1" name="Description" dataDxfId="110"/>
-    <tableColumn id="16" name="ExecutionPipeline" dataDxfId="4"/>
-    <tableColumn id="2" name="PickUpType-Location" dataDxfId="109"/>
-    <tableColumn id="19" name="OriginLocation" dataDxfId="108"/>
-    <tableColumn id="3" name="DropOffType-Location" dataDxfId="107"/>
-    <tableColumn id="20" name="DestinationLocation" dataDxfId="106"/>
-    <tableColumn id="4" name="TravelDates" dataDxfId="105"/>
-    <tableColumn id="5" name="RentalAgency" dataDxfId="104"/>
-    <tableColumn id="18" name="CarType" dataDxfId="103"/>
-    <tableColumn id="6" name="AirConditioning" dataDxfId="102"/>
-    <tableColumn id="7" name="Transmission" dataDxfId="101"/>
-    <tableColumn id="8" name="CorpDiscRentalAgency" dataDxfId="100"/>
-    <tableColumn id="9" name="CorpDiscCode" dataDxfId="99"/>
-    <tableColumn id="10" name="CorpDiscPromotionalCode" dataDxfId="98"/>
-    <tableColumn id="12" name="UserType" dataDxfId="97"/>
+    <tableColumn id="16" name="ExecutionPipeline" dataDxfId="109"/>
+    <tableColumn id="2" name="PickUpType-Location" dataDxfId="108"/>
+    <tableColumn id="19" name="OriginLocation" dataDxfId="107"/>
+    <tableColumn id="3" name="DropOffType-Location" dataDxfId="106"/>
+    <tableColumn id="20" name="DestinationLocation" dataDxfId="105"/>
+    <tableColumn id="4" name="TravelDates" dataDxfId="104"/>
+    <tableColumn id="5" name="RentalAgency" dataDxfId="103"/>
+    <tableColumn id="18" name="CarType" dataDxfId="102"/>
+    <tableColumn id="6" name="AirConditioning" dataDxfId="101"/>
+    <tableColumn id="7" name="Transmission" dataDxfId="100"/>
+    <tableColumn id="8" name="CorpDiscRentalAgency" dataDxfId="99"/>
+    <tableColumn id="9" name="CorpDiscCode" dataDxfId="98"/>
+    <tableColumn id="10" name="CorpDiscPromotionalCode" dataDxfId="97"/>
+    <tableColumn id="12" name="UserType" dataDxfId="96"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table23" displayName="Table23" ref="A1:O2" totalsRowShown="0" headerRowDxfId="96" dataDxfId="94" headerRowBorderDxfId="95" tableBorderDxfId="93" totalsRowBorderDxfId="92">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table23" displayName="Table23" ref="A1:O2" totalsRowShown="0" headerRowDxfId="95" dataDxfId="93" headerRowBorderDxfId="94" tableBorderDxfId="92" totalsRowBorderDxfId="91">
   <autoFilter ref="A1:O2"/>
   <tableColumns count="15">
-    <tableColumn id="1" name="Description" dataDxfId="91"/>
-    <tableColumn id="16" name="ExecutionPipeline" dataDxfId="5"/>
-    <tableColumn id="2" name="PickUpType-Location" dataDxfId="90"/>
-    <tableColumn id="19" name="OriginLocation" dataDxfId="89"/>
-    <tableColumn id="3" name="DropOffType-Location" dataDxfId="88"/>
-    <tableColumn id="20" name="DestinationLocation" dataDxfId="87"/>
-    <tableColumn id="4" name="TravelDates" dataDxfId="86"/>
-    <tableColumn id="5" name="RentalAgency" dataDxfId="85"/>
-    <tableColumn id="18" name="CarType" dataDxfId="84"/>
-    <tableColumn id="6" name="AirConditioning" dataDxfId="83"/>
-    <tableColumn id="7" name="Transmission" dataDxfId="82"/>
-    <tableColumn id="8" name="CorpDiscRentalAgency" dataDxfId="81"/>
-    <tableColumn id="9" name="CorpDiscCode" dataDxfId="80"/>
-    <tableColumn id="10" name="CorpDiscPromotionalCode" dataDxfId="79"/>
-    <tableColumn id="12" name="UserType" dataDxfId="78"/>
+    <tableColumn id="1" name="Description" dataDxfId="90"/>
+    <tableColumn id="16" name="ExecutionPipeline" dataDxfId="89"/>
+    <tableColumn id="2" name="PickUpType-Location" dataDxfId="88"/>
+    <tableColumn id="19" name="OriginLocation" dataDxfId="87"/>
+    <tableColumn id="3" name="DropOffType-Location" dataDxfId="86"/>
+    <tableColumn id="20" name="DestinationLocation" dataDxfId="85"/>
+    <tableColumn id="4" name="TravelDates" dataDxfId="84"/>
+    <tableColumn id="5" name="RentalAgency" dataDxfId="83"/>
+    <tableColumn id="18" name="CarType" dataDxfId="82"/>
+    <tableColumn id="6" name="AirConditioning" dataDxfId="81"/>
+    <tableColumn id="7" name="Transmission" dataDxfId="80"/>
+    <tableColumn id="8" name="CorpDiscRentalAgency" dataDxfId="79"/>
+    <tableColumn id="9" name="CorpDiscCode" dataDxfId="78"/>
+    <tableColumn id="10" name="CorpDiscPromotionalCode" dataDxfId="77"/>
+    <tableColumn id="12" name="UserType" dataDxfId="76"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:O2" totalsRowShown="0" headerRowDxfId="77" dataDxfId="75" headerRowBorderDxfId="76" tableBorderDxfId="74">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:O2" totalsRowShown="0" headerRowDxfId="75" dataDxfId="73" headerRowBorderDxfId="74" tableBorderDxfId="72">
   <autoFilter ref="A1:O2"/>
   <tableColumns count="15">
-    <tableColumn id="1" name="Description" dataDxfId="73"/>
-    <tableColumn id="2" name="ExecutionPipeline" dataDxfId="3"/>
-    <tableColumn id="3" name="PickUpType-Location" dataDxfId="72"/>
-    <tableColumn id="4" name="OriginLocation" dataDxfId="71"/>
-    <tableColumn id="5" name="DropOffType-Location" dataDxfId="70"/>
-    <tableColumn id="6" name="DestinationLocation" dataDxfId="69"/>
-    <tableColumn id="7" name="TravelDates" dataDxfId="68"/>
-    <tableColumn id="8" name="RentalAgency" dataDxfId="67"/>
-    <tableColumn id="9" name="CarType" dataDxfId="66"/>
-    <tableColumn id="10" name="AirConditioning" dataDxfId="65"/>
-    <tableColumn id="11" name="Transmission" dataDxfId="64"/>
-    <tableColumn id="12" name="CorpDiscRentalAgency" dataDxfId="63"/>
-    <tableColumn id="13" name="CorpDiscCode" dataDxfId="62"/>
-    <tableColumn id="14" name="CorpDiscPromotionalCode" dataDxfId="61"/>
-    <tableColumn id="15" name="UserType" dataDxfId="60"/>
+    <tableColumn id="1" name="Description" dataDxfId="71"/>
+    <tableColumn id="2" name="ExecutionPipeline" dataDxfId="70"/>
+    <tableColumn id="3" name="PickUpType-Location" dataDxfId="69"/>
+    <tableColumn id="4" name="OriginLocation" dataDxfId="68"/>
+    <tableColumn id="5" name="DropOffType-Location" dataDxfId="67"/>
+    <tableColumn id="6" name="DestinationLocation" dataDxfId="66"/>
+    <tableColumn id="7" name="TravelDates" dataDxfId="65"/>
+    <tableColumn id="8" name="RentalAgency" dataDxfId="64"/>
+    <tableColumn id="9" name="CarType" dataDxfId="63"/>
+    <tableColumn id="10" name="AirConditioning" dataDxfId="62"/>
+    <tableColumn id="11" name="Transmission" dataDxfId="61"/>
+    <tableColumn id="12" name="CorpDiscRentalAgency" dataDxfId="60"/>
+    <tableColumn id="13" name="CorpDiscCode" dataDxfId="59"/>
+    <tableColumn id="14" name="CorpDiscPromotionalCode" dataDxfId="58"/>
+    <tableColumn id="15" name="UserType" dataDxfId="57"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:O2" totalsRowShown="0" headerRowDxfId="59" dataDxfId="57" headerRowBorderDxfId="58" tableBorderDxfId="56">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:O2" totalsRowShown="0" headerRowDxfId="56" dataDxfId="54" headerRowBorderDxfId="55" tableBorderDxfId="53">
   <autoFilter ref="A1:O2"/>
   <tableColumns count="15">
-    <tableColumn id="1" name="Description" dataDxfId="55"/>
-    <tableColumn id="2" name="ExecutionPipeline" dataDxfId="2"/>
-    <tableColumn id="3" name="PickUpType-Location" dataDxfId="54"/>
-    <tableColumn id="4" name="OriginLocation" dataDxfId="53"/>
-    <tableColumn id="5" name="DropOffType-Location" dataDxfId="52"/>
-    <tableColumn id="6" name="DestinationLocation" dataDxfId="51"/>
-    <tableColumn id="7" name="TravelDates" dataDxfId="50"/>
-    <tableColumn id="8" name="RentalAgency" dataDxfId="49"/>
-    <tableColumn id="9" name="CarType" dataDxfId="48"/>
-    <tableColumn id="10" name="AirConditioning" dataDxfId="47"/>
-    <tableColumn id="11" name="Transmission" dataDxfId="46"/>
-    <tableColumn id="12" name="CorpDiscRentalAgency" dataDxfId="45"/>
-    <tableColumn id="13" name="CorpDiscCode" dataDxfId="44"/>
-    <tableColumn id="14" name="CorpDiscPromotionalCode" dataDxfId="43"/>
-    <tableColumn id="15" name="UserType" dataDxfId="42"/>
+    <tableColumn id="1" name="Description" dataDxfId="52"/>
+    <tableColumn id="2" name="ExecutionPipeline" dataDxfId="51"/>
+    <tableColumn id="3" name="PickUpType-Location" dataDxfId="50"/>
+    <tableColumn id="4" name="OriginLocation" dataDxfId="49"/>
+    <tableColumn id="5" name="DropOffType-Location" dataDxfId="48"/>
+    <tableColumn id="6" name="DestinationLocation" dataDxfId="47"/>
+    <tableColumn id="7" name="TravelDates" dataDxfId="46"/>
+    <tableColumn id="8" name="RentalAgency" dataDxfId="45"/>
+    <tableColumn id="9" name="CarType" dataDxfId="44"/>
+    <tableColumn id="10" name="AirConditioning" dataDxfId="43"/>
+    <tableColumn id="11" name="Transmission" dataDxfId="42"/>
+    <tableColumn id="12" name="CorpDiscRentalAgency" dataDxfId="41"/>
+    <tableColumn id="13" name="CorpDiscCode" dataDxfId="40"/>
+    <tableColumn id="14" name="CorpDiscPromotionalCode" dataDxfId="39"/>
+    <tableColumn id="15" name="UserType" dataDxfId="38"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:O2" totalsRowShown="0" headerRowDxfId="41" dataDxfId="39" headerRowBorderDxfId="40" tableBorderDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:O2" totalsRowShown="0" headerRowDxfId="37" dataDxfId="35" headerRowBorderDxfId="36" tableBorderDxfId="34">
   <autoFilter ref="A1:O2"/>
   <tableColumns count="15">
-    <tableColumn id="1" name="Description" dataDxfId="37"/>
-    <tableColumn id="2" name="ExecutionPipeline" dataDxfId="1"/>
-    <tableColumn id="3" name="PickUpType-Location" dataDxfId="36"/>
-    <tableColumn id="4" name="OriginLocation" dataDxfId="35"/>
-    <tableColumn id="5" name="DropOffType-Location" dataDxfId="34"/>
-    <tableColumn id="6" name="DestinationLocation" dataDxfId="33"/>
-    <tableColumn id="7" name="TravelDates" dataDxfId="32"/>
-    <tableColumn id="8" name="RentalAgency" dataDxfId="31"/>
-    <tableColumn id="9" name="CarType" dataDxfId="30"/>
-    <tableColumn id="10" name="AirConditioning" dataDxfId="29"/>
-    <tableColumn id="11" name="Transmission" dataDxfId="28"/>
-    <tableColumn id="12" name="CorpDiscRentalAgency" dataDxfId="27"/>
-    <tableColumn id="13" name="CorpDiscCode" dataDxfId="26"/>
-    <tableColumn id="14" name="CorpDiscPromotionalCode" dataDxfId="25"/>
-    <tableColumn id="15" name="UserType" dataDxfId="24"/>
+    <tableColumn id="1" name="Description" dataDxfId="33"/>
+    <tableColumn id="2" name="ExecutionPipeline" dataDxfId="32"/>
+    <tableColumn id="3" name="PickUpType-Location" dataDxfId="31"/>
+    <tableColumn id="4" name="OriginLocation" dataDxfId="30"/>
+    <tableColumn id="5" name="DropOffType-Location" dataDxfId="29"/>
+    <tableColumn id="6" name="DestinationLocation" dataDxfId="28"/>
+    <tableColumn id="7" name="TravelDates" dataDxfId="27"/>
+    <tableColumn id="8" name="RentalAgency" dataDxfId="26"/>
+    <tableColumn id="9" name="CarType" dataDxfId="25"/>
+    <tableColumn id="10" name="AirConditioning" dataDxfId="24"/>
+    <tableColumn id="11" name="Transmission" dataDxfId="23"/>
+    <tableColumn id="12" name="CorpDiscRentalAgency" dataDxfId="22"/>
+    <tableColumn id="13" name="CorpDiscCode" dataDxfId="21"/>
+    <tableColumn id="14" name="CorpDiscPromotionalCode" dataDxfId="20"/>
+    <tableColumn id="15" name="UserType" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A1:O2" totalsRowShown="0" headerRowDxfId="23" dataDxfId="21" headerRowBorderDxfId="22" tableBorderDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A1:O2" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15">
   <autoFilter ref="A1:O2"/>
   <tableColumns count="15">
-    <tableColumn id="1" name="Description" dataDxfId="19"/>
-    <tableColumn id="2" name="ExecutionPipeline" dataDxfId="0"/>
-    <tableColumn id="3" name="PickUpType-Location" dataDxfId="18"/>
-    <tableColumn id="4" name="OriginLocation" dataDxfId="17"/>
-    <tableColumn id="5" name="DropOffType-Location" dataDxfId="16"/>
-    <tableColumn id="6" name="DestinationLocation" dataDxfId="15"/>
-    <tableColumn id="7" name="TravelDates" dataDxfId="14"/>
-    <tableColumn id="8" name="RentalAgency" dataDxfId="13"/>
-    <tableColumn id="9" name="CarType" dataDxfId="12"/>
-    <tableColumn id="10" name="AirConditioning" dataDxfId="11"/>
-    <tableColumn id="11" name="Transmission" dataDxfId="10"/>
-    <tableColumn id="12" name="CorpDiscRentalAgency" dataDxfId="9"/>
-    <tableColumn id="13" name="CorpDiscCode" dataDxfId="8"/>
-    <tableColumn id="14" name="CorpDiscPromotionalCode" dataDxfId="7"/>
-    <tableColumn id="15" name="UserType" dataDxfId="6"/>
+    <tableColumn id="1" name="Description" dataDxfId="14"/>
+    <tableColumn id="2" name="ExecutionPipeline" dataDxfId="13"/>
+    <tableColumn id="3" name="PickUpType-Location" dataDxfId="12"/>
+    <tableColumn id="4" name="OriginLocation" dataDxfId="11"/>
+    <tableColumn id="5" name="DropOffType-Location" dataDxfId="10"/>
+    <tableColumn id="6" name="DestinationLocation" dataDxfId="9"/>
+    <tableColumn id="7" name="TravelDates" dataDxfId="8"/>
+    <tableColumn id="8" name="RentalAgency" dataDxfId="7"/>
+    <tableColumn id="9" name="CarType" dataDxfId="6"/>
+    <tableColumn id="10" name="AirConditioning" dataDxfId="5"/>
+    <tableColumn id="11" name="Transmission" dataDxfId="4"/>
+    <tableColumn id="12" name="CorpDiscRentalAgency" dataDxfId="3"/>
+    <tableColumn id="13" name="CorpDiscCode" dataDxfId="2"/>
+    <tableColumn id="14" name="CorpDiscPromotionalCode" dataDxfId="1"/>
+    <tableColumn id="15" name="UserType" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3759,7 +3762,7 @@
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="B2" sqref="B2"/>
+      <selection pane="topRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3875,7 +3878,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3941,7 +3944,7 @@
         <v>26</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C2" s="33" t="s">
         <v>5</v>
@@ -4100,8 +4103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4175,7 +4178,7 @@
         <v>29</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>30</v>
@@ -4218,7 +4221,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4336,8 +4339,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Rovia.UI.Automation.Tests/DataSheet/CarScenarios.xlsx
+++ b/Rovia.UI.Automation.Tests/DataSheet/CarScenarios.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="881" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="881" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Car_Airport_To_Airport" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="38">
   <si>
     <t>Description</t>
   </si>
@@ -123,14 +123,23 @@
     <t>Search|AddToCart|checkoutTrip|Login|enterpaxinfo|confirmpaxinfo</t>
   </si>
   <si>
-    <t>Search|AddToCart|checkoutTrip|Login|enterpaxinfo|confirmpaxinfo||Paynow</t>
+    <t>PostFilters</t>
+  </si>
+  <si>
+    <t>PostFiltersValues</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>20-30</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,6 +165,19 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -336,7 +358,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -423,11 +445,379 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="116">
+  <dxfs count="128">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -3220,46 +3610,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -3327,144 +3677,156 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="A1:O2" totalsRowShown="0" headerRowDxfId="115" dataDxfId="113" headerRowBorderDxfId="114" tableBorderDxfId="112" totalsRowBorderDxfId="111">
-  <autoFilter ref="A1:O2"/>
-  <tableColumns count="15">
-    <tableColumn id="1" name="Description" dataDxfId="110"/>
-    <tableColumn id="16" name="ExecutionPipeline" dataDxfId="109"/>
-    <tableColumn id="2" name="PickUpType-Location" dataDxfId="108"/>
-    <tableColumn id="19" name="OriginLocation" dataDxfId="107"/>
-    <tableColumn id="3" name="DropOffType-Location" dataDxfId="106"/>
-    <tableColumn id="20" name="DestinationLocation" dataDxfId="105"/>
-    <tableColumn id="4" name="TravelDates" dataDxfId="104"/>
-    <tableColumn id="5" name="RentalAgency" dataDxfId="103"/>
-    <tableColumn id="18" name="CarType" dataDxfId="102"/>
-    <tableColumn id="6" name="AirConditioning" dataDxfId="101"/>
-    <tableColumn id="7" name="Transmission" dataDxfId="100"/>
-    <tableColumn id="8" name="CorpDiscRentalAgency" dataDxfId="99"/>
-    <tableColumn id="9" name="CorpDiscCode" dataDxfId="98"/>
-    <tableColumn id="10" name="CorpDiscPromotionalCode" dataDxfId="97"/>
-    <tableColumn id="12" name="UserType" dataDxfId="96"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="A1:Q2" totalsRowShown="0" headerRowDxfId="127" dataDxfId="125" headerRowBorderDxfId="126" tableBorderDxfId="124" totalsRowBorderDxfId="123">
+  <autoFilter ref="A1:Q2"/>
+  <tableColumns count="17">
+    <tableColumn id="1" name="Description" dataDxfId="122"/>
+    <tableColumn id="16" name="ExecutionPipeline" dataDxfId="0"/>
+    <tableColumn id="2" name="PickUpType-Location" dataDxfId="121"/>
+    <tableColumn id="19" name="OriginLocation" dataDxfId="120"/>
+    <tableColumn id="3" name="DropOffType-Location" dataDxfId="119"/>
+    <tableColumn id="20" name="DestinationLocation" dataDxfId="118"/>
+    <tableColumn id="4" name="TravelDates" dataDxfId="117"/>
+    <tableColumn id="5" name="RentalAgency" dataDxfId="116"/>
+    <tableColumn id="18" name="CarType" dataDxfId="115"/>
+    <tableColumn id="6" name="AirConditioning" dataDxfId="114"/>
+    <tableColumn id="7" name="Transmission" dataDxfId="113"/>
+    <tableColumn id="8" name="CorpDiscRentalAgency" dataDxfId="112"/>
+    <tableColumn id="9" name="CorpDiscCode" dataDxfId="111"/>
+    <tableColumn id="10" name="CorpDiscPromotionalCode" dataDxfId="110"/>
+    <tableColumn id="12" name="UserType" dataDxfId="109"/>
+    <tableColumn id="11" name="PostFilters" dataDxfId="12"/>
+    <tableColumn id="13" name="PostFiltersValues" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table23" displayName="Table23" ref="A1:O2" totalsRowShown="0" headerRowDxfId="95" dataDxfId="93" headerRowBorderDxfId="94" tableBorderDxfId="92" totalsRowBorderDxfId="91">
-  <autoFilter ref="A1:O2"/>
-  <tableColumns count="15">
-    <tableColumn id="1" name="Description" dataDxfId="90"/>
-    <tableColumn id="16" name="ExecutionPipeline" dataDxfId="89"/>
-    <tableColumn id="2" name="PickUpType-Location" dataDxfId="88"/>
-    <tableColumn id="19" name="OriginLocation" dataDxfId="87"/>
-    <tableColumn id="3" name="DropOffType-Location" dataDxfId="86"/>
-    <tableColumn id="20" name="DestinationLocation" dataDxfId="85"/>
-    <tableColumn id="4" name="TravelDates" dataDxfId="84"/>
-    <tableColumn id="5" name="RentalAgency" dataDxfId="83"/>
-    <tableColumn id="18" name="CarType" dataDxfId="82"/>
-    <tableColumn id="6" name="AirConditioning" dataDxfId="81"/>
-    <tableColumn id="7" name="Transmission" dataDxfId="80"/>
-    <tableColumn id="8" name="CorpDiscRentalAgency" dataDxfId="79"/>
-    <tableColumn id="9" name="CorpDiscCode" dataDxfId="78"/>
-    <tableColumn id="10" name="CorpDiscPromotionalCode" dataDxfId="77"/>
-    <tableColumn id="12" name="UserType" dataDxfId="76"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table23" displayName="Table23" ref="A1:Q2" totalsRowShown="0" headerRowDxfId="108" dataDxfId="106" headerRowBorderDxfId="107" tableBorderDxfId="105" totalsRowBorderDxfId="104">
+  <autoFilter ref="A1:Q2"/>
+  <tableColumns count="17">
+    <tableColumn id="1" name="Description" dataDxfId="103"/>
+    <tableColumn id="16" name="ExecutionPipeline" dataDxfId="102"/>
+    <tableColumn id="2" name="PickUpType-Location" dataDxfId="101"/>
+    <tableColumn id="19" name="OriginLocation" dataDxfId="100"/>
+    <tableColumn id="3" name="DropOffType-Location" dataDxfId="99"/>
+    <tableColumn id="20" name="DestinationLocation" dataDxfId="98"/>
+    <tableColumn id="4" name="TravelDates" dataDxfId="97"/>
+    <tableColumn id="5" name="RentalAgency" dataDxfId="96"/>
+    <tableColumn id="18" name="CarType" dataDxfId="95"/>
+    <tableColumn id="6" name="AirConditioning" dataDxfId="94"/>
+    <tableColumn id="7" name="Transmission" dataDxfId="93"/>
+    <tableColumn id="8" name="CorpDiscRentalAgency" dataDxfId="92"/>
+    <tableColumn id="9" name="CorpDiscCode" dataDxfId="91"/>
+    <tableColumn id="10" name="CorpDiscPromotionalCode" dataDxfId="90"/>
+    <tableColumn id="12" name="UserType" dataDxfId="89"/>
+    <tableColumn id="11" name="PostFilters" dataDxfId="10"/>
+    <tableColumn id="13" name="PostFiltersValues" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:O2" totalsRowShown="0" headerRowDxfId="75" dataDxfId="73" headerRowBorderDxfId="74" tableBorderDxfId="72">
-  <autoFilter ref="A1:O2"/>
-  <tableColumns count="15">
-    <tableColumn id="1" name="Description" dataDxfId="71"/>
-    <tableColumn id="2" name="ExecutionPipeline" dataDxfId="70"/>
-    <tableColumn id="3" name="PickUpType-Location" dataDxfId="69"/>
-    <tableColumn id="4" name="OriginLocation" dataDxfId="68"/>
-    <tableColumn id="5" name="DropOffType-Location" dataDxfId="67"/>
-    <tableColumn id="6" name="DestinationLocation" dataDxfId="66"/>
-    <tableColumn id="7" name="TravelDates" dataDxfId="65"/>
-    <tableColumn id="8" name="RentalAgency" dataDxfId="64"/>
-    <tableColumn id="9" name="CarType" dataDxfId="63"/>
-    <tableColumn id="10" name="AirConditioning" dataDxfId="62"/>
-    <tableColumn id="11" name="Transmission" dataDxfId="61"/>
-    <tableColumn id="12" name="CorpDiscRentalAgency" dataDxfId="60"/>
-    <tableColumn id="13" name="CorpDiscCode" dataDxfId="59"/>
-    <tableColumn id="14" name="CorpDiscPromotionalCode" dataDxfId="58"/>
-    <tableColumn id="15" name="UserType" dataDxfId="57"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:Q2" totalsRowShown="0" headerRowDxfId="88" dataDxfId="86" headerRowBorderDxfId="87" tableBorderDxfId="85">
+  <autoFilter ref="A1:Q2"/>
+  <tableColumns count="17">
+    <tableColumn id="1" name="Description" dataDxfId="84"/>
+    <tableColumn id="2" name="ExecutionPipeline" dataDxfId="83"/>
+    <tableColumn id="3" name="PickUpType-Location" dataDxfId="82"/>
+    <tableColumn id="4" name="OriginLocation" dataDxfId="81"/>
+    <tableColumn id="5" name="DropOffType-Location" dataDxfId="80"/>
+    <tableColumn id="6" name="DestinationLocation" dataDxfId="79"/>
+    <tableColumn id="7" name="TravelDates" dataDxfId="78"/>
+    <tableColumn id="8" name="RentalAgency" dataDxfId="77"/>
+    <tableColumn id="9" name="CarType" dataDxfId="76"/>
+    <tableColumn id="10" name="AirConditioning" dataDxfId="75"/>
+    <tableColumn id="11" name="Transmission" dataDxfId="74"/>
+    <tableColumn id="12" name="CorpDiscRentalAgency" dataDxfId="73"/>
+    <tableColumn id="13" name="CorpDiscCode" dataDxfId="72"/>
+    <tableColumn id="14" name="CorpDiscPromotionalCode" dataDxfId="71"/>
+    <tableColumn id="15" name="UserType" dataDxfId="70"/>
+    <tableColumn id="16" name="PostFilters" dataDxfId="8"/>
+    <tableColumn id="17" name="PostFiltersValues" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:O2" totalsRowShown="0" headerRowDxfId="56" dataDxfId="54" headerRowBorderDxfId="55" tableBorderDxfId="53">
-  <autoFilter ref="A1:O2"/>
-  <tableColumns count="15">
-    <tableColumn id="1" name="Description" dataDxfId="52"/>
-    <tableColumn id="2" name="ExecutionPipeline" dataDxfId="51"/>
-    <tableColumn id="3" name="PickUpType-Location" dataDxfId="50"/>
-    <tableColumn id="4" name="OriginLocation" dataDxfId="49"/>
-    <tableColumn id="5" name="DropOffType-Location" dataDxfId="48"/>
-    <tableColumn id="6" name="DestinationLocation" dataDxfId="47"/>
-    <tableColumn id="7" name="TravelDates" dataDxfId="46"/>
-    <tableColumn id="8" name="RentalAgency" dataDxfId="45"/>
-    <tableColumn id="9" name="CarType" dataDxfId="44"/>
-    <tableColumn id="10" name="AirConditioning" dataDxfId="43"/>
-    <tableColumn id="11" name="Transmission" dataDxfId="42"/>
-    <tableColumn id="12" name="CorpDiscRentalAgency" dataDxfId="41"/>
-    <tableColumn id="13" name="CorpDiscCode" dataDxfId="40"/>
-    <tableColumn id="14" name="CorpDiscPromotionalCode" dataDxfId="39"/>
-    <tableColumn id="15" name="UserType" dataDxfId="38"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:Q2" totalsRowShown="0" headerRowDxfId="69" dataDxfId="67" headerRowBorderDxfId="68" tableBorderDxfId="66">
+  <autoFilter ref="A1:Q2"/>
+  <tableColumns count="17">
+    <tableColumn id="1" name="Description" dataDxfId="65"/>
+    <tableColumn id="2" name="ExecutionPipeline" dataDxfId="64"/>
+    <tableColumn id="3" name="PickUpType-Location" dataDxfId="63"/>
+    <tableColumn id="4" name="OriginLocation" dataDxfId="62"/>
+    <tableColumn id="5" name="DropOffType-Location" dataDxfId="61"/>
+    <tableColumn id="6" name="DestinationLocation" dataDxfId="60"/>
+    <tableColumn id="7" name="TravelDates" dataDxfId="59"/>
+    <tableColumn id="8" name="RentalAgency" dataDxfId="58"/>
+    <tableColumn id="9" name="CarType" dataDxfId="57"/>
+    <tableColumn id="10" name="AirConditioning" dataDxfId="56"/>
+    <tableColumn id="11" name="Transmission" dataDxfId="55"/>
+    <tableColumn id="12" name="CorpDiscRentalAgency" dataDxfId="54"/>
+    <tableColumn id="13" name="CorpDiscCode" dataDxfId="53"/>
+    <tableColumn id="14" name="CorpDiscPromotionalCode" dataDxfId="52"/>
+    <tableColumn id="15" name="UserType" dataDxfId="51"/>
+    <tableColumn id="16" name="PostFilters" dataDxfId="6"/>
+    <tableColumn id="17" name="PostFiltersValues" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:O2" totalsRowShown="0" headerRowDxfId="37" dataDxfId="35" headerRowBorderDxfId="36" tableBorderDxfId="34">
-  <autoFilter ref="A1:O2"/>
-  <tableColumns count="15">
-    <tableColumn id="1" name="Description" dataDxfId="33"/>
-    <tableColumn id="2" name="ExecutionPipeline" dataDxfId="32"/>
-    <tableColumn id="3" name="PickUpType-Location" dataDxfId="31"/>
-    <tableColumn id="4" name="OriginLocation" dataDxfId="30"/>
-    <tableColumn id="5" name="DropOffType-Location" dataDxfId="29"/>
-    <tableColumn id="6" name="DestinationLocation" dataDxfId="28"/>
-    <tableColumn id="7" name="TravelDates" dataDxfId="27"/>
-    <tableColumn id="8" name="RentalAgency" dataDxfId="26"/>
-    <tableColumn id="9" name="CarType" dataDxfId="25"/>
-    <tableColumn id="10" name="AirConditioning" dataDxfId="24"/>
-    <tableColumn id="11" name="Transmission" dataDxfId="23"/>
-    <tableColumn id="12" name="CorpDiscRentalAgency" dataDxfId="22"/>
-    <tableColumn id="13" name="CorpDiscCode" dataDxfId="21"/>
-    <tableColumn id="14" name="CorpDiscPromotionalCode" dataDxfId="20"/>
-    <tableColumn id="15" name="UserType" dataDxfId="19"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:Q2" totalsRowShown="0" headerRowDxfId="50" dataDxfId="48" headerRowBorderDxfId="49" tableBorderDxfId="47">
+  <autoFilter ref="A1:Q2"/>
+  <tableColumns count="17">
+    <tableColumn id="1" name="Description" dataDxfId="46"/>
+    <tableColumn id="2" name="ExecutionPipeline" dataDxfId="45"/>
+    <tableColumn id="3" name="PickUpType-Location" dataDxfId="44"/>
+    <tableColumn id="4" name="OriginLocation" dataDxfId="43"/>
+    <tableColumn id="5" name="DropOffType-Location" dataDxfId="42"/>
+    <tableColumn id="6" name="DestinationLocation" dataDxfId="41"/>
+    <tableColumn id="7" name="TravelDates" dataDxfId="40"/>
+    <tableColumn id="8" name="RentalAgency" dataDxfId="39"/>
+    <tableColumn id="9" name="CarType" dataDxfId="38"/>
+    <tableColumn id="10" name="AirConditioning" dataDxfId="37"/>
+    <tableColumn id="11" name="Transmission" dataDxfId="36"/>
+    <tableColumn id="12" name="CorpDiscRentalAgency" dataDxfId="35"/>
+    <tableColumn id="13" name="CorpDiscCode" dataDxfId="34"/>
+    <tableColumn id="14" name="CorpDiscPromotionalCode" dataDxfId="33"/>
+    <tableColumn id="15" name="UserType" dataDxfId="32"/>
+    <tableColumn id="16" name="PostFilters" dataDxfId="4"/>
+    <tableColumn id="17" name="PostFiltersValues" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A1:O2" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15">
-  <autoFilter ref="A1:O2"/>
-  <tableColumns count="15">
-    <tableColumn id="1" name="Description" dataDxfId="14"/>
-    <tableColumn id="2" name="ExecutionPipeline" dataDxfId="13"/>
-    <tableColumn id="3" name="PickUpType-Location" dataDxfId="12"/>
-    <tableColumn id="4" name="OriginLocation" dataDxfId="11"/>
-    <tableColumn id="5" name="DropOffType-Location" dataDxfId="10"/>
-    <tableColumn id="6" name="DestinationLocation" dataDxfId="9"/>
-    <tableColumn id="7" name="TravelDates" dataDxfId="8"/>
-    <tableColumn id="8" name="RentalAgency" dataDxfId="7"/>
-    <tableColumn id="9" name="CarType" dataDxfId="6"/>
-    <tableColumn id="10" name="AirConditioning" dataDxfId="5"/>
-    <tableColumn id="11" name="Transmission" dataDxfId="4"/>
-    <tableColumn id="12" name="CorpDiscRentalAgency" dataDxfId="3"/>
-    <tableColumn id="13" name="CorpDiscCode" dataDxfId="2"/>
-    <tableColumn id="14" name="CorpDiscPromotionalCode" dataDxfId="1"/>
-    <tableColumn id="15" name="UserType" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A1:Q2" totalsRowShown="0" headerRowDxfId="31" dataDxfId="29" headerRowBorderDxfId="30" tableBorderDxfId="28">
+  <autoFilter ref="A1:Q2"/>
+  <tableColumns count="17">
+    <tableColumn id="1" name="Description" dataDxfId="27"/>
+    <tableColumn id="2" name="ExecutionPipeline" dataDxfId="26"/>
+    <tableColumn id="3" name="PickUpType-Location" dataDxfId="25"/>
+    <tableColumn id="4" name="OriginLocation" dataDxfId="24"/>
+    <tableColumn id="5" name="DropOffType-Location" dataDxfId="23"/>
+    <tableColumn id="6" name="DestinationLocation" dataDxfId="22"/>
+    <tableColumn id="7" name="TravelDates" dataDxfId="21"/>
+    <tableColumn id="8" name="RentalAgency" dataDxfId="20"/>
+    <tableColumn id="9" name="CarType" dataDxfId="19"/>
+    <tableColumn id="10" name="AirConditioning" dataDxfId="18"/>
+    <tableColumn id="11" name="Transmission" dataDxfId="17"/>
+    <tableColumn id="12" name="CorpDiscRentalAgency" dataDxfId="16"/>
+    <tableColumn id="13" name="CorpDiscCode" dataDxfId="15"/>
+    <tableColumn id="14" name="CorpDiscPromotionalCode" dataDxfId="14"/>
+    <tableColumn id="15" name="UserType" dataDxfId="13"/>
+    <tableColumn id="16" name="PostFilters" dataDxfId="2"/>
+    <tableColumn id="17" name="PostFiltersValues" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3757,12 +4119,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="B7" sqref="B7"/>
+      <selection pane="topRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3782,7 +4144,7 @@
     <col min="15" max="15" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -3828,8 +4190,14 @@
       <c r="O1" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="P1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>25</v>
       </c>
@@ -3862,6 +4230,12 @@
       </c>
       <c r="O2" s="4" t="s">
         <v>24</v>
+      </c>
+      <c r="P2" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q2" s="29" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -3875,10 +4249,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3892,7 +4266,7 @@
     <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -3938,13 +4312,19 @@
       <c r="O1" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="P1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>26</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2" s="33" t="s">
         <v>5</v>
@@ -3973,6 +4353,8 @@
       <c r="O2" s="29" t="s">
         <v>24</v>
       </c>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3984,7 +4366,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -4009,7 +4391,7 @@
     <col min="15" max="15" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
@@ -4055,8 +4437,14 @@
       <c r="O1" s="28" t="s">
         <v>23</v>
       </c>
+      <c r="P1" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" s="37" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="111" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>28</v>
       </c>
@@ -4090,6 +4478,8 @@
       <c r="O2" s="32" t="s">
         <v>24</v>
       </c>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4101,10 +4491,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4126,7 +4516,7 @@
     <col min="15" max="15" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -4172,13 +4562,19 @@
       <c r="O1" s="28" t="s">
         <v>23</v>
       </c>
+      <c r="P1" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" s="37" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>29</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>30</v>
@@ -4207,6 +4603,8 @@
       <c r="O2" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4218,10 +4616,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4243,7 +4641,7 @@
     <col min="15" max="15" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -4289,8 +4687,14 @@
       <c r="O1" s="28" t="s">
         <v>23</v>
       </c>
+      <c r="P1" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" s="37" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>31</v>
       </c>
@@ -4326,6 +4730,8 @@
       <c r="O2" s="22" t="s">
         <v>24</v>
       </c>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4337,10 +4743,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4362,7 +4768,7 @@
     <col min="15" max="15" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -4408,8 +4814,14 @@
       <c r="O1" s="28" t="s">
         <v>23</v>
       </c>
+      <c r="P1" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" s="37" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>32</v>
       </c>
@@ -4445,6 +4857,8 @@
       <c r="O2" s="22" t="s">
         <v>24</v>
       </c>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Rovia.UI.Automation.Tests/DataSheet/CarScenarios.xlsx
+++ b/Rovia.UI.Automation.Tests/DataSheet/CarScenarios.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="881" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="881"/>
   </bookViews>
   <sheets>
     <sheet name="Car_Airport_To_Airport" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="Car_City_To_Airport" sheetId="4" r:id="rId4"/>
     <sheet name="Car_City_To_City" sheetId="5" r:id="rId5"/>
     <sheet name="Car_City_To_SameAsPickUp" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="48">
   <si>
     <t>Description</t>
   </si>
@@ -96,16 +97,7 @@
     <t>Guest</t>
   </si>
   <si>
-    <t>Booking of car for pickup on Airport and drop on airport with all additional options selected</t>
-  </si>
-  <si>
-    <t>Booking of car for pickup on Airport and drop in a City with all additional options selected</t>
-  </si>
-  <si>
     <t>City-LAX</t>
-  </si>
-  <si>
-    <t>Booking of car for pickup on Airport and drop SameAsPickUp with all additional options selected</t>
   </si>
   <si>
     <t>Booking of car for pickup in a City and drop on airport with all additional options selected</t>
@@ -129,10 +121,49 @@
     <t>PostFiltersValues</t>
   </si>
   <si>
-    <t>price</t>
+    <t>Avis/Hertz</t>
   </si>
   <si>
-    <t>20-30</t>
+    <t>CarOptions</t>
+  </si>
+  <si>
+    <t>EAC/EAT</t>
+  </si>
+  <si>
+    <t>price|locations|CarType|RentalAgency|CarOptions|matrix</t>
+  </si>
+  <si>
+    <t>SameAsPickup</t>
+  </si>
+  <si>
+    <t>20-30|Off Terminal|Economy/Compact|Avis/Hertz|EAC/EAT</t>
+  </si>
+  <si>
+    <t>Car_WithLoginMember_DOMESTIC_Location_SamePickup_DropAirport</t>
+  </si>
+  <si>
+    <t>Car_WithLoginMember_DOMESTIC_Location_DifferentPickup_DropAirport</t>
+  </si>
+  <si>
+    <t>Registered</t>
+  </si>
+  <si>
+    <t>Car_WithLoginMember_DOMESTIC_Location_SamePickupAndDrop_InACity</t>
+  </si>
+  <si>
+    <t>Car_WithLoginMember_DOMESTIC_Location_DifferentPickupAndDrop_InACity</t>
+  </si>
+  <si>
+    <t>Car_WithGuestUser_DOMESTIC_Location_SamePickup_DropAirport</t>
+  </si>
+  <si>
+    <t>Car_WithGuestUser_DOMESTIC_Location_DifferentPickup_DropAirport</t>
+  </si>
+  <si>
+    <t>Car_WithGuestUser_DOMESTIC_Location_SamePickupAndDrop_InACity</t>
+  </si>
+  <si>
+    <t>Car_WithGuestUser_DOMESTIC_Location_DifferentPickupAndDrop_InACity</t>
   </si>
 </sst>
 </file>
@@ -200,7 +231,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -268,26 +299,6 @@
       <top style="thin">
         <color theme="4"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -341,19 +352,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -373,19 +371,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -394,10 +383,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -410,10 +399,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -423,32 +412,41 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -505,6 +503,1210 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
@@ -560,262 +1762,6 @@
         </bottom>
         <vertical/>
         <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1421,6 +2367,70 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
         <right/>
         <top style="thin">
           <color theme="4"/>
@@ -2228,6 +3238,70 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -2345,40 +3419,6 @@
           <color indexed="64"/>
         </top>
         <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
         <vertical/>
         <horizontal/>
       </border>
@@ -2515,447 +3555,7 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
+      <border outline="0">
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -2965,68 +3565,7 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      </border>
     </dxf>
     <dxf>
       <border outline="0">
@@ -3069,245 +3608,13 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -3321,43 +3628,7 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      </border>
     </dxf>
     <dxf>
       <border>
@@ -3385,7 +3656,13 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -3400,246 +3677,6 @@
           <color indexed="64"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border>
@@ -3677,156 +3714,156 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="A1:Q2" totalsRowShown="0" headerRowDxfId="127" dataDxfId="125" headerRowBorderDxfId="126" tableBorderDxfId="124" totalsRowBorderDxfId="123">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="A1:Q2" totalsRowShown="0" headerRowDxfId="127" dataDxfId="23" headerRowBorderDxfId="126" tableBorderDxfId="125" totalsRowBorderDxfId="124">
   <autoFilter ref="A1:Q2"/>
   <tableColumns count="17">
-    <tableColumn id="1" name="Description" dataDxfId="122"/>
+    <tableColumn id="1" name="Description" dataDxfId="4"/>
     <tableColumn id="16" name="ExecutionPipeline" dataDxfId="0"/>
-    <tableColumn id="2" name="PickUpType-Location" dataDxfId="121"/>
-    <tableColumn id="19" name="OriginLocation" dataDxfId="120"/>
-    <tableColumn id="3" name="DropOffType-Location" dataDxfId="119"/>
-    <tableColumn id="20" name="DestinationLocation" dataDxfId="118"/>
-    <tableColumn id="4" name="TravelDates" dataDxfId="117"/>
-    <tableColumn id="5" name="RentalAgency" dataDxfId="116"/>
-    <tableColumn id="18" name="CarType" dataDxfId="115"/>
-    <tableColumn id="6" name="AirConditioning" dataDxfId="114"/>
-    <tableColumn id="7" name="Transmission" dataDxfId="113"/>
-    <tableColumn id="8" name="CorpDiscRentalAgency" dataDxfId="112"/>
-    <tableColumn id="9" name="CorpDiscCode" dataDxfId="111"/>
-    <tableColumn id="10" name="CorpDiscPromotionalCode" dataDxfId="110"/>
-    <tableColumn id="12" name="UserType" dataDxfId="109"/>
-    <tableColumn id="11" name="PostFilters" dataDxfId="12"/>
-    <tableColumn id="13" name="PostFiltersValues" dataDxfId="11"/>
+    <tableColumn id="2" name="PickUpType-Location" dataDxfId="38"/>
+    <tableColumn id="19" name="OriginLocation" dataDxfId="37"/>
+    <tableColumn id="3" name="DropOffType-Location" dataDxfId="36"/>
+    <tableColumn id="20" name="DestinationLocation" dataDxfId="35"/>
+    <tableColumn id="4" name="TravelDates" dataDxfId="34"/>
+    <tableColumn id="5" name="RentalAgency" dataDxfId="33"/>
+    <tableColumn id="18" name="CarType" dataDxfId="32"/>
+    <tableColumn id="6" name="AirConditioning" dataDxfId="31"/>
+    <tableColumn id="7" name="Transmission" dataDxfId="30"/>
+    <tableColumn id="8" name="CorpDiscRentalAgency" dataDxfId="29"/>
+    <tableColumn id="9" name="CorpDiscCode" dataDxfId="28"/>
+    <tableColumn id="10" name="CorpDiscPromotionalCode" dataDxfId="27"/>
+    <tableColumn id="12" name="UserType" dataDxfId="26"/>
+    <tableColumn id="11" name="PostFilters" dataDxfId="25"/>
+    <tableColumn id="13" name="PostFiltersValues" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table23" displayName="Table23" ref="A1:Q2" totalsRowShown="0" headerRowDxfId="108" dataDxfId="106" headerRowBorderDxfId="107" tableBorderDxfId="105" totalsRowBorderDxfId="104">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table23" displayName="Table23" ref="A1:Q2" totalsRowShown="0" headerRowDxfId="123" dataDxfId="7" headerRowBorderDxfId="122" tableBorderDxfId="121" totalsRowBorderDxfId="120">
   <autoFilter ref="A1:Q2"/>
   <tableColumns count="17">
-    <tableColumn id="1" name="Description" dataDxfId="103"/>
-    <tableColumn id="16" name="ExecutionPipeline" dataDxfId="102"/>
-    <tableColumn id="2" name="PickUpType-Location" dataDxfId="101"/>
-    <tableColumn id="19" name="OriginLocation" dataDxfId="100"/>
-    <tableColumn id="3" name="DropOffType-Location" dataDxfId="99"/>
-    <tableColumn id="20" name="DestinationLocation" dataDxfId="98"/>
-    <tableColumn id="4" name="TravelDates" dataDxfId="97"/>
-    <tableColumn id="5" name="RentalAgency" dataDxfId="96"/>
-    <tableColumn id="18" name="CarType" dataDxfId="95"/>
-    <tableColumn id="6" name="AirConditioning" dataDxfId="94"/>
-    <tableColumn id="7" name="Transmission" dataDxfId="93"/>
-    <tableColumn id="8" name="CorpDiscRentalAgency" dataDxfId="92"/>
-    <tableColumn id="9" name="CorpDiscCode" dataDxfId="91"/>
-    <tableColumn id="10" name="CorpDiscPromotionalCode" dataDxfId="90"/>
-    <tableColumn id="12" name="UserType" dataDxfId="89"/>
-    <tableColumn id="11" name="PostFilters" dataDxfId="10"/>
-    <tableColumn id="13" name="PostFiltersValues" dataDxfId="9"/>
+    <tableColumn id="1" name="Description" dataDxfId="5"/>
+    <tableColumn id="16" name="ExecutionPipeline" dataDxfId="1"/>
+    <tableColumn id="2" name="PickUpType-Location" dataDxfId="22"/>
+    <tableColumn id="19" name="OriginLocation" dataDxfId="21"/>
+    <tableColumn id="3" name="DropOffType-Location" dataDxfId="20"/>
+    <tableColumn id="20" name="DestinationLocation" dataDxfId="19"/>
+    <tableColumn id="4" name="TravelDates" dataDxfId="18"/>
+    <tableColumn id="5" name="RentalAgency" dataDxfId="17"/>
+    <tableColumn id="18" name="CarType" dataDxfId="16"/>
+    <tableColumn id="6" name="AirConditioning" dataDxfId="15"/>
+    <tableColumn id="7" name="Transmission" dataDxfId="14"/>
+    <tableColumn id="8" name="CorpDiscRentalAgency" dataDxfId="13"/>
+    <tableColumn id="9" name="CorpDiscCode" dataDxfId="12"/>
+    <tableColumn id="10" name="CorpDiscPromotionalCode" dataDxfId="11"/>
+    <tableColumn id="12" name="UserType" dataDxfId="10"/>
+    <tableColumn id="11" name="PostFilters" dataDxfId="9"/>
+    <tableColumn id="13" name="PostFiltersValues" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:Q2" totalsRowShown="0" headerRowDxfId="88" dataDxfId="86" headerRowBorderDxfId="87" tableBorderDxfId="85">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:Q2" totalsRowShown="0" headerRowDxfId="119" dataDxfId="39" headerRowBorderDxfId="118" tableBorderDxfId="117">
   <autoFilter ref="A1:Q2"/>
   <tableColumns count="17">
-    <tableColumn id="1" name="Description" dataDxfId="84"/>
-    <tableColumn id="2" name="ExecutionPipeline" dataDxfId="83"/>
-    <tableColumn id="3" name="PickUpType-Location" dataDxfId="82"/>
-    <tableColumn id="4" name="OriginLocation" dataDxfId="81"/>
-    <tableColumn id="5" name="DropOffType-Location" dataDxfId="80"/>
-    <tableColumn id="6" name="DestinationLocation" dataDxfId="79"/>
-    <tableColumn id="7" name="TravelDates" dataDxfId="78"/>
-    <tableColumn id="8" name="RentalAgency" dataDxfId="77"/>
-    <tableColumn id="9" name="CarType" dataDxfId="76"/>
-    <tableColumn id="10" name="AirConditioning" dataDxfId="75"/>
-    <tableColumn id="11" name="Transmission" dataDxfId="74"/>
-    <tableColumn id="12" name="CorpDiscRentalAgency" dataDxfId="73"/>
-    <tableColumn id="13" name="CorpDiscCode" dataDxfId="72"/>
-    <tableColumn id="14" name="CorpDiscPromotionalCode" dataDxfId="71"/>
-    <tableColumn id="15" name="UserType" dataDxfId="70"/>
-    <tableColumn id="16" name="PostFilters" dataDxfId="8"/>
-    <tableColumn id="17" name="PostFiltersValues" dataDxfId="7"/>
+    <tableColumn id="1" name="Description" dataDxfId="6"/>
+    <tableColumn id="2" name="ExecutionPipeline" dataDxfId="2"/>
+    <tableColumn id="3" name="PickUpType-Location" dataDxfId="54"/>
+    <tableColumn id="4" name="OriginLocation" dataDxfId="53"/>
+    <tableColumn id="5" name="DropOffType-Location" dataDxfId="52"/>
+    <tableColumn id="6" name="DestinationLocation" dataDxfId="51"/>
+    <tableColumn id="7" name="TravelDates" dataDxfId="50"/>
+    <tableColumn id="8" name="RentalAgency" dataDxfId="49"/>
+    <tableColumn id="9" name="CarType" dataDxfId="48"/>
+    <tableColumn id="10" name="AirConditioning" dataDxfId="47"/>
+    <tableColumn id="11" name="Transmission" dataDxfId="46"/>
+    <tableColumn id="12" name="CorpDiscRentalAgency" dataDxfId="45"/>
+    <tableColumn id="13" name="CorpDiscCode" dataDxfId="44"/>
+    <tableColumn id="14" name="CorpDiscPromotionalCode" dataDxfId="43"/>
+    <tableColumn id="15" name="UserType" dataDxfId="42"/>
+    <tableColumn id="16" name="PostFilters" dataDxfId="41"/>
+    <tableColumn id="17" name="PostFiltersValues" dataDxfId="40"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:Q2" totalsRowShown="0" headerRowDxfId="69" dataDxfId="67" headerRowBorderDxfId="68" tableBorderDxfId="66">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:Q2" totalsRowShown="0" headerRowDxfId="116" dataDxfId="114" headerRowBorderDxfId="115" tableBorderDxfId="113">
   <autoFilter ref="A1:Q2"/>
   <tableColumns count="17">
-    <tableColumn id="1" name="Description" dataDxfId="65"/>
-    <tableColumn id="2" name="ExecutionPipeline" dataDxfId="64"/>
-    <tableColumn id="3" name="PickUpType-Location" dataDxfId="63"/>
-    <tableColumn id="4" name="OriginLocation" dataDxfId="62"/>
-    <tableColumn id="5" name="DropOffType-Location" dataDxfId="61"/>
-    <tableColumn id="6" name="DestinationLocation" dataDxfId="60"/>
-    <tableColumn id="7" name="TravelDates" dataDxfId="59"/>
-    <tableColumn id="8" name="RentalAgency" dataDxfId="58"/>
-    <tableColumn id="9" name="CarType" dataDxfId="57"/>
-    <tableColumn id="10" name="AirConditioning" dataDxfId="56"/>
-    <tableColumn id="11" name="Transmission" dataDxfId="55"/>
-    <tableColumn id="12" name="CorpDiscRentalAgency" dataDxfId="54"/>
-    <tableColumn id="13" name="CorpDiscCode" dataDxfId="53"/>
-    <tableColumn id="14" name="CorpDiscPromotionalCode" dataDxfId="52"/>
-    <tableColumn id="15" name="UserType" dataDxfId="51"/>
-    <tableColumn id="16" name="PostFilters" dataDxfId="6"/>
-    <tableColumn id="17" name="PostFiltersValues" dataDxfId="5"/>
+    <tableColumn id="1" name="Description" dataDxfId="112"/>
+    <tableColumn id="2" name="ExecutionPipeline" dataDxfId="3"/>
+    <tableColumn id="3" name="PickUpType-Location" dataDxfId="111"/>
+    <tableColumn id="4" name="OriginLocation" dataDxfId="110"/>
+    <tableColumn id="5" name="DropOffType-Location" dataDxfId="109"/>
+    <tableColumn id="6" name="DestinationLocation" dataDxfId="108"/>
+    <tableColumn id="7" name="TravelDates" dataDxfId="107"/>
+    <tableColumn id="8" name="RentalAgency" dataDxfId="106"/>
+    <tableColumn id="9" name="CarType" dataDxfId="105"/>
+    <tableColumn id="10" name="AirConditioning" dataDxfId="104"/>
+    <tableColumn id="11" name="Transmission" dataDxfId="103"/>
+    <tableColumn id="12" name="CorpDiscRentalAgency" dataDxfId="102"/>
+    <tableColumn id="13" name="CorpDiscCode" dataDxfId="101"/>
+    <tableColumn id="14" name="CorpDiscPromotionalCode" dataDxfId="100"/>
+    <tableColumn id="15" name="UserType" dataDxfId="99"/>
+    <tableColumn id="16" name="PostFilters" dataDxfId="98"/>
+    <tableColumn id="17" name="PostFiltersValues" dataDxfId="97"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:Q2" totalsRowShown="0" headerRowDxfId="50" dataDxfId="48" headerRowBorderDxfId="49" tableBorderDxfId="47">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:Q2" totalsRowShown="0" headerRowDxfId="96" dataDxfId="94" headerRowBorderDxfId="95" tableBorderDxfId="93">
   <autoFilter ref="A1:Q2"/>
   <tableColumns count="17">
-    <tableColumn id="1" name="Description" dataDxfId="46"/>
-    <tableColumn id="2" name="ExecutionPipeline" dataDxfId="45"/>
-    <tableColumn id="3" name="PickUpType-Location" dataDxfId="44"/>
-    <tableColumn id="4" name="OriginLocation" dataDxfId="43"/>
-    <tableColumn id="5" name="DropOffType-Location" dataDxfId="42"/>
-    <tableColumn id="6" name="DestinationLocation" dataDxfId="41"/>
-    <tableColumn id="7" name="TravelDates" dataDxfId="40"/>
-    <tableColumn id="8" name="RentalAgency" dataDxfId="39"/>
-    <tableColumn id="9" name="CarType" dataDxfId="38"/>
-    <tableColumn id="10" name="AirConditioning" dataDxfId="37"/>
-    <tableColumn id="11" name="Transmission" dataDxfId="36"/>
-    <tableColumn id="12" name="CorpDiscRentalAgency" dataDxfId="35"/>
-    <tableColumn id="13" name="CorpDiscCode" dataDxfId="34"/>
-    <tableColumn id="14" name="CorpDiscPromotionalCode" dataDxfId="33"/>
-    <tableColumn id="15" name="UserType" dataDxfId="32"/>
-    <tableColumn id="16" name="PostFilters" dataDxfId="4"/>
-    <tableColumn id="17" name="PostFiltersValues" dataDxfId="3"/>
+    <tableColumn id="1" name="Description" dataDxfId="92"/>
+    <tableColumn id="2" name="ExecutionPipeline" dataDxfId="91"/>
+    <tableColumn id="3" name="PickUpType-Location" dataDxfId="90"/>
+    <tableColumn id="4" name="OriginLocation" dataDxfId="89"/>
+    <tableColumn id="5" name="DropOffType-Location" dataDxfId="88"/>
+    <tableColumn id="6" name="DestinationLocation" dataDxfId="87"/>
+    <tableColumn id="7" name="TravelDates" dataDxfId="86"/>
+    <tableColumn id="8" name="RentalAgency" dataDxfId="85"/>
+    <tableColumn id="9" name="CarType" dataDxfId="84"/>
+    <tableColumn id="10" name="AirConditioning" dataDxfId="83"/>
+    <tableColumn id="11" name="Transmission" dataDxfId="82"/>
+    <tableColumn id="12" name="CorpDiscRentalAgency" dataDxfId="81"/>
+    <tableColumn id="13" name="CorpDiscCode" dataDxfId="80"/>
+    <tableColumn id="14" name="CorpDiscPromotionalCode" dataDxfId="79"/>
+    <tableColumn id="15" name="UserType" dataDxfId="78"/>
+    <tableColumn id="16" name="PostFilters" dataDxfId="77"/>
+    <tableColumn id="17" name="PostFiltersValues" dataDxfId="76"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A1:Q2" totalsRowShown="0" headerRowDxfId="31" dataDxfId="29" headerRowBorderDxfId="30" tableBorderDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A1:Q2" totalsRowShown="0" headerRowDxfId="75" dataDxfId="73" headerRowBorderDxfId="74" tableBorderDxfId="72">
   <autoFilter ref="A1:Q2"/>
   <tableColumns count="17">
-    <tableColumn id="1" name="Description" dataDxfId="27"/>
-    <tableColumn id="2" name="ExecutionPipeline" dataDxfId="26"/>
-    <tableColumn id="3" name="PickUpType-Location" dataDxfId="25"/>
-    <tableColumn id="4" name="OriginLocation" dataDxfId="24"/>
-    <tableColumn id="5" name="DropOffType-Location" dataDxfId="23"/>
-    <tableColumn id="6" name="DestinationLocation" dataDxfId="22"/>
-    <tableColumn id="7" name="TravelDates" dataDxfId="21"/>
-    <tableColumn id="8" name="RentalAgency" dataDxfId="20"/>
-    <tableColumn id="9" name="CarType" dataDxfId="19"/>
-    <tableColumn id="10" name="AirConditioning" dataDxfId="18"/>
-    <tableColumn id="11" name="Transmission" dataDxfId="17"/>
-    <tableColumn id="12" name="CorpDiscRentalAgency" dataDxfId="16"/>
-    <tableColumn id="13" name="CorpDiscCode" dataDxfId="15"/>
-    <tableColumn id="14" name="CorpDiscPromotionalCode" dataDxfId="14"/>
-    <tableColumn id="15" name="UserType" dataDxfId="13"/>
-    <tableColumn id="16" name="PostFilters" dataDxfId="2"/>
-    <tableColumn id="17" name="PostFiltersValues" dataDxfId="1"/>
+    <tableColumn id="1" name="Description" dataDxfId="71"/>
+    <tableColumn id="2" name="ExecutionPipeline" dataDxfId="70"/>
+    <tableColumn id="3" name="PickUpType-Location" dataDxfId="69"/>
+    <tableColumn id="4" name="OriginLocation" dataDxfId="68"/>
+    <tableColumn id="5" name="DropOffType-Location" dataDxfId="67"/>
+    <tableColumn id="6" name="DestinationLocation" dataDxfId="66"/>
+    <tableColumn id="7" name="TravelDates" dataDxfId="65"/>
+    <tableColumn id="8" name="RentalAgency" dataDxfId="64"/>
+    <tableColumn id="9" name="CarType" dataDxfId="63"/>
+    <tableColumn id="10" name="AirConditioning" dataDxfId="62"/>
+    <tableColumn id="11" name="Transmission" dataDxfId="61"/>
+    <tableColumn id="12" name="CorpDiscRentalAgency" dataDxfId="60"/>
+    <tableColumn id="13" name="CorpDiscCode" dataDxfId="59"/>
+    <tableColumn id="14" name="CorpDiscPromotionalCode" dataDxfId="58"/>
+    <tableColumn id="15" name="UserType" dataDxfId="57"/>
+    <tableColumn id="16" name="PostFilters" dataDxfId="56"/>
+    <tableColumn id="17" name="PostFiltersValues" dataDxfId="55"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4119,17 +4156,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="B9" sqref="B9"/>
+      <selection pane="topRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="77.5703125" style="10" customWidth="1"/>
+    <col min="1" max="1" width="77.5703125" style="34" customWidth="1"/>
     <col min="2" max="2" width="37.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.140625" customWidth="1"/>
@@ -4145,7 +4182,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -4160,7 +4197,7 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="15" t="s">
         <v>18</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -4191,18 +4228,18 @@
         <v>23</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>25</v>
+      <c r="A2" s="35" t="s">
+        <v>45</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>5</v>
@@ -4211,7 +4248,7 @@
       <c r="E2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="19"/>
+      <c r="F2" s="16"/>
       <c r="G2" s="4" t="s">
         <v>6</v>
       </c>
@@ -4219,24 +4256,45 @@
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
-      <c r="L2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
       <c r="O2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="P2" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q2" s="29" t="s">
-        <v>37</v>
-      </c>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+    </row>
+    <row r="3" spans="1:17" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="16"/>
+      <c r="G3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4249,25 +4307,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="57.42578125" customWidth="1"/>
+    <col min="1" max="1" width="72.42578125" style="37" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51.140625" customWidth="1"/>
     <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -4282,7 +4343,7 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="15" t="s">
         <v>18</v>
       </c>
       <c r="G1" s="5" t="s">
@@ -4313,48 +4374,73 @@
         <v>23</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>26</v>
+      <c r="A2" s="35" t="s">
+        <v>47</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="34"/>
-      <c r="G2" s="35" t="s">
+      <c r="D2" s="26"/>
+      <c r="E2" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="28"/>
+      <c r="G2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="O2" s="29" t="s">
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+    </row>
+    <row r="3" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="28"/>
+      <c r="G3" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4366,15 +4452,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+    <col min="1" max="1" width="72.42578125" style="37" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.28515625" customWidth="1"/>
     <col min="3" max="3" width="21.7109375" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
@@ -4392,94 +4478,181 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="J1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="K1" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="25" t="s">
+      <c r="L1" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="25" t="s">
+      <c r="M1" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="25" t="s">
+      <c r="N1" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="28" t="s">
+      <c r="O1" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q1" s="37" t="s">
-        <v>35</v>
+      <c r="P1" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q1" s="31" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="111" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>28</v>
+    <row r="2" spans="1:17" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="33" t="s">
+        <v>39</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="20"/>
-      <c r="G2" s="14" t="s">
+      <c r="D2" s="4"/>
+      <c r="E2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="16"/>
+      <c r="G2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="O2" s="32" t="s">
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+    </row>
+    <row r="3" spans="1:17" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="16"/>
+      <c r="G3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+    </row>
+    <row r="4" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="28"/>
+      <c r="G4" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+    </row>
+    <row r="5" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="28"/>
+      <c r="G5" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4493,8 +4666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4517,73 +4690,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="J1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="K1" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="25" t="s">
+      <c r="L1" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="25" t="s">
+      <c r="M1" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="25" t="s">
+      <c r="N1" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="28" t="s">
+      <c r="O1" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q1" s="37" t="s">
-        <v>35</v>
+      <c r="P1" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q1" s="31" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>29</v>
+      <c r="A2" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="19"/>
+      <c r="F2" s="16"/>
       <c r="G2" s="6" t="s">
         <v>6</v>
       </c>
@@ -4603,8 +4776,12 @@
       <c r="O2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
+      <c r="P2" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="30" t="s">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4618,7 +4795,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -4642,96 +4819,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="J1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="K1" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="25" t="s">
+      <c r="L1" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="25" t="s">
+      <c r="M1" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="25" t="s">
+      <c r="N1" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="28" t="s">
+      <c r="O1" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q1" s="37" t="s">
-        <v>35</v>
+      <c r="P1" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q1" s="31" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>31</v>
+      <c r="A2" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="20"/>
-      <c r="G2" s="14" t="s">
+      <c r="E2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="17"/>
+      <c r="G2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13" t="s">
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="M2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="13" t="s">
+      <c r="N2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="22" t="s">
+      <c r="O2" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
+      <c r="P2" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q2" s="30" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4745,8 +4926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4769,96 +4950,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="J1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="K1" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="25" t="s">
+      <c r="L1" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="25" t="s">
+      <c r="M1" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="25" t="s">
+      <c r="N1" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="28" t="s">
+      <c r="O1" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q1" s="37" t="s">
-        <v>35</v>
+      <c r="P1" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q1" s="31" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>32</v>
+      <c r="A2" s="9" t="s">
+        <v>29</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="16" t="s">
+      <c r="F2" s="18"/>
+      <c r="G2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15" t="s">
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="15" t="s">
+      <c r="M2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="15" t="s">
+      <c r="N2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="22" t="s">
+      <c r="O2" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4866,4 +5047,39 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="54.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Rovia.UI.Automation.Tests/DataSheet/CarScenarios.xlsx
+++ b/Rovia.UI.Automation.Tests/DataSheet/CarScenarios.xlsx
@@ -13,14 +13,13 @@
     <sheet name="Car_City_To_Airport" sheetId="4" r:id="rId4"/>
     <sheet name="Car_City_To_City" sheetId="5" r:id="rId5"/>
     <sheet name="Car_City_To_SameAsPickUp" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="93">
   <si>
     <t>Description</t>
   </si>
@@ -100,18 +99,9 @@
     <t>City-LAX</t>
   </si>
   <si>
-    <t>Booking of car for pickup in a City and drop on airport with all additional options selected</t>
-  </si>
-  <si>
     <t>City-LAS</t>
   </si>
   <si>
-    <t>Booking of car for pickup in a City and drop in a City with all additional options selected</t>
-  </si>
-  <si>
-    <t>Booking of car for pickup in a City and drop same as pickup with all additional options selected</t>
-  </si>
-  <si>
     <t>Search|AddToCart|checkoutTrip|Login|enterpaxinfo|confirmpaxinfo</t>
   </si>
   <si>
@@ -121,24 +111,15 @@
     <t>PostFiltersValues</t>
   </si>
   <si>
-    <t>Avis/Hertz</t>
-  </si>
-  <si>
     <t>CarOptions</t>
   </si>
   <si>
     <t>EAC/EAT</t>
   </si>
   <si>
-    <t>price|locations|CarType|RentalAgency|CarOptions|matrix</t>
-  </si>
-  <si>
     <t>SameAsPickup</t>
   </si>
   <si>
-    <t>20-30|Off Terminal|Economy/Compact|Avis/Hertz|EAC/EAT</t>
-  </si>
-  <si>
     <t>Car_WithLoginMember_DOMESTIC_Location_SamePickup_DropAirport</t>
   </si>
   <si>
@@ -169,10 +150,154 @@
     <t>10,3:00 AM|20,3:00 AM</t>
   </si>
   <si>
-    <t>10,11:00 AM|20,2:00 PM</t>
-  </si>
-  <si>
     <t>City-Los Angeles, CA, US</t>
+  </si>
+  <si>
+    <t>Car_WithLoginMember_DOMESTIC_Location_SamePickup_DropAirport_WithSpecificTime</t>
+  </si>
+  <si>
+    <t>Car_WithLoginMember_DOMESTIC_Location_DifferentPickup_DropAirport_WithSpecificTime</t>
+  </si>
+  <si>
+    <t>Car_WithLoginMember_DOMESTIC_Location_SamePickupAndDrop_InACity_WithSpecificTime</t>
+  </si>
+  <si>
+    <t>Car_WithLoginMember_DOMESTIC_Location_DifferentPickupAndDrop_InACity_WithSpecificTime</t>
+  </si>
+  <si>
+    <t>Car_WithLoginMember_SameDay_DOMESTIC_SamePickup_DropAirport</t>
+  </si>
+  <si>
+    <t>0|0</t>
+  </si>
+  <si>
+    <t>Car_WithLoginMember_SameDay_DOMESTIC_Location_DifferentPickup_DropAirport</t>
+  </si>
+  <si>
+    <t>Car_WithLoginMember_SameDay_DOMESTIC_Location_SamePickupAndDrop_InACity</t>
+  </si>
+  <si>
+    <t>Car_WithLoginMember_SameDay_DOMESTIC_Location_DifferentPickupAndDrop_InACity</t>
+  </si>
+  <si>
+    <t>Car_WithLoginMember_DOMESTIC_Location_SamePickup_DropAirport_WithRentalAgency</t>
+  </si>
+  <si>
+    <t>Aivs/Hertz</t>
+  </si>
+  <si>
+    <t>Car_WithLoginMember_DOMESTIC_Location_DifferentPickup_DropAirport_WithCarType</t>
+  </si>
+  <si>
+    <t>Economy|Compact</t>
+  </si>
+  <si>
+    <t>Car_WithLoginMember_DOMESTIC_Location_SamePickupAndDrop_InACity_WithAirConditioning</t>
+  </si>
+  <si>
+    <t>Car_WithLoginMember_DOMESTIC_Location_DifferentPickupAndDrop_InACity_WithTransmission</t>
+  </si>
+  <si>
+    <t>Automatic</t>
+  </si>
+  <si>
+    <t>Car_WithLoginMember_DOMESTIC_Location_SamePickup_DropAirport_WithCorporateDiscount</t>
+  </si>
+  <si>
+    <t>Car_WithLoginMember_DOMESTIC_Location_DifferentPickup_DropAirport_WithCorporateDiscount</t>
+  </si>
+  <si>
+    <t>Car_WithLoginMember_DOMESTIC_Location_SamePickupAndDrop_InACity_WithCorporateDiscount</t>
+  </si>
+  <si>
+    <t>Car_WithLoginMember_DOMESTIC_Location_DifferentPickupAndDrop_InACity_WithCorporateDiscount</t>
+  </si>
+  <si>
+    <t>Search|setfilters|addtocart</t>
+  </si>
+  <si>
+    <t>price|locations</t>
+  </si>
+  <si>
+    <t>20-30|Off Terminal</t>
+  </si>
+  <si>
+    <t>CarType|RentalAgency</t>
+  </si>
+  <si>
+    <t>Economy/Compact|Avis/Hertz</t>
+  </si>
+  <si>
+    <t>matrix</t>
+  </si>
+  <si>
+    <t>Car_WithGuestUser_DOMESTIC_Location_DifferentPickup_DropAirport_WithSpecificTime</t>
+  </si>
+  <si>
+    <t>Car_WithGuestUser_SameDay_DOMESTIC_Location_DifferentPickup_DropAirport</t>
+  </si>
+  <si>
+    <t>Car_WithGuestUser_DOMESTIC_Location_DifferentPickup_DropAirport_WithCarType</t>
+  </si>
+  <si>
+    <t>Car_WithGuestUser_DOMESTIC_Location_DifferentPickup_DropAirport_WithCorporateDiscount</t>
+  </si>
+  <si>
+    <t>Car_WithGuestUser_DOMESTIC_Location_SamePickup_DropAirport_WithSpecificTime</t>
+  </si>
+  <si>
+    <t>Car_WithGuestUser_SameDay_DOMESTIC_SamePickup_DropAirport</t>
+  </si>
+  <si>
+    <t>Car_WithGuestUser_DOMESTIC_Location_SamePickup_DropAirport_WithRentalAgency</t>
+  </si>
+  <si>
+    <t>Car_WithGuestUser_DOMESTIC_Location_SamePickup_DropAirport_WithCorporateDiscount</t>
+  </si>
+  <si>
+    <t>Car_WithGuestUser_DOMESTIC_Location_DifferentPickupAndDrop_InACity_WithSpecificTime</t>
+  </si>
+  <si>
+    <t>Car_WithGuestUser_SameDay_DOMESTIC_Location_DifferentPickupAndDrop_InACity</t>
+  </si>
+  <si>
+    <t>Car_WithGuestUser_DOMESTIC_Location_DifferentPickupAndDrop_InACity_WithTransmission</t>
+  </si>
+  <si>
+    <t>Car_WithGuestUser_DOMESTIC_Location_DifferentPickupAndDrop_InACity_WithCorporateDiscount</t>
+  </si>
+  <si>
+    <t>Car_WithGuestUser_DOMESTIC_Location_SamePickupAndDrop_InACity_WithSpecificTime</t>
+  </si>
+  <si>
+    <t>Car_WithGuestUser_SameDay_DOMESTIC_Location_SamePickupAndDrop_InACity</t>
+  </si>
+  <si>
+    <t>Car_WithGuestUser_DOMESTIC_Location_SamePickupAndDrop_InACity_WithAirConditioning</t>
+  </si>
+  <si>
+    <t>Car_WithGuestUser_DOMESTIC_Location_SamePickupAndDrop_InACity_WithCorporateDiscount</t>
+  </si>
+  <si>
+    <t>CarType|RentalAgency|matrix</t>
+  </si>
+  <si>
+    <t>Car_WithLoginMember_DOMESTIC_Location_PickUp_OnAirport_Drop_InACity_SetFilters</t>
+  </si>
+  <si>
+    <t>Car_WithLoginMember_DOMESTIC_Location_PickUp_OnAirport_Drop_InACity_SetMatrix</t>
+  </si>
+  <si>
+    <t>Car_WithLoginMember_DOMESTIC_Location_PickUp_OnAirport_Drop_InACity_SetFiltersMatrix</t>
+  </si>
+  <si>
+    <t>Car_WithLoginMember_DOMESTIC_Location_Pickup_InACity_Drop_OnAirport_SetFiltersMatrix</t>
+  </si>
+  <si>
+    <t>Car_WithLoginMember_DOMESTIC_Location_Pickup_InACity_Drop_OnAirport_SetFilters</t>
+  </si>
+  <si>
+    <t>Car_WithLoginMember_DOMESTIC_Location_Pickup_InACity_Drop_OnAirport_SetMatrix</t>
   </si>
 </sst>
 </file>
@@ -186,12 +311,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -219,6 +338,13 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -240,7 +366,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -305,33 +431,9 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -361,11 +463,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -376,26 +489,17 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -408,91 +512,87 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="128">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
+  <dxfs count="127">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
         <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
         </top>
         <bottom style="thin">
           <color indexed="64"/>
@@ -513,6 +613,36 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
@@ -529,7 +659,7 @@
           <color indexed="64"/>
         </top>
         <bottom style="thin">
-          <color theme="4"/>
+          <color indexed="64"/>
         </bottom>
         <vertical/>
         <horizontal/>
@@ -559,12 +689,8 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
+        <top/>
+        <bottom/>
         <vertical/>
         <horizontal/>
       </border>
@@ -590,13 +716,11 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
         <vertical/>
         <horizontal/>
       </border>
@@ -628,9 +752,7 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
+        <bottom/>
         <vertical/>
         <horizontal/>
       </border>
@@ -659,12 +781,8 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
+        <top/>
+        <bottom/>
         <vertical/>
         <horizontal/>
       </border>
@@ -693,12 +811,8 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
+        <top/>
+        <bottom/>
         <vertical/>
         <horizontal/>
       </border>
@@ -719,20 +833,17 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
         <vertical/>
         <horizontal/>
       </border>
@@ -753,20 +864,17 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
         <vertical/>
         <horizontal/>
       </border>
@@ -787,74 +895,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -864,12 +904,8 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
+        <top/>
+        <bottom/>
         <vertical/>
         <horizontal/>
       </border>
@@ -904,6 +940,202 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -976,6 +1208,387 @@
           <color indexed="64"/>
         </top>
         <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
           <color theme="4"/>
         </bottom>
         <vertical/>
@@ -1066,18 +1679,20 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
         </top>
         <bottom style="thin">
-          <color theme="4"/>
+          <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1236,9 +1851,11 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
         </top>
         <bottom style="thin">
           <color indexed="64"/>
@@ -1690,14 +2307,20 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1772,557 +2395,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
       <border outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2334,24 +2406,6 @@
           <color indexed="64"/>
         </top>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -2930,7 +2984,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -3018,34 +3072,10 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -3314,8 +3344,8 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -3328,6 +3358,8 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -3423,7 +3455,9 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
         <vertical/>
         <horizontal/>
       </border>
@@ -3645,8 +3679,29 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -3659,6 +3714,27 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -3723,156 +3799,156 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="A1:Q2" totalsRowShown="0" headerRowDxfId="127" dataDxfId="125" headerRowBorderDxfId="126" tableBorderDxfId="124" totalsRowBorderDxfId="123">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="A1:Q2" totalsRowShown="0" headerRowDxfId="126" dataDxfId="124" headerRowBorderDxfId="125" tableBorderDxfId="123" totalsRowBorderDxfId="122">
   <autoFilter ref="A1:Q2"/>
   <tableColumns count="17">
-    <tableColumn id="1" name="Description" dataDxfId="122"/>
-    <tableColumn id="16" name="ExecutionPipeline" dataDxfId="0"/>
-    <tableColumn id="2" name="PickUpType-Location" dataDxfId="121"/>
-    <tableColumn id="19" name="OriginLocation" dataDxfId="120"/>
-    <tableColumn id="3" name="DropOffType-Location" dataDxfId="119"/>
-    <tableColumn id="20" name="DestinationLocation" dataDxfId="118"/>
-    <tableColumn id="4" name="TravelDates" dataDxfId="117"/>
-    <tableColumn id="5" name="RentalAgency" dataDxfId="116"/>
-    <tableColumn id="18" name="CarType" dataDxfId="115"/>
-    <tableColumn id="6" name="AirConditioning" dataDxfId="114"/>
-    <tableColumn id="7" name="Transmission" dataDxfId="113"/>
-    <tableColumn id="8" name="CorpDiscRentalAgency" dataDxfId="112"/>
-    <tableColumn id="9" name="CorpDiscCode" dataDxfId="111"/>
-    <tableColumn id="10" name="CorpDiscPromotionalCode" dataDxfId="110"/>
-    <tableColumn id="12" name="UserType" dataDxfId="109"/>
-    <tableColumn id="11" name="PostFilters" dataDxfId="108"/>
-    <tableColumn id="13" name="PostFiltersValues" dataDxfId="107"/>
+    <tableColumn id="1" name="Description" dataDxfId="121"/>
+    <tableColumn id="16" name="ExecutionPipeline" dataDxfId="120"/>
+    <tableColumn id="2" name="PickUpType-Location" dataDxfId="119"/>
+    <tableColumn id="19" name="OriginLocation" dataDxfId="118"/>
+    <tableColumn id="3" name="DropOffType-Location" dataDxfId="117"/>
+    <tableColumn id="20" name="DestinationLocation" dataDxfId="116"/>
+    <tableColumn id="4" name="TravelDates" dataDxfId="115"/>
+    <tableColumn id="5" name="RentalAgency" dataDxfId="114"/>
+    <tableColumn id="18" name="CarType" dataDxfId="113"/>
+    <tableColumn id="6" name="AirConditioning" dataDxfId="112"/>
+    <tableColumn id="7" name="Transmission" dataDxfId="111"/>
+    <tableColumn id="8" name="CorpDiscRentalAgency" dataDxfId="110"/>
+    <tableColumn id="9" name="CorpDiscCode" dataDxfId="109"/>
+    <tableColumn id="10" name="CorpDiscPromotionalCode" dataDxfId="108"/>
+    <tableColumn id="12" name="UserType" dataDxfId="107"/>
+    <tableColumn id="11" name="PostFilters" dataDxfId="106"/>
+    <tableColumn id="13" name="PostFiltersValues" dataDxfId="105"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table23" displayName="Table23" ref="A1:Q2" totalsRowShown="0" headerRowDxfId="106" dataDxfId="104" headerRowBorderDxfId="105" tableBorderDxfId="103" totalsRowBorderDxfId="102">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table23" displayName="Table23" ref="A1:Q2" totalsRowShown="0" headerRowDxfId="104" dataDxfId="102" headerRowBorderDxfId="103" tableBorderDxfId="101" totalsRowBorderDxfId="100">
   <autoFilter ref="A1:Q2"/>
   <tableColumns count="17">
-    <tableColumn id="1" name="Description" dataDxfId="101"/>
-    <tableColumn id="16" name="ExecutionPipeline" dataDxfId="100"/>
-    <tableColumn id="2" name="PickUpType-Location" dataDxfId="99"/>
-    <tableColumn id="19" name="OriginLocation" dataDxfId="98"/>
-    <tableColumn id="3" name="DropOffType-Location" dataDxfId="97"/>
-    <tableColumn id="20" name="DestinationLocation" dataDxfId="96"/>
-    <tableColumn id="4" name="TravelDates" dataDxfId="95"/>
-    <tableColumn id="5" name="RentalAgency" dataDxfId="94"/>
-    <tableColumn id="18" name="CarType" dataDxfId="93"/>
-    <tableColumn id="6" name="AirConditioning" dataDxfId="92"/>
-    <tableColumn id="7" name="Transmission" dataDxfId="91"/>
-    <tableColumn id="8" name="CorpDiscRentalAgency" dataDxfId="90"/>
-    <tableColumn id="9" name="CorpDiscCode" dataDxfId="89"/>
-    <tableColumn id="10" name="CorpDiscPromotionalCode" dataDxfId="88"/>
-    <tableColumn id="12" name="UserType" dataDxfId="87"/>
-    <tableColumn id="11" name="PostFilters" dataDxfId="86"/>
-    <tableColumn id="13" name="PostFiltersValues" dataDxfId="85"/>
+    <tableColumn id="1" name="Description" dataDxfId="99"/>
+    <tableColumn id="16" name="ExecutionPipeline" dataDxfId="98"/>
+    <tableColumn id="2" name="PickUpType-Location" dataDxfId="97"/>
+    <tableColumn id="19" name="OriginLocation" dataDxfId="96"/>
+    <tableColumn id="3" name="DropOffType-Location" dataDxfId="95"/>
+    <tableColumn id="20" name="DestinationLocation" dataDxfId="94"/>
+    <tableColumn id="4" name="TravelDates" dataDxfId="93"/>
+    <tableColumn id="5" name="RentalAgency" dataDxfId="92"/>
+    <tableColumn id="18" name="CarType" dataDxfId="91"/>
+    <tableColumn id="6" name="AirConditioning" dataDxfId="90"/>
+    <tableColumn id="7" name="Transmission" dataDxfId="89"/>
+    <tableColumn id="8" name="CorpDiscRentalAgency" dataDxfId="88"/>
+    <tableColumn id="9" name="CorpDiscCode" dataDxfId="87"/>
+    <tableColumn id="10" name="CorpDiscPromotionalCode" dataDxfId="86"/>
+    <tableColumn id="12" name="UserType" dataDxfId="85"/>
+    <tableColumn id="11" name="PostFilters" dataDxfId="84"/>
+    <tableColumn id="13" name="PostFiltersValues" dataDxfId="83"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:Q2" totalsRowShown="0" headerRowDxfId="84" dataDxfId="82" headerRowBorderDxfId="83" tableBorderDxfId="81">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:Q2" totalsRowShown="0" headerRowDxfId="82" dataDxfId="80" headerRowBorderDxfId="81" tableBorderDxfId="79">
   <autoFilter ref="A1:Q2"/>
   <tableColumns count="17">
-    <tableColumn id="1" name="Description" dataDxfId="80"/>
-    <tableColumn id="2" name="ExecutionPipeline" dataDxfId="79"/>
-    <tableColumn id="3" name="PickUpType-Location" dataDxfId="78"/>
-    <tableColumn id="4" name="OriginLocation" dataDxfId="77"/>
-    <tableColumn id="5" name="DropOffType-Location" dataDxfId="76"/>
-    <tableColumn id="6" name="DestinationLocation" dataDxfId="75"/>
-    <tableColumn id="7" name="TravelDates" dataDxfId="74"/>
-    <tableColumn id="8" name="RentalAgency" dataDxfId="73"/>
-    <tableColumn id="9" name="CarType" dataDxfId="72"/>
-    <tableColumn id="10" name="AirConditioning" dataDxfId="71"/>
-    <tableColumn id="11" name="Transmission" dataDxfId="70"/>
-    <tableColumn id="12" name="CorpDiscRentalAgency" dataDxfId="69"/>
-    <tableColumn id="13" name="CorpDiscCode" dataDxfId="68"/>
-    <tableColumn id="14" name="CorpDiscPromotionalCode" dataDxfId="67"/>
-    <tableColumn id="15" name="UserType" dataDxfId="66"/>
-    <tableColumn id="16" name="PostFilters" dataDxfId="65"/>
-    <tableColumn id="17" name="PostFiltersValues" dataDxfId="64"/>
+    <tableColumn id="1" name="Description" dataDxfId="78"/>
+    <tableColumn id="2" name="ExecutionPipeline" dataDxfId="77"/>
+    <tableColumn id="3" name="PickUpType-Location" dataDxfId="76"/>
+    <tableColumn id="4" name="OriginLocation" dataDxfId="75"/>
+    <tableColumn id="5" name="DropOffType-Location" dataDxfId="74"/>
+    <tableColumn id="6" name="DestinationLocation" dataDxfId="73"/>
+    <tableColumn id="7" name="TravelDates" dataDxfId="72"/>
+    <tableColumn id="8" name="RentalAgency" dataDxfId="71"/>
+    <tableColumn id="9" name="CarType" dataDxfId="70"/>
+    <tableColumn id="10" name="AirConditioning" dataDxfId="69"/>
+    <tableColumn id="11" name="Transmission" dataDxfId="68"/>
+    <tableColumn id="12" name="CorpDiscRentalAgency" dataDxfId="67"/>
+    <tableColumn id="13" name="CorpDiscCode" dataDxfId="66"/>
+    <tableColumn id="14" name="CorpDiscPromotionalCode" dataDxfId="65"/>
+    <tableColumn id="15" name="UserType" dataDxfId="64"/>
+    <tableColumn id="16" name="PostFilters" dataDxfId="63"/>
+    <tableColumn id="17" name="PostFiltersValues" dataDxfId="62"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:Q2" totalsRowShown="0" headerRowDxfId="63" dataDxfId="61" headerRowBorderDxfId="62" tableBorderDxfId="60">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:Q2" totalsRowShown="0" headerRowDxfId="61" headerRowBorderDxfId="60" tableBorderDxfId="59">
   <autoFilter ref="A1:Q2"/>
   <tableColumns count="17">
-    <tableColumn id="1" name="Description" dataDxfId="59"/>
-    <tableColumn id="2" name="ExecutionPipeline" dataDxfId="58"/>
-    <tableColumn id="3" name="PickUpType-Location" dataDxfId="57"/>
-    <tableColumn id="4" name="OriginLocation" dataDxfId="56"/>
-    <tableColumn id="5" name="DropOffType-Location" dataDxfId="55"/>
-    <tableColumn id="6" name="DestinationLocation" dataDxfId="54"/>
-    <tableColumn id="7" name="TravelDates" dataDxfId="53"/>
-    <tableColumn id="8" name="RentalAgency" dataDxfId="52"/>
-    <tableColumn id="9" name="CarType" dataDxfId="51"/>
-    <tableColumn id="10" name="AirConditioning" dataDxfId="50"/>
-    <tableColumn id="11" name="Transmission" dataDxfId="49"/>
-    <tableColumn id="12" name="CorpDiscRentalAgency" dataDxfId="48"/>
-    <tableColumn id="13" name="CorpDiscCode" dataDxfId="47"/>
-    <tableColumn id="14" name="CorpDiscPromotionalCode" dataDxfId="46"/>
-    <tableColumn id="15" name="UserType" dataDxfId="45"/>
-    <tableColumn id="16" name="PostFilters" dataDxfId="44"/>
-    <tableColumn id="17" name="PostFiltersValues" dataDxfId="43"/>
+    <tableColumn id="1" name="Description" dataDxfId="16"/>
+    <tableColumn id="2" name="ExecutionPipeline" dataDxfId="15"/>
+    <tableColumn id="3" name="PickUpType-Location" dataDxfId="14"/>
+    <tableColumn id="4" name="OriginLocation" dataDxfId="13"/>
+    <tableColumn id="5" name="DropOffType-Location" dataDxfId="12"/>
+    <tableColumn id="6" name="DestinationLocation" dataDxfId="11"/>
+    <tableColumn id="7" name="TravelDates" dataDxfId="10"/>
+    <tableColumn id="8" name="RentalAgency" dataDxfId="9"/>
+    <tableColumn id="9" name="CarType" dataDxfId="8"/>
+    <tableColumn id="10" name="AirConditioning" dataDxfId="7"/>
+    <tableColumn id="11" name="Transmission" dataDxfId="6"/>
+    <tableColumn id="12" name="CorpDiscRentalAgency" dataDxfId="5"/>
+    <tableColumn id="13" name="CorpDiscCode" dataDxfId="4"/>
+    <tableColumn id="14" name="CorpDiscPromotionalCode" dataDxfId="3"/>
+    <tableColumn id="15" name="UserType" dataDxfId="2"/>
+    <tableColumn id="16" name="PostFilters" dataDxfId="1"/>
+    <tableColumn id="17" name="PostFiltersValues" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:Q2" totalsRowShown="0" headerRowDxfId="42" dataDxfId="40" headerRowBorderDxfId="41" tableBorderDxfId="39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:Q2" totalsRowShown="0" headerRowDxfId="58" dataDxfId="56" headerRowBorderDxfId="57" tableBorderDxfId="55">
   <autoFilter ref="A1:Q2"/>
   <tableColumns count="17">
-    <tableColumn id="1" name="Description" dataDxfId="38"/>
-    <tableColumn id="2" name="ExecutionPipeline" dataDxfId="37"/>
-    <tableColumn id="3" name="PickUpType-Location" dataDxfId="36"/>
-    <tableColumn id="4" name="OriginLocation" dataDxfId="35"/>
-    <tableColumn id="5" name="DropOffType-Location" dataDxfId="34"/>
-    <tableColumn id="6" name="DestinationLocation" dataDxfId="33"/>
-    <tableColumn id="7" name="TravelDates" dataDxfId="32"/>
-    <tableColumn id="8" name="RentalAgency" dataDxfId="31"/>
-    <tableColumn id="9" name="CarType" dataDxfId="30"/>
-    <tableColumn id="10" name="AirConditioning" dataDxfId="29"/>
-    <tableColumn id="11" name="Transmission" dataDxfId="28"/>
-    <tableColumn id="12" name="CorpDiscRentalAgency" dataDxfId="27"/>
-    <tableColumn id="13" name="CorpDiscCode" dataDxfId="26"/>
-    <tableColumn id="14" name="CorpDiscPromotionalCode" dataDxfId="25"/>
-    <tableColumn id="15" name="UserType" dataDxfId="24"/>
-    <tableColumn id="16" name="PostFilters" dataDxfId="23"/>
-    <tableColumn id="17" name="PostFiltersValues" dataDxfId="22"/>
+    <tableColumn id="1" name="Description" dataDxfId="54"/>
+    <tableColumn id="2" name="ExecutionPipeline" dataDxfId="53"/>
+    <tableColumn id="3" name="PickUpType-Location" dataDxfId="52"/>
+    <tableColumn id="4" name="OriginLocation" dataDxfId="51"/>
+    <tableColumn id="5" name="DropOffType-Location" dataDxfId="50"/>
+    <tableColumn id="6" name="DestinationLocation" dataDxfId="49"/>
+    <tableColumn id="7" name="TravelDates" dataDxfId="48"/>
+    <tableColumn id="8" name="RentalAgency" dataDxfId="47"/>
+    <tableColumn id="9" name="CarType" dataDxfId="46"/>
+    <tableColumn id="10" name="AirConditioning" dataDxfId="45"/>
+    <tableColumn id="11" name="Transmission" dataDxfId="44"/>
+    <tableColumn id="12" name="CorpDiscRentalAgency" dataDxfId="43"/>
+    <tableColumn id="13" name="CorpDiscCode" dataDxfId="42"/>
+    <tableColumn id="14" name="CorpDiscPromotionalCode" dataDxfId="41"/>
+    <tableColumn id="15" name="UserType" dataDxfId="40"/>
+    <tableColumn id="16" name="PostFilters" dataDxfId="39"/>
+    <tableColumn id="17" name="PostFiltersValues" dataDxfId="38"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A1:Q2" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A1:Q2" totalsRowShown="0" headerRowDxfId="37" dataDxfId="35" headerRowBorderDxfId="36" tableBorderDxfId="34">
   <autoFilter ref="A1:Q2"/>
   <tableColumns count="17">
-    <tableColumn id="1" name="Description" dataDxfId="17"/>
-    <tableColumn id="2" name="ExecutionPipeline" dataDxfId="16"/>
-    <tableColumn id="3" name="PickUpType-Location" dataDxfId="15"/>
-    <tableColumn id="4" name="OriginLocation" dataDxfId="14"/>
-    <tableColumn id="5" name="DropOffType-Location" dataDxfId="13"/>
-    <tableColumn id="6" name="DestinationLocation" dataDxfId="12"/>
-    <tableColumn id="7" name="TravelDates" dataDxfId="11"/>
-    <tableColumn id="8" name="RentalAgency" dataDxfId="10"/>
-    <tableColumn id="9" name="CarType" dataDxfId="9"/>
-    <tableColumn id="10" name="AirConditioning" dataDxfId="8"/>
-    <tableColumn id="11" name="Transmission" dataDxfId="7"/>
-    <tableColumn id="12" name="CorpDiscRentalAgency" dataDxfId="6"/>
-    <tableColumn id="13" name="CorpDiscCode" dataDxfId="5"/>
-    <tableColumn id="14" name="CorpDiscPromotionalCode" dataDxfId="4"/>
-    <tableColumn id="15" name="UserType" dataDxfId="3"/>
-    <tableColumn id="16" name="PostFilters" dataDxfId="2"/>
-    <tableColumn id="17" name="PostFiltersValues" dataDxfId="1"/>
+    <tableColumn id="1" name="Description" dataDxfId="33"/>
+    <tableColumn id="2" name="ExecutionPipeline" dataDxfId="32"/>
+    <tableColumn id="3" name="PickUpType-Location" dataDxfId="31"/>
+    <tableColumn id="4" name="OriginLocation" dataDxfId="30"/>
+    <tableColumn id="5" name="DropOffType-Location" dataDxfId="29"/>
+    <tableColumn id="6" name="DestinationLocation" dataDxfId="28"/>
+    <tableColumn id="7" name="TravelDates" dataDxfId="27"/>
+    <tableColumn id="8" name="RentalAgency" dataDxfId="26"/>
+    <tableColumn id="9" name="CarType" dataDxfId="25"/>
+    <tableColumn id="10" name="AirConditioning" dataDxfId="24"/>
+    <tableColumn id="11" name="Transmission" dataDxfId="23"/>
+    <tableColumn id="12" name="CorpDiscRentalAgency" dataDxfId="22"/>
+    <tableColumn id="13" name="CorpDiscCode" dataDxfId="21"/>
+    <tableColumn id="14" name="CorpDiscPromotionalCode" dataDxfId="20"/>
+    <tableColumn id="15" name="UserType" dataDxfId="19"/>
+    <tableColumn id="16" name="PostFilters" dataDxfId="18"/>
+    <tableColumn id="17" name="PostFiltersValues" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4165,22 +4241,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="E3" sqref="E3"/>
+      <selection pane="topRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="77.5703125" style="34" customWidth="1"/>
+    <col min="1" max="1" width="91.140625" style="30" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.140625" customWidth="1"/>
     <col min="6" max="6" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.42578125" customWidth="1"/>
     <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.42578125" bestFit="1" customWidth="1"/>
@@ -4191,7 +4267,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -4206,7 +4282,7 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="12" t="s">
         <v>18</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -4237,18 +4313,18 @@
         <v>23</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="29" t="s">
         <v>45</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>5</v>
@@ -4257,9 +4333,9 @@
       <c r="E2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="16"/>
+      <c r="F2" s="13"/>
       <c r="G2" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
@@ -4268,18 +4344,18 @@
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
-      <c r="O2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
+      <c r="O2" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
     </row>
     <row r="3" spans="1:17" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>30</v>
+      <c r="A3" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>5</v>
@@ -4288,9 +4364,9 @@
       <c r="E3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="16"/>
+      <c r="F3" s="13"/>
       <c r="G3" s="4" t="s">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
@@ -4299,11 +4375,275 @@
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
-      <c r="O3" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
+      <c r="O3" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+    </row>
+    <row r="4" spans="1:17" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="13"/>
+      <c r="G4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+    </row>
+    <row r="5" spans="1:17" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="13"/>
+      <c r="G5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+    </row>
+    <row r="6" spans="1:17" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="G6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="N6" s="4"/>
+      <c r="O6" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+    </row>
+    <row r="7" spans="1:17" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="13"/>
+      <c r="G7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+    </row>
+    <row r="8" spans="1:17" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="13"/>
+      <c r="G8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+    </row>
+    <row r="9" spans="1:17" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="13"/>
+      <c r="G9" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+    </row>
+    <row r="10" spans="1:17" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="13"/>
+      <c r="G10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+    </row>
+    <row r="11" spans="1:17" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="13"/>
+      <c r="G11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="N11" s="4"/>
+      <c r="O11" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4316,15 +4656,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="72.42578125" style="37" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="78.85546875" style="33" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51.140625" customWidth="1"/>
     <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
@@ -4334,10 +4674,12 @@
     <col min="12" max="12" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="27" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="33" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.85546875" style="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -4352,7 +4694,7 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="12" t="s">
         <v>18</v>
       </c>
       <c r="G1" s="5" t="s">
@@ -4382,94 +4724,206 @@
       <c r="O1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>32</v>
+      <c r="P1" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q1" s="34" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="27" t="s">
+      <c r="A2" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" s="28"/>
-      <c r="G2" s="29" t="s">
+      <c r="D2" s="22"/>
+      <c r="E2" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="24"/>
+      <c r="G2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="P2" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q2" s="35" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="3" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="14" t="s">
+      <c r="A3" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="24"/>
+      <c r="G3" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="P3" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q3" s="36" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="24"/>
+      <c r="G4" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="P4" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="Q4" s="36" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="F3" s="28"/>
-      <c r="G3" s="29" t="s">
+      <c r="D5" s="22"/>
+      <c r="E5" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="24"/>
+      <c r="G5" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="P5" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q5" s="36"/>
+    </row>
+    <row r="6" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="24"/>
+      <c r="G6" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="P6" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q6" s="36" t="s">
+        <v>68</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="72.42578125" style="37" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="72.42578125" style="33" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.28515625" customWidth="1"/>
     <col min="3" max="3" width="21.7109375" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
@@ -4487,73 +4941,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="K1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="L1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="22" t="s">
+      <c r="M1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="22" t="s">
+      <c r="N1" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="25" t="s">
+      <c r="O1" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" s="31" t="s">
-        <v>32</v>
+      <c r="P1" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q1" s="27" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
-        <v>39</v>
+      <c r="A2" s="32" t="s">
+        <v>33</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" s="16"/>
+        <v>32</v>
+      </c>
+      <c r="F2" s="13"/>
       <c r="G2" s="4" t="s">
         <v>6</v>
       </c>
@@ -4565,103 +5019,305 @@
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
+        <v>35</v>
+      </c>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
     </row>
-    <row r="3" spans="1:17" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+    <row r="3" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="16"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="24"/>
       <c r="G3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+    </row>
+    <row r="4" spans="1:17" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="13"/>
+      <c r="G4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+    </row>
+    <row r="5" spans="1:17" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="13"/>
+      <c r="G5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4" t="s">
+      <c r="H5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+    </row>
+    <row r="6" spans="1:17" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="G6" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+    </row>
+    <row r="7" spans="1:17" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="13"/>
+      <c r="G7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
     </row>
-    <row r="4" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="27" t="s">
+    <row r="8" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="28"/>
-      <c r="G4" s="29" t="s">
+      <c r="D8" s="22"/>
+      <c r="E8" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="24"/>
+      <c r="G8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+    </row>
+    <row r="9" spans="1:17" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="13"/>
+      <c r="G9" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+    </row>
+    <row r="10" spans="1:17" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="13"/>
+      <c r="G10" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
+      <c r="H10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
     </row>
-    <row r="5" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="27" t="s">
+    <row r="11" spans="1:17" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="28"/>
-      <c r="G5" s="29" t="s">
+      <c r="D11" s="4"/>
+      <c r="E11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="13"/>
+      <c r="G11" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="4" t="s">
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="O11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4673,15 +5329,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.7109375" customWidth="1"/>
+    <col min="1" max="1" width="86.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.7109375" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
@@ -4699,98 +5355,230 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="K1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="L1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="22" t="s">
+      <c r="M1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="22" t="s">
+      <c r="N1" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="25" t="s">
+      <c r="O1" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="31" t="s">
+      <c r="P1" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q1" s="27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="22"/>
+      <c r="E2" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="24"/>
+      <c r="G2" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="P2" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q2" s="36" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="22"/>
+      <c r="E3" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="24"/>
+      <c r="G3" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="P3" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q3" s="35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="22"/>
+      <c r="E4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="24"/>
+      <c r="G4" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="P4" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q4" s="36" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="22"/>
+      <c r="E5" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="24"/>
+      <c r="G5" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="P5" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q5" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="Q1" s="31" t="s">
-        <v>32</v>
-      </c>
     </row>
-    <row r="2" spans="1:17" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+    <row r="6" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="3" t="s">
+      <c r="D6" s="22"/>
+      <c r="E6" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="16"/>
-      <c r="G2" s="6" t="s">
+      <c r="F6" s="24"/>
+      <c r="G6" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="P2" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q2" s="30" t="s">
-        <v>33</v>
-      </c>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="P6" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q6" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4802,15 +5590,449 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52" customWidth="1"/>
+    <col min="1" max="1" width="89.85546875" style="33" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" customWidth="1"/>
+    <col min="10" max="10" width="17.140625" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" customWidth="1"/>
+    <col min="12" max="12" width="23" customWidth="1"/>
+    <col min="13" max="13" width="15.42578125" customWidth="1"/>
+    <col min="14" max="14" width="26.42578125" customWidth="1"/>
+    <col min="15" max="15" width="11.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q1" s="27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="14"/>
+      <c r="G2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+    </row>
+    <row r="3" spans="1:17" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="14"/>
+      <c r="G3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+    </row>
+    <row r="4" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="14"/>
+      <c r="G4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+    </row>
+    <row r="5" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="14"/>
+      <c r="G5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+    </row>
+    <row r="6" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="14"/>
+      <c r="G6" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="O6" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
+    </row>
+    <row r="7" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="G7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+    </row>
+    <row r="8" spans="1:17" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="14"/>
+      <c r="G8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+    </row>
+    <row r="9" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="14"/>
+      <c r="G9" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+    </row>
+    <row r="10" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="14"/>
+      <c r="G10" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+    </row>
+    <row r="11" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="14"/>
+      <c r="G11" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="O11" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="86.140625" style="33" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.7109375" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
@@ -4828,100 +6050,403 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="K1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="L1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="22" t="s">
+      <c r="M1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="22" t="s">
+      <c r="N1" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="25" t="s">
+      <c r="O1" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" s="31" t="s">
-        <v>32</v>
+      <c r="P1" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q1" s="27" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>28</v>
+    <row r="2" spans="1:17" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="32" t="s">
+        <v>36</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="17"/>
-      <c r="G2" s="11" t="s">
+      <c r="E2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="15"/>
+      <c r="G2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10" t="s">
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+    </row>
+    <row r="3" spans="1:17" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="15"/>
+      <c r="G3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+    </row>
+    <row r="4" spans="1:17" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="15"/>
+      <c r="G4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+    </row>
+    <row r="5" spans="1:17" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="15"/>
+      <c r="G5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+    </row>
+    <row r="6" spans="1:17" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="15"/>
+      <c r="G6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="M6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="N6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="19" t="s">
+      <c r="O6" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
+    </row>
+    <row r="7" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="15"/>
+      <c r="G7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="P2" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q2" s="30" t="s">
-        <v>35</v>
-      </c>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+    </row>
+    <row r="8" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="15"/>
+      <c r="G8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+    </row>
+    <row r="9" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="15"/>
+      <c r="G9" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+    </row>
+    <row r="10" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="15"/>
+      <c r="G10" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+    </row>
+    <row r="11" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="15"/>
+      <c r="G11" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="O11" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4929,166 +6454,4 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="53.140625" customWidth="1"/>
-    <col min="2" max="2" width="37.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" customWidth="1"/>
-    <col min="6" max="6" width="20.85546875" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" customWidth="1"/>
-    <col min="10" max="10" width="17.140625" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" customWidth="1"/>
-    <col min="12" max="12" width="23" customWidth="1"/>
-    <col min="13" max="13" width="15.42578125" customWidth="1"/>
-    <col min="14" max="14" width="26.42578125" customWidth="1"/>
-    <col min="15" max="15" width="11.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="O1" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="P1" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" s="31" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="18"/>
-      <c r="G2" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="O2" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="54.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Rovia.UI.Automation.Tests/DataSheet/CarScenarios.xlsx
+++ b/Rovia.UI.Automation.Tests/DataSheet/CarScenarios.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="881" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="881"/>
   </bookViews>
   <sheets>
     <sheet name="Car_Airport_To_Airport" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="96">
   <si>
     <t>Description</t>
   </si>
@@ -168,9 +168,6 @@
     <t>Car_WithLoginMember_SameDay_DOMESTIC_SamePickup_DropAirport</t>
   </si>
   <si>
-    <t>0|0</t>
-  </si>
-  <si>
     <t>Car_WithLoginMember_SameDay_DOMESTIC_Location_DifferentPickup_DropAirport</t>
   </si>
   <si>
@@ -183,15 +180,9 @@
     <t>Car_WithLoginMember_DOMESTIC_Location_SamePickup_DropAirport_WithRentalAgency</t>
   </si>
   <si>
-    <t>Aivs/Hertz</t>
-  </si>
-  <si>
     <t>Car_WithLoginMember_DOMESTIC_Location_DifferentPickup_DropAirport_WithCarType</t>
   </si>
   <si>
-    <t>Economy|Compact</t>
-  </si>
-  <si>
     <t>Car_WithLoginMember_DOMESTIC_Location_SamePickupAndDrop_InACity_WithAirConditioning</t>
   </si>
   <si>
@@ -298,6 +289,24 @@
   </si>
   <si>
     <t>Car_WithLoginMember_DOMESTIC_Location_Pickup_InACity_Drop_OnAirport_SetMatrix</t>
+  </si>
+  <si>
+    <t>0|5</t>
+  </si>
+  <si>
+    <t>Avis/Hertz</t>
+  </si>
+  <si>
+    <t>Economy/Compact</t>
+  </si>
+  <si>
+    <t>CarType|RentalAgency|Matrix</t>
+  </si>
+  <si>
+    <t>Matrix</t>
+  </si>
+  <si>
+    <t>Search|setfilters|AddToCart</t>
   </si>
 </sst>
 </file>
@@ -366,7 +375,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -474,11 +483,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -566,6 +588,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -582,354 +607,15 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="10"/>
         <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.79998168889431442"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -940,174 +626,169 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
         <vertical/>
         <horizontal/>
       </border>
@@ -2395,6 +2076,547 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <border outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2683,102 +2905,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -3072,12 +3198,6 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -3548,23 +3668,6 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -3660,46 +3763,6 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -3803,152 +3866,152 @@
   <autoFilter ref="A1:Q2"/>
   <tableColumns count="17">
     <tableColumn id="1" name="Description" dataDxfId="121"/>
-    <tableColumn id="16" name="ExecutionPipeline" dataDxfId="120"/>
-    <tableColumn id="2" name="PickUpType-Location" dataDxfId="119"/>
-    <tableColumn id="19" name="OriginLocation" dataDxfId="118"/>
-    <tableColumn id="3" name="DropOffType-Location" dataDxfId="117"/>
-    <tableColumn id="20" name="DestinationLocation" dataDxfId="116"/>
-    <tableColumn id="4" name="TravelDates" dataDxfId="115"/>
-    <tableColumn id="5" name="RentalAgency" dataDxfId="114"/>
-    <tableColumn id="18" name="CarType" dataDxfId="113"/>
-    <tableColumn id="6" name="AirConditioning" dataDxfId="112"/>
-    <tableColumn id="7" name="Transmission" dataDxfId="111"/>
-    <tableColumn id="8" name="CorpDiscRentalAgency" dataDxfId="110"/>
-    <tableColumn id="9" name="CorpDiscCode" dataDxfId="109"/>
-    <tableColumn id="10" name="CorpDiscPromotionalCode" dataDxfId="108"/>
-    <tableColumn id="12" name="UserType" dataDxfId="107"/>
-    <tableColumn id="11" name="PostFilters" dataDxfId="106"/>
-    <tableColumn id="13" name="PostFiltersValues" dataDxfId="105"/>
+    <tableColumn id="16" name="ExecutionPipeline" dataDxfId="0"/>
+    <tableColumn id="2" name="PickUpType-Location" dataDxfId="120"/>
+    <tableColumn id="19" name="OriginLocation" dataDxfId="119"/>
+    <tableColumn id="3" name="DropOffType-Location" dataDxfId="118"/>
+    <tableColumn id="20" name="DestinationLocation" dataDxfId="117"/>
+    <tableColumn id="4" name="TravelDates" dataDxfId="116"/>
+    <tableColumn id="5" name="RentalAgency" dataDxfId="115"/>
+    <tableColumn id="18" name="CarType" dataDxfId="6"/>
+    <tableColumn id="6" name="AirConditioning" dataDxfId="114"/>
+    <tableColumn id="7" name="Transmission" dataDxfId="113"/>
+    <tableColumn id="8" name="CorpDiscRentalAgency" dataDxfId="112"/>
+    <tableColumn id="9" name="CorpDiscCode" dataDxfId="111"/>
+    <tableColumn id="10" name="CorpDiscPromotionalCode" dataDxfId="110"/>
+    <tableColumn id="12" name="UserType" dataDxfId="109"/>
+    <tableColumn id="11" name="PostFilters" dataDxfId="108"/>
+    <tableColumn id="13" name="PostFiltersValues" dataDxfId="107"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table23" displayName="Table23" ref="A1:Q2" totalsRowShown="0" headerRowDxfId="104" dataDxfId="102" headerRowBorderDxfId="103" tableBorderDxfId="101" totalsRowBorderDxfId="100">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table23" displayName="Table23" ref="A1:Q2" totalsRowShown="0" headerRowDxfId="106" dataDxfId="104" headerRowBorderDxfId="105" tableBorderDxfId="103" totalsRowBorderDxfId="102">
   <autoFilter ref="A1:Q2"/>
   <tableColumns count="17">
-    <tableColumn id="1" name="Description" dataDxfId="99"/>
-    <tableColumn id="16" name="ExecutionPipeline" dataDxfId="98"/>
-    <tableColumn id="2" name="PickUpType-Location" dataDxfId="97"/>
-    <tableColumn id="19" name="OriginLocation" dataDxfId="96"/>
-    <tableColumn id="3" name="DropOffType-Location" dataDxfId="95"/>
-    <tableColumn id="20" name="DestinationLocation" dataDxfId="94"/>
-    <tableColumn id="4" name="TravelDates" dataDxfId="93"/>
-    <tableColumn id="5" name="RentalAgency" dataDxfId="92"/>
-    <tableColumn id="18" name="CarType" dataDxfId="91"/>
-    <tableColumn id="6" name="AirConditioning" dataDxfId="90"/>
-    <tableColumn id="7" name="Transmission" dataDxfId="89"/>
-    <tableColumn id="8" name="CorpDiscRentalAgency" dataDxfId="88"/>
-    <tableColumn id="9" name="CorpDiscCode" dataDxfId="87"/>
-    <tableColumn id="10" name="CorpDiscPromotionalCode" dataDxfId="86"/>
-    <tableColumn id="12" name="UserType" dataDxfId="85"/>
-    <tableColumn id="11" name="PostFilters" dataDxfId="84"/>
-    <tableColumn id="13" name="PostFiltersValues" dataDxfId="83"/>
+    <tableColumn id="1" name="Description" dataDxfId="101"/>
+    <tableColumn id="16" name="ExecutionPipeline" dataDxfId="100"/>
+    <tableColumn id="2" name="PickUpType-Location" dataDxfId="99"/>
+    <tableColumn id="19" name="OriginLocation" dataDxfId="98"/>
+    <tableColumn id="3" name="DropOffType-Location" dataDxfId="97"/>
+    <tableColumn id="20" name="DestinationLocation" dataDxfId="96"/>
+    <tableColumn id="4" name="TravelDates" dataDxfId="95"/>
+    <tableColumn id="5" name="RentalAgency" dataDxfId="94"/>
+    <tableColumn id="18" name="CarType" dataDxfId="93"/>
+    <tableColumn id="6" name="AirConditioning" dataDxfId="92"/>
+    <tableColumn id="7" name="Transmission" dataDxfId="91"/>
+    <tableColumn id="8" name="CorpDiscRentalAgency" dataDxfId="90"/>
+    <tableColumn id="9" name="CorpDiscCode" dataDxfId="89"/>
+    <tableColumn id="10" name="CorpDiscPromotionalCode" dataDxfId="88"/>
+    <tableColumn id="12" name="UserType" dataDxfId="87"/>
+    <tableColumn id="11" name="PostFilters" dataDxfId="5"/>
+    <tableColumn id="13" name="PostFiltersValues" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:Q2" totalsRowShown="0" headerRowDxfId="82" dataDxfId="80" headerRowBorderDxfId="81" tableBorderDxfId="79">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:Q2" totalsRowShown="0" headerRowDxfId="86" dataDxfId="84" headerRowBorderDxfId="85" tableBorderDxfId="83">
   <autoFilter ref="A1:Q2"/>
   <tableColumns count="17">
-    <tableColumn id="1" name="Description" dataDxfId="78"/>
-    <tableColumn id="2" name="ExecutionPipeline" dataDxfId="77"/>
-    <tableColumn id="3" name="PickUpType-Location" dataDxfId="76"/>
-    <tableColumn id="4" name="OriginLocation" dataDxfId="75"/>
-    <tableColumn id="5" name="DropOffType-Location" dataDxfId="74"/>
-    <tableColumn id="6" name="DestinationLocation" dataDxfId="73"/>
-    <tableColumn id="7" name="TravelDates" dataDxfId="72"/>
-    <tableColumn id="8" name="RentalAgency" dataDxfId="71"/>
-    <tableColumn id="9" name="CarType" dataDxfId="70"/>
-    <tableColumn id="10" name="AirConditioning" dataDxfId="69"/>
-    <tableColumn id="11" name="Transmission" dataDxfId="68"/>
-    <tableColumn id="12" name="CorpDiscRentalAgency" dataDxfId="67"/>
-    <tableColumn id="13" name="CorpDiscCode" dataDxfId="66"/>
-    <tableColumn id="14" name="CorpDiscPromotionalCode" dataDxfId="65"/>
-    <tableColumn id="15" name="UserType" dataDxfId="64"/>
-    <tableColumn id="16" name="PostFilters" dataDxfId="63"/>
-    <tableColumn id="17" name="PostFiltersValues" dataDxfId="62"/>
+    <tableColumn id="1" name="Description" dataDxfId="82"/>
+    <tableColumn id="2" name="ExecutionPipeline" dataDxfId="81"/>
+    <tableColumn id="3" name="PickUpType-Location" dataDxfId="80"/>
+    <tableColumn id="4" name="OriginLocation" dataDxfId="79"/>
+    <tableColumn id="5" name="DropOffType-Location" dataDxfId="78"/>
+    <tableColumn id="6" name="DestinationLocation" dataDxfId="77"/>
+    <tableColumn id="7" name="TravelDates" dataDxfId="76"/>
+    <tableColumn id="8" name="RentalAgency" dataDxfId="75"/>
+    <tableColumn id="9" name="CarType" dataDxfId="74"/>
+    <tableColumn id="10" name="AirConditioning" dataDxfId="73"/>
+    <tableColumn id="11" name="Transmission" dataDxfId="72"/>
+    <tableColumn id="12" name="CorpDiscRentalAgency" dataDxfId="3"/>
+    <tableColumn id="13" name="CorpDiscCode" dataDxfId="2"/>
+    <tableColumn id="14" name="CorpDiscPromotionalCode" dataDxfId="1"/>
+    <tableColumn id="15" name="UserType" dataDxfId="71"/>
+    <tableColumn id="16" name="PostFilters" dataDxfId="70"/>
+    <tableColumn id="17" name="PostFiltersValues" dataDxfId="69"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:Q2" totalsRowShown="0" headerRowDxfId="61" headerRowBorderDxfId="60" tableBorderDxfId="59">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:Q2" totalsRowShown="0" headerRowDxfId="68" headerRowBorderDxfId="67" tableBorderDxfId="66">
   <autoFilter ref="A1:Q2"/>
   <tableColumns count="17">
-    <tableColumn id="1" name="Description" dataDxfId="16"/>
-    <tableColumn id="2" name="ExecutionPipeline" dataDxfId="15"/>
-    <tableColumn id="3" name="PickUpType-Location" dataDxfId="14"/>
-    <tableColumn id="4" name="OriginLocation" dataDxfId="13"/>
-    <tableColumn id="5" name="DropOffType-Location" dataDxfId="12"/>
-    <tableColumn id="6" name="DestinationLocation" dataDxfId="11"/>
-    <tableColumn id="7" name="TravelDates" dataDxfId="10"/>
-    <tableColumn id="8" name="RentalAgency" dataDxfId="9"/>
-    <tableColumn id="9" name="CarType" dataDxfId="8"/>
-    <tableColumn id="10" name="AirConditioning" dataDxfId="7"/>
-    <tableColumn id="11" name="Transmission" dataDxfId="6"/>
-    <tableColumn id="12" name="CorpDiscRentalAgency" dataDxfId="5"/>
-    <tableColumn id="13" name="CorpDiscCode" dataDxfId="4"/>
-    <tableColumn id="14" name="CorpDiscPromotionalCode" dataDxfId="3"/>
-    <tableColumn id="15" name="UserType" dataDxfId="2"/>
-    <tableColumn id="16" name="PostFilters" dataDxfId="1"/>
-    <tableColumn id="17" name="PostFiltersValues" dataDxfId="0"/>
+    <tableColumn id="1" name="Description" dataDxfId="65"/>
+    <tableColumn id="2" name="ExecutionPipeline" dataDxfId="64"/>
+    <tableColumn id="3" name="PickUpType-Location" dataDxfId="63"/>
+    <tableColumn id="4" name="OriginLocation" dataDxfId="62"/>
+    <tableColumn id="5" name="DropOffType-Location" dataDxfId="61"/>
+    <tableColumn id="6" name="DestinationLocation" dataDxfId="60"/>
+    <tableColumn id="7" name="TravelDates" dataDxfId="59"/>
+    <tableColumn id="8" name="RentalAgency" dataDxfId="58"/>
+    <tableColumn id="9" name="CarType" dataDxfId="57"/>
+    <tableColumn id="10" name="AirConditioning" dataDxfId="56"/>
+    <tableColumn id="11" name="Transmission" dataDxfId="55"/>
+    <tableColumn id="12" name="CorpDiscRentalAgency" dataDxfId="54"/>
+    <tableColumn id="13" name="CorpDiscCode" dataDxfId="53"/>
+    <tableColumn id="14" name="CorpDiscPromotionalCode" dataDxfId="52"/>
+    <tableColumn id="15" name="UserType" dataDxfId="51"/>
+    <tableColumn id="16" name="PostFilters" dataDxfId="50"/>
+    <tableColumn id="17" name="PostFiltersValues" dataDxfId="49"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:Q2" totalsRowShown="0" headerRowDxfId="58" dataDxfId="56" headerRowBorderDxfId="57" tableBorderDxfId="55">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:Q2" totalsRowShown="0" headerRowDxfId="48" dataDxfId="46" headerRowBorderDxfId="47" tableBorderDxfId="45">
   <autoFilter ref="A1:Q2"/>
   <tableColumns count="17">
-    <tableColumn id="1" name="Description" dataDxfId="54"/>
-    <tableColumn id="2" name="ExecutionPipeline" dataDxfId="53"/>
-    <tableColumn id="3" name="PickUpType-Location" dataDxfId="52"/>
-    <tableColumn id="4" name="OriginLocation" dataDxfId="51"/>
-    <tableColumn id="5" name="DropOffType-Location" dataDxfId="50"/>
-    <tableColumn id="6" name="DestinationLocation" dataDxfId="49"/>
-    <tableColumn id="7" name="TravelDates" dataDxfId="48"/>
-    <tableColumn id="8" name="RentalAgency" dataDxfId="47"/>
-    <tableColumn id="9" name="CarType" dataDxfId="46"/>
-    <tableColumn id="10" name="AirConditioning" dataDxfId="45"/>
-    <tableColumn id="11" name="Transmission" dataDxfId="44"/>
-    <tableColumn id="12" name="CorpDiscRentalAgency" dataDxfId="43"/>
-    <tableColumn id="13" name="CorpDiscCode" dataDxfId="42"/>
-    <tableColumn id="14" name="CorpDiscPromotionalCode" dataDxfId="41"/>
-    <tableColumn id="15" name="UserType" dataDxfId="40"/>
-    <tableColumn id="16" name="PostFilters" dataDxfId="39"/>
-    <tableColumn id="17" name="PostFiltersValues" dataDxfId="38"/>
+    <tableColumn id="1" name="Description" dataDxfId="44"/>
+    <tableColumn id="2" name="ExecutionPipeline" dataDxfId="43"/>
+    <tableColumn id="3" name="PickUpType-Location" dataDxfId="42"/>
+    <tableColumn id="4" name="OriginLocation" dataDxfId="41"/>
+    <tableColumn id="5" name="DropOffType-Location" dataDxfId="40"/>
+    <tableColumn id="6" name="DestinationLocation" dataDxfId="39"/>
+    <tableColumn id="7" name="TravelDates" dataDxfId="38"/>
+    <tableColumn id="8" name="RentalAgency" dataDxfId="37"/>
+    <tableColumn id="9" name="CarType" dataDxfId="36"/>
+    <tableColumn id="10" name="AirConditioning" dataDxfId="35"/>
+    <tableColumn id="11" name="Transmission" dataDxfId="34"/>
+    <tableColumn id="12" name="CorpDiscRentalAgency" dataDxfId="33"/>
+    <tableColumn id="13" name="CorpDiscCode" dataDxfId="32"/>
+    <tableColumn id="14" name="CorpDiscPromotionalCode" dataDxfId="31"/>
+    <tableColumn id="15" name="UserType" dataDxfId="30"/>
+    <tableColumn id="16" name="PostFilters" dataDxfId="29"/>
+    <tableColumn id="17" name="PostFiltersValues" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A1:Q2" totalsRowShown="0" headerRowDxfId="37" dataDxfId="35" headerRowBorderDxfId="36" tableBorderDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A1:Q2" totalsRowShown="0" headerRowDxfId="27" dataDxfId="25" headerRowBorderDxfId="26" tableBorderDxfId="24">
   <autoFilter ref="A1:Q2"/>
   <tableColumns count="17">
-    <tableColumn id="1" name="Description" dataDxfId="33"/>
-    <tableColumn id="2" name="ExecutionPipeline" dataDxfId="32"/>
-    <tableColumn id="3" name="PickUpType-Location" dataDxfId="31"/>
-    <tableColumn id="4" name="OriginLocation" dataDxfId="30"/>
-    <tableColumn id="5" name="DropOffType-Location" dataDxfId="29"/>
-    <tableColumn id="6" name="DestinationLocation" dataDxfId="28"/>
-    <tableColumn id="7" name="TravelDates" dataDxfId="27"/>
-    <tableColumn id="8" name="RentalAgency" dataDxfId="26"/>
-    <tableColumn id="9" name="CarType" dataDxfId="25"/>
-    <tableColumn id="10" name="AirConditioning" dataDxfId="24"/>
-    <tableColumn id="11" name="Transmission" dataDxfId="23"/>
-    <tableColumn id="12" name="CorpDiscRentalAgency" dataDxfId="22"/>
-    <tableColumn id="13" name="CorpDiscCode" dataDxfId="21"/>
-    <tableColumn id="14" name="CorpDiscPromotionalCode" dataDxfId="20"/>
-    <tableColumn id="15" name="UserType" dataDxfId="19"/>
-    <tableColumn id="16" name="PostFilters" dataDxfId="18"/>
-    <tableColumn id="17" name="PostFiltersValues" dataDxfId="17"/>
+    <tableColumn id="1" name="Description" dataDxfId="23"/>
+    <tableColumn id="2" name="ExecutionPipeline" dataDxfId="22"/>
+    <tableColumn id="3" name="PickUpType-Location" dataDxfId="21"/>
+    <tableColumn id="4" name="OriginLocation" dataDxfId="20"/>
+    <tableColumn id="5" name="DropOffType-Location" dataDxfId="19"/>
+    <tableColumn id="6" name="DestinationLocation" dataDxfId="18"/>
+    <tableColumn id="7" name="TravelDates" dataDxfId="17"/>
+    <tableColumn id="8" name="RentalAgency" dataDxfId="16"/>
+    <tableColumn id="9" name="CarType" dataDxfId="15"/>
+    <tableColumn id="10" name="AirConditioning" dataDxfId="14"/>
+    <tableColumn id="11" name="Transmission" dataDxfId="13"/>
+    <tableColumn id="12" name="CorpDiscRentalAgency" dataDxfId="12"/>
+    <tableColumn id="13" name="CorpDiscCode" dataDxfId="11"/>
+    <tableColumn id="14" name="CorpDiscPromotionalCode" dataDxfId="10"/>
+    <tableColumn id="15" name="UserType" dataDxfId="9"/>
+    <tableColumn id="16" name="PostFilters" dataDxfId="8"/>
+    <tableColumn id="17" name="PostFiltersValues" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4243,10 +4306,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="A2" sqref="A2"/>
+      <selection pane="topRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4323,7 +4386,7 @@
       <c r="A2" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="11" t="s">
         <v>27</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -4383,7 +4446,7 @@
     </row>
     <row r="4" spans="1:17" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>27</v>
@@ -4397,7 +4460,7 @@
       </c>
       <c r="F4" s="13"/>
       <c r="G4" s="4" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
@@ -4414,7 +4477,7 @@
     </row>
     <row r="5" spans="1:17" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>27</v>
@@ -4432,7 +4495,7 @@
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
@@ -4447,7 +4510,7 @@
     </row>
     <row r="6" spans="1:17" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>27</v>
@@ -4484,7 +4547,7 @@
     </row>
     <row r="7" spans="1:17" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>27</v>
@@ -4546,7 +4609,7 @@
     </row>
     <row r="9" spans="1:17" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>27</v>
@@ -4560,7 +4623,7 @@
       </c>
       <c r="F9" s="13"/>
       <c r="G9" s="4" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
@@ -4577,7 +4640,7 @@
     </row>
     <row r="10" spans="1:17" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>27</v>
@@ -4595,7 +4658,7 @@
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
@@ -4610,7 +4673,7 @@
     </row>
     <row r="11" spans="1:17" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>27</v>
@@ -4659,7 +4722,7 @@
   <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4733,10 +4796,10 @@
     </row>
     <row r="2" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="C2" s="23" t="s">
         <v>22</v>
@@ -4759,19 +4822,19 @@
       <c r="O2" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="P2" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q2" s="35" t="s">
-        <v>66</v>
+      <c r="P2" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q2" s="37" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="C3" s="23" t="s">
         <v>22</v>
@@ -4795,18 +4858,18 @@
         <v>35</v>
       </c>
       <c r="P3" s="36" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="Q3" s="36" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="C4" s="23" t="s">
         <v>22</v>
@@ -4838,10 +4901,10 @@
     </row>
     <row r="5" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="C5" s="23" t="s">
         <v>22</v>
@@ -4864,17 +4927,16 @@
       <c r="O5" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="P5" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q5" s="36"/>
+      <c r="P5" s="33" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="6" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="C6" s="23" t="s">
         <v>22</v>
@@ -4898,10 +4960,10 @@
         <v>35</v>
       </c>
       <c r="P6" s="36" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="Q6" s="36" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -4918,7 +4980,7 @@
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5015,9 +5077,9 @@
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
       <c r="O2" s="4" t="s">
         <v>35</v>
       </c>
@@ -5071,7 +5133,7 @@
       </c>
       <c r="F4" s="13"/>
       <c r="G4" s="4" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
@@ -5088,7 +5150,7 @@
     </row>
     <row r="5" spans="1:17" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>27</v>
@@ -5105,7 +5167,7 @@
         <v>6</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
@@ -5121,7 +5183,7 @@
     </row>
     <row r="6" spans="1:17" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>27</v>
@@ -5189,7 +5251,7 @@
     </row>
     <row r="8" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>27</v>
@@ -5220,7 +5282,7 @@
     </row>
     <row r="9" spans="1:17" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>27</v>
@@ -5234,7 +5296,7 @@
       </c>
       <c r="F9" s="13"/>
       <c r="G9" s="4" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
@@ -5251,7 +5313,7 @@
     </row>
     <row r="10" spans="1:17" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>27</v>
@@ -5268,7 +5330,7 @@
         <v>6</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -5284,7 +5346,7 @@
     </row>
     <row r="11" spans="1:17" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>27</v>
@@ -5332,7 +5394,7 @@
   <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5409,10 +5471,10 @@
     </row>
     <row r="2" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>26</v>
@@ -5436,18 +5498,18 @@
         <v>35</v>
       </c>
       <c r="P2" s="36" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="Q2" s="36" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>26</v>
@@ -5471,18 +5533,18 @@
         <v>35</v>
       </c>
       <c r="P3" s="35" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="Q3" s="35" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>26</v>
@@ -5506,18 +5568,18 @@
         <v>35</v>
       </c>
       <c r="P4" s="36" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="Q4" s="36" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>26</v>
@@ -5549,10 +5611,10 @@
     </row>
     <row r="6" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>26</v>
@@ -5576,7 +5638,7 @@
         <v>35</v>
       </c>
       <c r="P6" s="36" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="Q6" s="36"/>
     </row>
@@ -5592,8 +5654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5736,7 +5798,7 @@
     </row>
     <row r="4" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>27</v>
@@ -5752,7 +5814,7 @@
       </c>
       <c r="F4" s="14"/>
       <c r="G4" s="4" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
@@ -5769,7 +5831,7 @@
     </row>
     <row r="5" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>27</v>
@@ -5791,7 +5853,7 @@
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
       <c r="K5" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
@@ -5804,7 +5866,7 @@
     </row>
     <row r="6" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>27</v>
@@ -5876,7 +5938,7 @@
     </row>
     <row r="8" spans="1:17" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>27</v>
@@ -5909,7 +5971,7 @@
     </row>
     <row r="9" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>27</v>
@@ -5925,7 +5987,7 @@
       </c>
       <c r="F9" s="14"/>
       <c r="G9" s="4" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
@@ -5942,7 +6004,7 @@
     </row>
     <row r="10" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>27</v>
@@ -5964,7 +6026,7 @@
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
@@ -5977,7 +6039,7 @@
     </row>
     <row r="11" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>27</v>
@@ -6026,14 +6088,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="86.140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
     <col min="3" max="3" width="21.7109375" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="22.7109375" customWidth="1"/>
@@ -6170,7 +6232,7 @@
     </row>
     <row r="4" spans="1:17" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>27</v>
@@ -6186,7 +6248,7 @@
       </c>
       <c r="F4" s="15"/>
       <c r="G4" s="4" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
@@ -6203,7 +6265,7 @@
     </row>
     <row r="5" spans="1:17" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>27</v>
@@ -6218,8 +6280,8 @@
         <v>19</v>
       </c>
       <c r="F5" s="15"/>
-      <c r="G5" s="4" t="s">
-        <v>49</v>
+      <c r="G5" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
@@ -6238,7 +6300,7 @@
     </row>
     <row r="6" spans="1:17" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>27</v>
@@ -6253,8 +6315,8 @@
         <v>19</v>
       </c>
       <c r="F6" s="15"/>
-      <c r="G6" s="4" t="s">
-        <v>49</v>
+      <c r="G6" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
@@ -6310,7 +6372,7 @@
     </row>
     <row r="8" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>27</v>
@@ -6343,7 +6405,7 @@
     </row>
     <row r="9" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>27</v>
@@ -6359,7 +6421,7 @@
       </c>
       <c r="F9" s="15"/>
       <c r="G9" s="4" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
@@ -6376,7 +6438,7 @@
     </row>
     <row r="10" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>27</v>
@@ -6391,8 +6453,8 @@
         <v>19</v>
       </c>
       <c r="F10" s="15"/>
-      <c r="G10" s="4" t="s">
-        <v>49</v>
+      <c r="G10" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
@@ -6411,7 +6473,7 @@
     </row>
     <row r="11" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>27</v>
@@ -6426,8 +6488,8 @@
         <v>19</v>
       </c>
       <c r="F11" s="15"/>
-      <c r="G11" s="4" t="s">
-        <v>49</v>
+      <c r="G11" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>

--- a/Rovia.UI.Automation.Tests/DataSheet/CarScenarios.xlsx
+++ b/Rovia.UI.Automation.Tests/DataSheet/CarScenarios.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="881"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="881" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Car_Airport_To_Airport" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="94">
   <si>
     <t>Description</t>
   </si>
@@ -270,9 +270,6 @@
     <t>Car_WithGuestUser_DOMESTIC_Location_SamePickupAndDrop_InACity_WithCorporateDiscount</t>
   </si>
   <si>
-    <t>CarType|RentalAgency|matrix</t>
-  </si>
-  <si>
     <t>Car_WithLoginMember_DOMESTIC_Location_PickUp_OnAirport_Drop_InACity_SetFilters</t>
   </si>
   <si>
@@ -294,19 +291,16 @@
     <t>0|5</t>
   </si>
   <si>
-    <t>Avis/Hertz</t>
-  </si>
-  <si>
-    <t>Economy/Compact</t>
-  </si>
-  <si>
-    <t>CarType|RentalAgency|Matrix</t>
-  </si>
-  <si>
     <t>Matrix</t>
   </si>
   <si>
     <t>Search|setfilters|AddToCart</t>
+  </si>
+  <si>
+    <t>Economy</t>
+  </si>
+  <si>
+    <t>Compact</t>
   </si>
 </sst>
 </file>
@@ -607,203 +601,6 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
@@ -2788,6 +2585,108 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom/>
         <vertical/>
         <horizontal/>
@@ -3198,6 +3097,44 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -3668,6 +3605,23 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -3763,6 +3717,46 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -3866,152 +3860,152 @@
   <autoFilter ref="A1:Q2"/>
   <tableColumns count="17">
     <tableColumn id="1" name="Description" dataDxfId="121"/>
-    <tableColumn id="16" name="ExecutionPipeline" dataDxfId="0"/>
-    <tableColumn id="2" name="PickUpType-Location" dataDxfId="120"/>
-    <tableColumn id="19" name="OriginLocation" dataDxfId="119"/>
-    <tableColumn id="3" name="DropOffType-Location" dataDxfId="118"/>
-    <tableColumn id="20" name="DestinationLocation" dataDxfId="117"/>
-    <tableColumn id="4" name="TravelDates" dataDxfId="116"/>
-    <tableColumn id="5" name="RentalAgency" dataDxfId="115"/>
-    <tableColumn id="18" name="CarType" dataDxfId="6"/>
-    <tableColumn id="6" name="AirConditioning" dataDxfId="114"/>
-    <tableColumn id="7" name="Transmission" dataDxfId="113"/>
-    <tableColumn id="8" name="CorpDiscRentalAgency" dataDxfId="112"/>
-    <tableColumn id="9" name="CorpDiscCode" dataDxfId="111"/>
-    <tableColumn id="10" name="CorpDiscPromotionalCode" dataDxfId="110"/>
-    <tableColumn id="12" name="UserType" dataDxfId="109"/>
-    <tableColumn id="11" name="PostFilters" dataDxfId="108"/>
-    <tableColumn id="13" name="PostFiltersValues" dataDxfId="107"/>
+    <tableColumn id="16" name="ExecutionPipeline" dataDxfId="120"/>
+    <tableColumn id="2" name="PickUpType-Location" dataDxfId="119"/>
+    <tableColumn id="19" name="OriginLocation" dataDxfId="118"/>
+    <tableColumn id="3" name="DropOffType-Location" dataDxfId="117"/>
+    <tableColumn id="20" name="DestinationLocation" dataDxfId="116"/>
+    <tableColumn id="4" name="TravelDates" dataDxfId="115"/>
+    <tableColumn id="5" name="RentalAgency" dataDxfId="114"/>
+    <tableColumn id="18" name="CarType" dataDxfId="113"/>
+    <tableColumn id="6" name="AirConditioning" dataDxfId="112"/>
+    <tableColumn id="7" name="Transmission" dataDxfId="111"/>
+    <tableColumn id="8" name="CorpDiscRentalAgency" dataDxfId="110"/>
+    <tableColumn id="9" name="CorpDiscCode" dataDxfId="109"/>
+    <tableColumn id="10" name="CorpDiscPromotionalCode" dataDxfId="108"/>
+    <tableColumn id="12" name="UserType" dataDxfId="107"/>
+    <tableColumn id="11" name="PostFilters" dataDxfId="106"/>
+    <tableColumn id="13" name="PostFiltersValues" dataDxfId="105"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table23" displayName="Table23" ref="A1:Q2" totalsRowShown="0" headerRowDxfId="106" dataDxfId="104" headerRowBorderDxfId="105" tableBorderDxfId="103" totalsRowBorderDxfId="102">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table23" displayName="Table23" ref="A1:Q2" totalsRowShown="0" headerRowDxfId="104" dataDxfId="102" headerRowBorderDxfId="103" tableBorderDxfId="101" totalsRowBorderDxfId="100">
   <autoFilter ref="A1:Q2"/>
   <tableColumns count="17">
-    <tableColumn id="1" name="Description" dataDxfId="101"/>
-    <tableColumn id="16" name="ExecutionPipeline" dataDxfId="100"/>
-    <tableColumn id="2" name="PickUpType-Location" dataDxfId="99"/>
-    <tableColumn id="19" name="OriginLocation" dataDxfId="98"/>
-    <tableColumn id="3" name="DropOffType-Location" dataDxfId="97"/>
-    <tableColumn id="20" name="DestinationLocation" dataDxfId="96"/>
-    <tableColumn id="4" name="TravelDates" dataDxfId="95"/>
-    <tableColumn id="5" name="RentalAgency" dataDxfId="94"/>
-    <tableColumn id="18" name="CarType" dataDxfId="93"/>
-    <tableColumn id="6" name="AirConditioning" dataDxfId="92"/>
-    <tableColumn id="7" name="Transmission" dataDxfId="91"/>
-    <tableColumn id="8" name="CorpDiscRentalAgency" dataDxfId="90"/>
-    <tableColumn id="9" name="CorpDiscCode" dataDxfId="89"/>
-    <tableColumn id="10" name="CorpDiscPromotionalCode" dataDxfId="88"/>
-    <tableColumn id="12" name="UserType" dataDxfId="87"/>
-    <tableColumn id="11" name="PostFilters" dataDxfId="5"/>
-    <tableColumn id="13" name="PostFiltersValues" dataDxfId="4"/>
+    <tableColumn id="1" name="Description" dataDxfId="99"/>
+    <tableColumn id="16" name="ExecutionPipeline" dataDxfId="98"/>
+    <tableColumn id="2" name="PickUpType-Location" dataDxfId="97"/>
+    <tableColumn id="19" name="OriginLocation" dataDxfId="96"/>
+    <tableColumn id="3" name="DropOffType-Location" dataDxfId="95"/>
+    <tableColumn id="20" name="DestinationLocation" dataDxfId="94"/>
+    <tableColumn id="4" name="TravelDates" dataDxfId="93"/>
+    <tableColumn id="5" name="RentalAgency" dataDxfId="92"/>
+    <tableColumn id="18" name="CarType" dataDxfId="91"/>
+    <tableColumn id="6" name="AirConditioning" dataDxfId="90"/>
+    <tableColumn id="7" name="Transmission" dataDxfId="89"/>
+    <tableColumn id="8" name="CorpDiscRentalAgency" dataDxfId="88"/>
+    <tableColumn id="9" name="CorpDiscCode" dataDxfId="87"/>
+    <tableColumn id="10" name="CorpDiscPromotionalCode" dataDxfId="86"/>
+    <tableColumn id="12" name="UserType" dataDxfId="85"/>
+    <tableColumn id="11" name="PostFilters" dataDxfId="84"/>
+    <tableColumn id="13" name="PostFiltersValues" dataDxfId="83"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:Q2" totalsRowShown="0" headerRowDxfId="86" dataDxfId="84" headerRowBorderDxfId="85" tableBorderDxfId="83">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:Q2" totalsRowShown="0" headerRowDxfId="82" dataDxfId="80" headerRowBorderDxfId="81" tableBorderDxfId="79">
   <autoFilter ref="A1:Q2"/>
   <tableColumns count="17">
-    <tableColumn id="1" name="Description" dataDxfId="82"/>
-    <tableColumn id="2" name="ExecutionPipeline" dataDxfId="81"/>
-    <tableColumn id="3" name="PickUpType-Location" dataDxfId="80"/>
-    <tableColumn id="4" name="OriginLocation" dataDxfId="79"/>
-    <tableColumn id="5" name="DropOffType-Location" dataDxfId="78"/>
-    <tableColumn id="6" name="DestinationLocation" dataDxfId="77"/>
-    <tableColumn id="7" name="TravelDates" dataDxfId="76"/>
-    <tableColumn id="8" name="RentalAgency" dataDxfId="75"/>
-    <tableColumn id="9" name="CarType" dataDxfId="74"/>
-    <tableColumn id="10" name="AirConditioning" dataDxfId="73"/>
-    <tableColumn id="11" name="Transmission" dataDxfId="72"/>
-    <tableColumn id="12" name="CorpDiscRentalAgency" dataDxfId="3"/>
-    <tableColumn id="13" name="CorpDiscCode" dataDxfId="2"/>
-    <tableColumn id="14" name="CorpDiscPromotionalCode" dataDxfId="1"/>
-    <tableColumn id="15" name="UserType" dataDxfId="71"/>
-    <tableColumn id="16" name="PostFilters" dataDxfId="70"/>
-    <tableColumn id="17" name="PostFiltersValues" dataDxfId="69"/>
+    <tableColumn id="1" name="Description" dataDxfId="78"/>
+    <tableColumn id="2" name="ExecutionPipeline" dataDxfId="77"/>
+    <tableColumn id="3" name="PickUpType-Location" dataDxfId="76"/>
+    <tableColumn id="4" name="OriginLocation" dataDxfId="75"/>
+    <tableColumn id="5" name="DropOffType-Location" dataDxfId="74"/>
+    <tableColumn id="6" name="DestinationLocation" dataDxfId="73"/>
+    <tableColumn id="7" name="TravelDates" dataDxfId="72"/>
+    <tableColumn id="8" name="RentalAgency" dataDxfId="71"/>
+    <tableColumn id="9" name="CarType" dataDxfId="70"/>
+    <tableColumn id="10" name="AirConditioning" dataDxfId="69"/>
+    <tableColumn id="11" name="Transmission" dataDxfId="68"/>
+    <tableColumn id="12" name="CorpDiscRentalAgency" dataDxfId="67"/>
+    <tableColumn id="13" name="CorpDiscCode" dataDxfId="66"/>
+    <tableColumn id="14" name="CorpDiscPromotionalCode" dataDxfId="65"/>
+    <tableColumn id="15" name="UserType" dataDxfId="64"/>
+    <tableColumn id="16" name="PostFilters" dataDxfId="63"/>
+    <tableColumn id="17" name="PostFiltersValues" dataDxfId="62"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:Q2" totalsRowShown="0" headerRowDxfId="68" headerRowBorderDxfId="67" tableBorderDxfId="66">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:Q2" totalsRowShown="0" headerRowDxfId="61" headerRowBorderDxfId="60" tableBorderDxfId="59">
   <autoFilter ref="A1:Q2"/>
   <tableColumns count="17">
-    <tableColumn id="1" name="Description" dataDxfId="65"/>
-    <tableColumn id="2" name="ExecutionPipeline" dataDxfId="64"/>
-    <tableColumn id="3" name="PickUpType-Location" dataDxfId="63"/>
-    <tableColumn id="4" name="OriginLocation" dataDxfId="62"/>
-    <tableColumn id="5" name="DropOffType-Location" dataDxfId="61"/>
-    <tableColumn id="6" name="DestinationLocation" dataDxfId="60"/>
-    <tableColumn id="7" name="TravelDates" dataDxfId="59"/>
-    <tableColumn id="8" name="RentalAgency" dataDxfId="58"/>
-    <tableColumn id="9" name="CarType" dataDxfId="57"/>
-    <tableColumn id="10" name="AirConditioning" dataDxfId="56"/>
-    <tableColumn id="11" name="Transmission" dataDxfId="55"/>
-    <tableColumn id="12" name="CorpDiscRentalAgency" dataDxfId="54"/>
-    <tableColumn id="13" name="CorpDiscCode" dataDxfId="53"/>
-    <tableColumn id="14" name="CorpDiscPromotionalCode" dataDxfId="52"/>
-    <tableColumn id="15" name="UserType" dataDxfId="51"/>
-    <tableColumn id="16" name="PostFilters" dataDxfId="50"/>
-    <tableColumn id="17" name="PostFiltersValues" dataDxfId="49"/>
+    <tableColumn id="1" name="Description" dataDxfId="58"/>
+    <tableColumn id="2" name="ExecutionPipeline" dataDxfId="57"/>
+    <tableColumn id="3" name="PickUpType-Location" dataDxfId="56"/>
+    <tableColumn id="4" name="OriginLocation" dataDxfId="55"/>
+    <tableColumn id="5" name="DropOffType-Location" dataDxfId="54"/>
+    <tableColumn id="6" name="DestinationLocation" dataDxfId="53"/>
+    <tableColumn id="7" name="TravelDates" dataDxfId="52"/>
+    <tableColumn id="8" name="RentalAgency" dataDxfId="51"/>
+    <tableColumn id="9" name="CarType" dataDxfId="50"/>
+    <tableColumn id="10" name="AirConditioning" dataDxfId="49"/>
+    <tableColumn id="11" name="Transmission" dataDxfId="48"/>
+    <tableColumn id="12" name="CorpDiscRentalAgency" dataDxfId="47"/>
+    <tableColumn id="13" name="CorpDiscCode" dataDxfId="46"/>
+    <tableColumn id="14" name="CorpDiscPromotionalCode" dataDxfId="45"/>
+    <tableColumn id="15" name="UserType" dataDxfId="44"/>
+    <tableColumn id="16" name="PostFilters" dataDxfId="43"/>
+    <tableColumn id="17" name="PostFiltersValues" dataDxfId="42"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:Q2" totalsRowShown="0" headerRowDxfId="48" dataDxfId="46" headerRowBorderDxfId="47" tableBorderDxfId="45">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:Q2" totalsRowShown="0" headerRowDxfId="41" dataDxfId="39" headerRowBorderDxfId="40" tableBorderDxfId="38">
   <autoFilter ref="A1:Q2"/>
   <tableColumns count="17">
-    <tableColumn id="1" name="Description" dataDxfId="44"/>
-    <tableColumn id="2" name="ExecutionPipeline" dataDxfId="43"/>
-    <tableColumn id="3" name="PickUpType-Location" dataDxfId="42"/>
-    <tableColumn id="4" name="OriginLocation" dataDxfId="41"/>
-    <tableColumn id="5" name="DropOffType-Location" dataDxfId="40"/>
-    <tableColumn id="6" name="DestinationLocation" dataDxfId="39"/>
-    <tableColumn id="7" name="TravelDates" dataDxfId="38"/>
-    <tableColumn id="8" name="RentalAgency" dataDxfId="37"/>
-    <tableColumn id="9" name="CarType" dataDxfId="36"/>
-    <tableColumn id="10" name="AirConditioning" dataDxfId="35"/>
-    <tableColumn id="11" name="Transmission" dataDxfId="34"/>
-    <tableColumn id="12" name="CorpDiscRentalAgency" dataDxfId="33"/>
-    <tableColumn id="13" name="CorpDiscCode" dataDxfId="32"/>
-    <tableColumn id="14" name="CorpDiscPromotionalCode" dataDxfId="31"/>
-    <tableColumn id="15" name="UserType" dataDxfId="30"/>
-    <tableColumn id="16" name="PostFilters" dataDxfId="29"/>
-    <tableColumn id="17" name="PostFiltersValues" dataDxfId="28"/>
+    <tableColumn id="1" name="Description" dataDxfId="37"/>
+    <tableColumn id="2" name="ExecutionPipeline" dataDxfId="36"/>
+    <tableColumn id="3" name="PickUpType-Location" dataDxfId="35"/>
+    <tableColumn id="4" name="OriginLocation" dataDxfId="34"/>
+    <tableColumn id="5" name="DropOffType-Location" dataDxfId="33"/>
+    <tableColumn id="6" name="DestinationLocation" dataDxfId="32"/>
+    <tableColumn id="7" name="TravelDates" dataDxfId="31"/>
+    <tableColumn id="8" name="RentalAgency" dataDxfId="30"/>
+    <tableColumn id="9" name="CarType" dataDxfId="29"/>
+    <tableColumn id="10" name="AirConditioning" dataDxfId="28"/>
+    <tableColumn id="11" name="Transmission" dataDxfId="27"/>
+    <tableColumn id="12" name="CorpDiscRentalAgency" dataDxfId="26"/>
+    <tableColumn id="13" name="CorpDiscCode" dataDxfId="25"/>
+    <tableColumn id="14" name="CorpDiscPromotionalCode" dataDxfId="24"/>
+    <tableColumn id="15" name="UserType" dataDxfId="23"/>
+    <tableColumn id="16" name="PostFilters" dataDxfId="22"/>
+    <tableColumn id="17" name="PostFiltersValues" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A1:Q2" totalsRowShown="0" headerRowDxfId="27" dataDxfId="25" headerRowBorderDxfId="26" tableBorderDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A1:Q2" totalsRowShown="0" headerRowDxfId="20" dataDxfId="18" headerRowBorderDxfId="19" tableBorderDxfId="17">
   <autoFilter ref="A1:Q2"/>
   <tableColumns count="17">
-    <tableColumn id="1" name="Description" dataDxfId="23"/>
-    <tableColumn id="2" name="ExecutionPipeline" dataDxfId="22"/>
-    <tableColumn id="3" name="PickUpType-Location" dataDxfId="21"/>
-    <tableColumn id="4" name="OriginLocation" dataDxfId="20"/>
-    <tableColumn id="5" name="DropOffType-Location" dataDxfId="19"/>
-    <tableColumn id="6" name="DestinationLocation" dataDxfId="18"/>
-    <tableColumn id="7" name="TravelDates" dataDxfId="17"/>
-    <tableColumn id="8" name="RentalAgency" dataDxfId="16"/>
-    <tableColumn id="9" name="CarType" dataDxfId="15"/>
-    <tableColumn id="10" name="AirConditioning" dataDxfId="14"/>
-    <tableColumn id="11" name="Transmission" dataDxfId="13"/>
-    <tableColumn id="12" name="CorpDiscRentalAgency" dataDxfId="12"/>
-    <tableColumn id="13" name="CorpDiscCode" dataDxfId="11"/>
-    <tableColumn id="14" name="CorpDiscPromotionalCode" dataDxfId="10"/>
-    <tableColumn id="15" name="UserType" dataDxfId="9"/>
-    <tableColumn id="16" name="PostFilters" dataDxfId="8"/>
-    <tableColumn id="17" name="PostFiltersValues" dataDxfId="7"/>
+    <tableColumn id="1" name="Description" dataDxfId="16"/>
+    <tableColumn id="2" name="ExecutionPipeline" dataDxfId="15"/>
+    <tableColumn id="3" name="PickUpType-Location" dataDxfId="14"/>
+    <tableColumn id="4" name="OriginLocation" dataDxfId="13"/>
+    <tableColumn id="5" name="DropOffType-Location" dataDxfId="12"/>
+    <tableColumn id="6" name="DestinationLocation" dataDxfId="11"/>
+    <tableColumn id="7" name="TravelDates" dataDxfId="10"/>
+    <tableColumn id="8" name="RentalAgency" dataDxfId="9"/>
+    <tableColumn id="9" name="CarType" dataDxfId="8"/>
+    <tableColumn id="10" name="AirConditioning" dataDxfId="7"/>
+    <tableColumn id="11" name="Transmission" dataDxfId="6"/>
+    <tableColumn id="12" name="CorpDiscRentalAgency" dataDxfId="5"/>
+    <tableColumn id="13" name="CorpDiscCode" dataDxfId="4"/>
+    <tableColumn id="14" name="CorpDiscPromotionalCode" dataDxfId="3"/>
+    <tableColumn id="15" name="UserType" dataDxfId="2"/>
+    <tableColumn id="16" name="PostFilters" dataDxfId="1"/>
+    <tableColumn id="17" name="PostFiltersValues" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4306,10 +4300,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="B4" sqref="B4"/>
+      <selection pane="topRight" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4460,7 +4454,7 @@
       </c>
       <c r="F4" s="13"/>
       <c r="G4" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
@@ -4623,7 +4617,7 @@
       </c>
       <c r="F9" s="13"/>
       <c r="G9" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
@@ -4658,7 +4652,7 @@
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
@@ -4722,7 +4716,7 @@
   <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4796,10 +4790,10 @@
     </row>
     <row r="2" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C2" s="23" t="s">
         <v>22</v>
@@ -4831,10 +4825,10 @@
     </row>
     <row r="3" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C3" s="23" t="s">
         <v>22</v>
@@ -4866,10 +4860,10 @@
     </row>
     <row r="4" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C4" s="23" t="s">
         <v>22</v>
@@ -4901,10 +4895,10 @@
     </row>
     <row r="5" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C5" s="23" t="s">
         <v>22</v>
@@ -4928,15 +4922,15 @@
         <v>35</v>
       </c>
       <c r="P5" s="33" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C6" s="23" t="s">
         <v>22</v>
@@ -4960,7 +4954,7 @@
         <v>35</v>
       </c>
       <c r="P6" s="36" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="Q6" s="36" t="s">
         <v>65</v>
@@ -4979,8 +4973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5133,7 +5127,7 @@
       </c>
       <c r="F4" s="13"/>
       <c r="G4" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
@@ -5167,7 +5161,7 @@
         <v>6</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>91</v>
+        <v>11</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
@@ -5296,7 +5290,7 @@
       </c>
       <c r="F9" s="13"/>
       <c r="G9" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
@@ -5330,7 +5324,7 @@
         <v>6</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>91</v>
+        <v>11</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -5393,8 +5387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5471,7 +5465,7 @@
     </row>
     <row r="2" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>61</v>
@@ -5498,7 +5492,7 @@
         <v>35</v>
       </c>
       <c r="P2" s="36" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="Q2" s="36" t="s">
         <v>65</v>
@@ -5506,7 +5500,7 @@
     </row>
     <row r="3" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>61</v>
@@ -5541,7 +5535,7 @@
     </row>
     <row r="4" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>61</v>
@@ -5576,7 +5570,7 @@
     </row>
     <row r="5" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>61</v>
@@ -5611,7 +5605,7 @@
     </row>
     <row r="6" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>61</v>
@@ -5814,7 +5808,7 @@
       </c>
       <c r="F4" s="14"/>
       <c r="G4" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
@@ -5987,7 +5981,7 @@
       </c>
       <c r="F9" s="14"/>
       <c r="G9" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
@@ -6248,7 +6242,7 @@
       </c>
       <c r="F4" s="15"/>
       <c r="G4" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
@@ -6421,7 +6415,7 @@
       </c>
       <c r="F9" s="15"/>
       <c r="G9" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>

--- a/Rovia.UI.Automation.Tests/DataSheet/CarScenarios.xlsx
+++ b/Rovia.UI.Automation.Tests/DataSheet/CarScenarios.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="881" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="881" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Car_Airport_To_Airport" sheetId="1" r:id="rId1"/>
@@ -591,6 +591,23 @@
   </cellStyles>
   <dxfs count="127">
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -3515,23 +3532,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
         <vertical/>
         <horizontal/>
       </border>
@@ -3867,145 +3867,145 @@
     <tableColumn id="20" name="DestinationLocation" dataDxfId="116"/>
     <tableColumn id="4" name="TravelDates" dataDxfId="115"/>
     <tableColumn id="5" name="RentalAgency" dataDxfId="114"/>
-    <tableColumn id="18" name="CarType" dataDxfId="113"/>
-    <tableColumn id="6" name="AirConditioning" dataDxfId="112"/>
-    <tableColumn id="7" name="Transmission" dataDxfId="111"/>
-    <tableColumn id="8" name="CorpDiscRentalAgency" dataDxfId="110"/>
-    <tableColumn id="9" name="CorpDiscCode" dataDxfId="109"/>
-    <tableColumn id="10" name="CorpDiscPromotionalCode" dataDxfId="108"/>
-    <tableColumn id="12" name="UserType" dataDxfId="107"/>
-    <tableColumn id="11" name="PostFilters" dataDxfId="106"/>
-    <tableColumn id="13" name="PostFiltersValues" dataDxfId="105"/>
+    <tableColumn id="18" name="CarType" dataDxfId="0"/>
+    <tableColumn id="6" name="AirConditioning" dataDxfId="113"/>
+    <tableColumn id="7" name="Transmission" dataDxfId="112"/>
+    <tableColumn id="8" name="CorpDiscRentalAgency" dataDxfId="111"/>
+    <tableColumn id="9" name="CorpDiscCode" dataDxfId="110"/>
+    <tableColumn id="10" name="CorpDiscPromotionalCode" dataDxfId="109"/>
+    <tableColumn id="12" name="UserType" dataDxfId="108"/>
+    <tableColumn id="11" name="PostFilters" dataDxfId="107"/>
+    <tableColumn id="13" name="PostFiltersValues" dataDxfId="106"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table23" displayName="Table23" ref="A1:Q2" totalsRowShown="0" headerRowDxfId="104" dataDxfId="102" headerRowBorderDxfId="103" tableBorderDxfId="101" totalsRowBorderDxfId="100">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table23" displayName="Table23" ref="A1:Q2" totalsRowShown="0" headerRowDxfId="105" dataDxfId="103" headerRowBorderDxfId="104" tableBorderDxfId="102" totalsRowBorderDxfId="101">
   <autoFilter ref="A1:Q2"/>
   <tableColumns count="17">
-    <tableColumn id="1" name="Description" dataDxfId="99"/>
-    <tableColumn id="16" name="ExecutionPipeline" dataDxfId="98"/>
-    <tableColumn id="2" name="PickUpType-Location" dataDxfId="97"/>
-    <tableColumn id="19" name="OriginLocation" dataDxfId="96"/>
-    <tableColumn id="3" name="DropOffType-Location" dataDxfId="95"/>
-    <tableColumn id="20" name="DestinationLocation" dataDxfId="94"/>
-    <tableColumn id="4" name="TravelDates" dataDxfId="93"/>
-    <tableColumn id="5" name="RentalAgency" dataDxfId="92"/>
-    <tableColumn id="18" name="CarType" dataDxfId="91"/>
-    <tableColumn id="6" name="AirConditioning" dataDxfId="90"/>
-    <tableColumn id="7" name="Transmission" dataDxfId="89"/>
-    <tableColumn id="8" name="CorpDiscRentalAgency" dataDxfId="88"/>
-    <tableColumn id="9" name="CorpDiscCode" dataDxfId="87"/>
-    <tableColumn id="10" name="CorpDiscPromotionalCode" dataDxfId="86"/>
-    <tableColumn id="12" name="UserType" dataDxfId="85"/>
-    <tableColumn id="11" name="PostFilters" dataDxfId="84"/>
-    <tableColumn id="13" name="PostFiltersValues" dataDxfId="83"/>
+    <tableColumn id="1" name="Description" dataDxfId="100"/>
+    <tableColumn id="16" name="ExecutionPipeline" dataDxfId="99"/>
+    <tableColumn id="2" name="PickUpType-Location" dataDxfId="98"/>
+    <tableColumn id="19" name="OriginLocation" dataDxfId="97"/>
+    <tableColumn id="3" name="DropOffType-Location" dataDxfId="96"/>
+    <tableColumn id="20" name="DestinationLocation" dataDxfId="95"/>
+    <tableColumn id="4" name="TravelDates" dataDxfId="94"/>
+    <tableColumn id="5" name="RentalAgency" dataDxfId="93"/>
+    <tableColumn id="18" name="CarType" dataDxfId="92"/>
+    <tableColumn id="6" name="AirConditioning" dataDxfId="91"/>
+    <tableColumn id="7" name="Transmission" dataDxfId="90"/>
+    <tableColumn id="8" name="CorpDiscRentalAgency" dataDxfId="89"/>
+    <tableColumn id="9" name="CorpDiscCode" dataDxfId="88"/>
+    <tableColumn id="10" name="CorpDiscPromotionalCode" dataDxfId="87"/>
+    <tableColumn id="12" name="UserType" dataDxfId="86"/>
+    <tableColumn id="11" name="PostFilters" dataDxfId="85"/>
+    <tableColumn id="13" name="PostFiltersValues" dataDxfId="84"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:Q2" totalsRowShown="0" headerRowDxfId="82" dataDxfId="80" headerRowBorderDxfId="81" tableBorderDxfId="79">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:Q2" totalsRowShown="0" headerRowDxfId="83" dataDxfId="81" headerRowBorderDxfId="82" tableBorderDxfId="80">
   <autoFilter ref="A1:Q2"/>
   <tableColumns count="17">
-    <tableColumn id="1" name="Description" dataDxfId="78"/>
-    <tableColumn id="2" name="ExecutionPipeline" dataDxfId="77"/>
-    <tableColumn id="3" name="PickUpType-Location" dataDxfId="76"/>
-    <tableColumn id="4" name="OriginLocation" dataDxfId="75"/>
-    <tableColumn id="5" name="DropOffType-Location" dataDxfId="74"/>
-    <tableColumn id="6" name="DestinationLocation" dataDxfId="73"/>
-    <tableColumn id="7" name="TravelDates" dataDxfId="72"/>
-    <tableColumn id="8" name="RentalAgency" dataDxfId="71"/>
-    <tableColumn id="9" name="CarType" dataDxfId="70"/>
-    <tableColumn id="10" name="AirConditioning" dataDxfId="69"/>
-    <tableColumn id="11" name="Transmission" dataDxfId="68"/>
-    <tableColumn id="12" name="CorpDiscRentalAgency" dataDxfId="67"/>
-    <tableColumn id="13" name="CorpDiscCode" dataDxfId="66"/>
-    <tableColumn id="14" name="CorpDiscPromotionalCode" dataDxfId="65"/>
-    <tableColumn id="15" name="UserType" dataDxfId="64"/>
-    <tableColumn id="16" name="PostFilters" dataDxfId="63"/>
-    <tableColumn id="17" name="PostFiltersValues" dataDxfId="62"/>
+    <tableColumn id="1" name="Description" dataDxfId="79"/>
+    <tableColumn id="2" name="ExecutionPipeline" dataDxfId="78"/>
+    <tableColumn id="3" name="PickUpType-Location" dataDxfId="77"/>
+    <tableColumn id="4" name="OriginLocation" dataDxfId="76"/>
+    <tableColumn id="5" name="DropOffType-Location" dataDxfId="75"/>
+    <tableColumn id="6" name="DestinationLocation" dataDxfId="74"/>
+    <tableColumn id="7" name="TravelDates" dataDxfId="73"/>
+    <tableColumn id="8" name="RentalAgency" dataDxfId="72"/>
+    <tableColumn id="9" name="CarType" dataDxfId="71"/>
+    <tableColumn id="10" name="AirConditioning" dataDxfId="70"/>
+    <tableColumn id="11" name="Transmission" dataDxfId="69"/>
+    <tableColumn id="12" name="CorpDiscRentalAgency" dataDxfId="68"/>
+    <tableColumn id="13" name="CorpDiscCode" dataDxfId="67"/>
+    <tableColumn id="14" name="CorpDiscPromotionalCode" dataDxfId="66"/>
+    <tableColumn id="15" name="UserType" dataDxfId="65"/>
+    <tableColumn id="16" name="PostFilters" dataDxfId="64"/>
+    <tableColumn id="17" name="PostFiltersValues" dataDxfId="63"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:Q2" totalsRowShown="0" headerRowDxfId="61" headerRowBorderDxfId="60" tableBorderDxfId="59">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:Q2" totalsRowShown="0" headerRowDxfId="62" headerRowBorderDxfId="61" tableBorderDxfId="60">
   <autoFilter ref="A1:Q2"/>
   <tableColumns count="17">
-    <tableColumn id="1" name="Description" dataDxfId="58"/>
-    <tableColumn id="2" name="ExecutionPipeline" dataDxfId="57"/>
-    <tableColumn id="3" name="PickUpType-Location" dataDxfId="56"/>
-    <tableColumn id="4" name="OriginLocation" dataDxfId="55"/>
-    <tableColumn id="5" name="DropOffType-Location" dataDxfId="54"/>
-    <tableColumn id="6" name="DestinationLocation" dataDxfId="53"/>
-    <tableColumn id="7" name="TravelDates" dataDxfId="52"/>
-    <tableColumn id="8" name="RentalAgency" dataDxfId="51"/>
-    <tableColumn id="9" name="CarType" dataDxfId="50"/>
-    <tableColumn id="10" name="AirConditioning" dataDxfId="49"/>
-    <tableColumn id="11" name="Transmission" dataDxfId="48"/>
-    <tableColumn id="12" name="CorpDiscRentalAgency" dataDxfId="47"/>
-    <tableColumn id="13" name="CorpDiscCode" dataDxfId="46"/>
-    <tableColumn id="14" name="CorpDiscPromotionalCode" dataDxfId="45"/>
-    <tableColumn id="15" name="UserType" dataDxfId="44"/>
-    <tableColumn id="16" name="PostFilters" dataDxfId="43"/>
-    <tableColumn id="17" name="PostFiltersValues" dataDxfId="42"/>
+    <tableColumn id="1" name="Description" dataDxfId="59"/>
+    <tableColumn id="2" name="ExecutionPipeline" dataDxfId="58"/>
+    <tableColumn id="3" name="PickUpType-Location" dataDxfId="57"/>
+    <tableColumn id="4" name="OriginLocation" dataDxfId="56"/>
+    <tableColumn id="5" name="DropOffType-Location" dataDxfId="55"/>
+    <tableColumn id="6" name="DestinationLocation" dataDxfId="54"/>
+    <tableColumn id="7" name="TravelDates" dataDxfId="53"/>
+    <tableColumn id="8" name="RentalAgency" dataDxfId="52"/>
+    <tableColumn id="9" name="CarType" dataDxfId="51"/>
+    <tableColumn id="10" name="AirConditioning" dataDxfId="50"/>
+    <tableColumn id="11" name="Transmission" dataDxfId="49"/>
+    <tableColumn id="12" name="CorpDiscRentalAgency" dataDxfId="48"/>
+    <tableColumn id="13" name="CorpDiscCode" dataDxfId="47"/>
+    <tableColumn id="14" name="CorpDiscPromotionalCode" dataDxfId="46"/>
+    <tableColumn id="15" name="UserType" dataDxfId="45"/>
+    <tableColumn id="16" name="PostFilters" dataDxfId="44"/>
+    <tableColumn id="17" name="PostFiltersValues" dataDxfId="43"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:Q2" totalsRowShown="0" headerRowDxfId="41" dataDxfId="39" headerRowBorderDxfId="40" tableBorderDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:Q2" totalsRowShown="0" headerRowDxfId="42" dataDxfId="40" headerRowBorderDxfId="41" tableBorderDxfId="39">
   <autoFilter ref="A1:Q2"/>
   <tableColumns count="17">
-    <tableColumn id="1" name="Description" dataDxfId="37"/>
-    <tableColumn id="2" name="ExecutionPipeline" dataDxfId="36"/>
-    <tableColumn id="3" name="PickUpType-Location" dataDxfId="35"/>
-    <tableColumn id="4" name="OriginLocation" dataDxfId="34"/>
-    <tableColumn id="5" name="DropOffType-Location" dataDxfId="33"/>
-    <tableColumn id="6" name="DestinationLocation" dataDxfId="32"/>
-    <tableColumn id="7" name="TravelDates" dataDxfId="31"/>
-    <tableColumn id="8" name="RentalAgency" dataDxfId="30"/>
-    <tableColumn id="9" name="CarType" dataDxfId="29"/>
-    <tableColumn id="10" name="AirConditioning" dataDxfId="28"/>
-    <tableColumn id="11" name="Transmission" dataDxfId="27"/>
-    <tableColumn id="12" name="CorpDiscRentalAgency" dataDxfId="26"/>
-    <tableColumn id="13" name="CorpDiscCode" dataDxfId="25"/>
-    <tableColumn id="14" name="CorpDiscPromotionalCode" dataDxfId="24"/>
-    <tableColumn id="15" name="UserType" dataDxfId="23"/>
-    <tableColumn id="16" name="PostFilters" dataDxfId="22"/>
-    <tableColumn id="17" name="PostFiltersValues" dataDxfId="21"/>
+    <tableColumn id="1" name="Description" dataDxfId="38"/>
+    <tableColumn id="2" name="ExecutionPipeline" dataDxfId="37"/>
+    <tableColumn id="3" name="PickUpType-Location" dataDxfId="36"/>
+    <tableColumn id="4" name="OriginLocation" dataDxfId="35"/>
+    <tableColumn id="5" name="DropOffType-Location" dataDxfId="34"/>
+    <tableColumn id="6" name="DestinationLocation" dataDxfId="33"/>
+    <tableColumn id="7" name="TravelDates" dataDxfId="32"/>
+    <tableColumn id="8" name="RentalAgency" dataDxfId="31"/>
+    <tableColumn id="9" name="CarType" dataDxfId="30"/>
+    <tableColumn id="10" name="AirConditioning" dataDxfId="29"/>
+    <tableColumn id="11" name="Transmission" dataDxfId="28"/>
+    <tableColumn id="12" name="CorpDiscRentalAgency" dataDxfId="27"/>
+    <tableColumn id="13" name="CorpDiscCode" dataDxfId="26"/>
+    <tableColumn id="14" name="CorpDiscPromotionalCode" dataDxfId="25"/>
+    <tableColumn id="15" name="UserType" dataDxfId="24"/>
+    <tableColumn id="16" name="PostFilters" dataDxfId="23"/>
+    <tableColumn id="17" name="PostFiltersValues" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A1:Q2" totalsRowShown="0" headerRowDxfId="20" dataDxfId="18" headerRowBorderDxfId="19" tableBorderDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A1:Q2" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18">
   <autoFilter ref="A1:Q2"/>
   <tableColumns count="17">
-    <tableColumn id="1" name="Description" dataDxfId="16"/>
-    <tableColumn id="2" name="ExecutionPipeline" dataDxfId="15"/>
-    <tableColumn id="3" name="PickUpType-Location" dataDxfId="14"/>
-    <tableColumn id="4" name="OriginLocation" dataDxfId="13"/>
-    <tableColumn id="5" name="DropOffType-Location" dataDxfId="12"/>
-    <tableColumn id="6" name="DestinationLocation" dataDxfId="11"/>
-    <tableColumn id="7" name="TravelDates" dataDxfId="10"/>
-    <tableColumn id="8" name="RentalAgency" dataDxfId="9"/>
-    <tableColumn id="9" name="CarType" dataDxfId="8"/>
-    <tableColumn id="10" name="AirConditioning" dataDxfId="7"/>
-    <tableColumn id="11" name="Transmission" dataDxfId="6"/>
-    <tableColumn id="12" name="CorpDiscRentalAgency" dataDxfId="5"/>
-    <tableColumn id="13" name="CorpDiscCode" dataDxfId="4"/>
-    <tableColumn id="14" name="CorpDiscPromotionalCode" dataDxfId="3"/>
-    <tableColumn id="15" name="UserType" dataDxfId="2"/>
-    <tableColumn id="16" name="PostFilters" dataDxfId="1"/>
-    <tableColumn id="17" name="PostFiltersValues" dataDxfId="0"/>
+    <tableColumn id="1" name="Description" dataDxfId="17"/>
+    <tableColumn id="2" name="ExecutionPipeline" dataDxfId="16"/>
+    <tableColumn id="3" name="PickUpType-Location" dataDxfId="15"/>
+    <tableColumn id="4" name="OriginLocation" dataDxfId="14"/>
+    <tableColumn id="5" name="DropOffType-Location" dataDxfId="13"/>
+    <tableColumn id="6" name="DestinationLocation" dataDxfId="12"/>
+    <tableColumn id="7" name="TravelDates" dataDxfId="11"/>
+    <tableColumn id="8" name="RentalAgency" dataDxfId="10"/>
+    <tableColumn id="9" name="CarType" dataDxfId="9"/>
+    <tableColumn id="10" name="AirConditioning" dataDxfId="8"/>
+    <tableColumn id="11" name="Transmission" dataDxfId="7"/>
+    <tableColumn id="12" name="CorpDiscRentalAgency" dataDxfId="6"/>
+    <tableColumn id="13" name="CorpDiscCode" dataDxfId="5"/>
+    <tableColumn id="14" name="CorpDiscPromotionalCode" dataDxfId="4"/>
+    <tableColumn id="15" name="UserType" dataDxfId="3"/>
+    <tableColumn id="16" name="PostFilters" dataDxfId="2"/>
+    <tableColumn id="17" name="PostFiltersValues" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4300,10 +4300,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="I10" sqref="I10"/>
+      <selection pane="topRight" activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4317,7 +4317,7 @@
     <col min="9" max="9" width="16.42578125" customWidth="1"/>
     <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="16.140625" bestFit="1" customWidth="1"/>
@@ -4402,7 +4402,7 @@
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
       <c r="O2" s="11" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="P2" s="22"/>
       <c r="Q2" s="22"/>
@@ -4523,16 +4523,15 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
-      <c r="K6" s="9" t="s">
+      <c r="L6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="9" t="s">
+      <c r="M6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="M6" s="9" t="s">
+      <c r="N6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="N6" s="4"/>
       <c r="O6" s="11" t="s">
         <v>35</v>
       </c>
@@ -4686,16 +4685,15 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
-      <c r="K11" s="9" t="s">
+      <c r="L11" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="L11" s="9" t="s">
+      <c r="M11" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="M11" s="9" t="s">
+      <c r="N11" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="N11" s="4"/>
       <c r="O11" s="11" t="s">
         <v>24</v>
       </c>
@@ -4715,8 +4713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4731,7 +4729,7 @@
     <col min="12" max="12" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="27" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="33" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.7109375" style="33" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="18.85546875" style="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4974,7 +4972,7 @@
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5387,8 +5385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6082,8 +6080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Rovia.UI.Automation.Tests/DataSheet/CarScenarios.xlsx
+++ b/Rovia.UI.Automation.Tests/DataSheet/CarScenarios.xlsx
@@ -591,23 +591,6 @@
   </cellStyles>
   <dxfs count="127">
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -3532,6 +3515,23 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
         <vertical/>
         <horizontal/>
       </border>
@@ -3867,145 +3867,145 @@
     <tableColumn id="20" name="DestinationLocation" dataDxfId="116"/>
     <tableColumn id="4" name="TravelDates" dataDxfId="115"/>
     <tableColumn id="5" name="RentalAgency" dataDxfId="114"/>
-    <tableColumn id="18" name="CarType" dataDxfId="0"/>
-    <tableColumn id="6" name="AirConditioning" dataDxfId="113"/>
-    <tableColumn id="7" name="Transmission" dataDxfId="112"/>
-    <tableColumn id="8" name="CorpDiscRentalAgency" dataDxfId="111"/>
-    <tableColumn id="9" name="CorpDiscCode" dataDxfId="110"/>
-    <tableColumn id="10" name="CorpDiscPromotionalCode" dataDxfId="109"/>
-    <tableColumn id="12" name="UserType" dataDxfId="108"/>
-    <tableColumn id="11" name="PostFilters" dataDxfId="107"/>
-    <tableColumn id="13" name="PostFiltersValues" dataDxfId="106"/>
+    <tableColumn id="18" name="CarType" dataDxfId="113"/>
+    <tableColumn id="6" name="AirConditioning" dataDxfId="112"/>
+    <tableColumn id="7" name="Transmission" dataDxfId="111"/>
+    <tableColumn id="8" name="CorpDiscRentalAgency" dataDxfId="110"/>
+    <tableColumn id="9" name="CorpDiscCode" dataDxfId="109"/>
+    <tableColumn id="10" name="CorpDiscPromotionalCode" dataDxfId="108"/>
+    <tableColumn id="12" name="UserType" dataDxfId="107"/>
+    <tableColumn id="11" name="PostFilters" dataDxfId="106"/>
+    <tableColumn id="13" name="PostFiltersValues" dataDxfId="105"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table23" displayName="Table23" ref="A1:Q2" totalsRowShown="0" headerRowDxfId="105" dataDxfId="103" headerRowBorderDxfId="104" tableBorderDxfId="102" totalsRowBorderDxfId="101">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table23" displayName="Table23" ref="A1:Q2" totalsRowShown="0" headerRowDxfId="104" dataDxfId="102" headerRowBorderDxfId="103" tableBorderDxfId="101" totalsRowBorderDxfId="100">
   <autoFilter ref="A1:Q2"/>
   <tableColumns count="17">
-    <tableColumn id="1" name="Description" dataDxfId="100"/>
-    <tableColumn id="16" name="ExecutionPipeline" dataDxfId="99"/>
-    <tableColumn id="2" name="PickUpType-Location" dataDxfId="98"/>
-    <tableColumn id="19" name="OriginLocation" dataDxfId="97"/>
-    <tableColumn id="3" name="DropOffType-Location" dataDxfId="96"/>
-    <tableColumn id="20" name="DestinationLocation" dataDxfId="95"/>
-    <tableColumn id="4" name="TravelDates" dataDxfId="94"/>
-    <tableColumn id="5" name="RentalAgency" dataDxfId="93"/>
-    <tableColumn id="18" name="CarType" dataDxfId="92"/>
-    <tableColumn id="6" name="AirConditioning" dataDxfId="91"/>
-    <tableColumn id="7" name="Transmission" dataDxfId="90"/>
-    <tableColumn id="8" name="CorpDiscRentalAgency" dataDxfId="89"/>
-    <tableColumn id="9" name="CorpDiscCode" dataDxfId="88"/>
-    <tableColumn id="10" name="CorpDiscPromotionalCode" dataDxfId="87"/>
-    <tableColumn id="12" name="UserType" dataDxfId="86"/>
-    <tableColumn id="11" name="PostFilters" dataDxfId="85"/>
-    <tableColumn id="13" name="PostFiltersValues" dataDxfId="84"/>
+    <tableColumn id="1" name="Description" dataDxfId="99"/>
+    <tableColumn id="16" name="ExecutionPipeline" dataDxfId="98"/>
+    <tableColumn id="2" name="PickUpType-Location" dataDxfId="97"/>
+    <tableColumn id="19" name="OriginLocation" dataDxfId="96"/>
+    <tableColumn id="3" name="DropOffType-Location" dataDxfId="95"/>
+    <tableColumn id="20" name="DestinationLocation" dataDxfId="94"/>
+    <tableColumn id="4" name="TravelDates" dataDxfId="93"/>
+    <tableColumn id="5" name="RentalAgency" dataDxfId="92"/>
+    <tableColumn id="18" name="CarType" dataDxfId="91"/>
+    <tableColumn id="6" name="AirConditioning" dataDxfId="90"/>
+    <tableColumn id="7" name="Transmission" dataDxfId="89"/>
+    <tableColumn id="8" name="CorpDiscRentalAgency" dataDxfId="88"/>
+    <tableColumn id="9" name="CorpDiscCode" dataDxfId="87"/>
+    <tableColumn id="10" name="CorpDiscPromotionalCode" dataDxfId="86"/>
+    <tableColumn id="12" name="UserType" dataDxfId="85"/>
+    <tableColumn id="11" name="PostFilters" dataDxfId="84"/>
+    <tableColumn id="13" name="PostFiltersValues" dataDxfId="83"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:Q2" totalsRowShown="0" headerRowDxfId="83" dataDxfId="81" headerRowBorderDxfId="82" tableBorderDxfId="80">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:Q2" totalsRowShown="0" headerRowDxfId="82" dataDxfId="80" headerRowBorderDxfId="81" tableBorderDxfId="79">
   <autoFilter ref="A1:Q2"/>
   <tableColumns count="17">
-    <tableColumn id="1" name="Description" dataDxfId="79"/>
-    <tableColumn id="2" name="ExecutionPipeline" dataDxfId="78"/>
-    <tableColumn id="3" name="PickUpType-Location" dataDxfId="77"/>
-    <tableColumn id="4" name="OriginLocation" dataDxfId="76"/>
-    <tableColumn id="5" name="DropOffType-Location" dataDxfId="75"/>
-    <tableColumn id="6" name="DestinationLocation" dataDxfId="74"/>
-    <tableColumn id="7" name="TravelDates" dataDxfId="73"/>
-    <tableColumn id="8" name="RentalAgency" dataDxfId="72"/>
-    <tableColumn id="9" name="CarType" dataDxfId="71"/>
-    <tableColumn id="10" name="AirConditioning" dataDxfId="70"/>
-    <tableColumn id="11" name="Transmission" dataDxfId="69"/>
-    <tableColumn id="12" name="CorpDiscRentalAgency" dataDxfId="68"/>
-    <tableColumn id="13" name="CorpDiscCode" dataDxfId="67"/>
-    <tableColumn id="14" name="CorpDiscPromotionalCode" dataDxfId="66"/>
-    <tableColumn id="15" name="UserType" dataDxfId="65"/>
-    <tableColumn id="16" name="PostFilters" dataDxfId="64"/>
-    <tableColumn id="17" name="PostFiltersValues" dataDxfId="63"/>
+    <tableColumn id="1" name="Description" dataDxfId="78"/>
+    <tableColumn id="2" name="ExecutionPipeline" dataDxfId="77"/>
+    <tableColumn id="3" name="PickUpType-Location" dataDxfId="76"/>
+    <tableColumn id="4" name="OriginLocation" dataDxfId="75"/>
+    <tableColumn id="5" name="DropOffType-Location" dataDxfId="74"/>
+    <tableColumn id="6" name="DestinationLocation" dataDxfId="73"/>
+    <tableColumn id="7" name="TravelDates" dataDxfId="72"/>
+    <tableColumn id="8" name="RentalAgency" dataDxfId="71"/>
+    <tableColumn id="9" name="CarType" dataDxfId="70"/>
+    <tableColumn id="10" name="AirConditioning" dataDxfId="69"/>
+    <tableColumn id="11" name="Transmission" dataDxfId="68"/>
+    <tableColumn id="12" name="CorpDiscRentalAgency" dataDxfId="67"/>
+    <tableColumn id="13" name="CorpDiscCode" dataDxfId="66"/>
+    <tableColumn id="14" name="CorpDiscPromotionalCode" dataDxfId="65"/>
+    <tableColumn id="15" name="UserType" dataDxfId="64"/>
+    <tableColumn id="16" name="PostFilters" dataDxfId="63"/>
+    <tableColumn id="17" name="PostFiltersValues" dataDxfId="62"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:Q2" totalsRowShown="0" headerRowDxfId="62" headerRowBorderDxfId="61" tableBorderDxfId="60">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:Q2" totalsRowShown="0" headerRowDxfId="61" headerRowBorderDxfId="60" tableBorderDxfId="59">
   <autoFilter ref="A1:Q2"/>
   <tableColumns count="17">
-    <tableColumn id="1" name="Description" dataDxfId="59"/>
-    <tableColumn id="2" name="ExecutionPipeline" dataDxfId="58"/>
-    <tableColumn id="3" name="PickUpType-Location" dataDxfId="57"/>
-    <tableColumn id="4" name="OriginLocation" dataDxfId="56"/>
-    <tableColumn id="5" name="DropOffType-Location" dataDxfId="55"/>
-    <tableColumn id="6" name="DestinationLocation" dataDxfId="54"/>
-    <tableColumn id="7" name="TravelDates" dataDxfId="53"/>
-    <tableColumn id="8" name="RentalAgency" dataDxfId="52"/>
-    <tableColumn id="9" name="CarType" dataDxfId="51"/>
-    <tableColumn id="10" name="AirConditioning" dataDxfId="50"/>
-    <tableColumn id="11" name="Transmission" dataDxfId="49"/>
-    <tableColumn id="12" name="CorpDiscRentalAgency" dataDxfId="48"/>
-    <tableColumn id="13" name="CorpDiscCode" dataDxfId="47"/>
-    <tableColumn id="14" name="CorpDiscPromotionalCode" dataDxfId="46"/>
-    <tableColumn id="15" name="UserType" dataDxfId="45"/>
-    <tableColumn id="16" name="PostFilters" dataDxfId="44"/>
-    <tableColumn id="17" name="PostFiltersValues" dataDxfId="43"/>
+    <tableColumn id="1" name="Description" dataDxfId="58"/>
+    <tableColumn id="2" name="ExecutionPipeline" dataDxfId="57"/>
+    <tableColumn id="3" name="PickUpType-Location" dataDxfId="56"/>
+    <tableColumn id="4" name="OriginLocation" dataDxfId="55"/>
+    <tableColumn id="5" name="DropOffType-Location" dataDxfId="54"/>
+    <tableColumn id="6" name="DestinationLocation" dataDxfId="53"/>
+    <tableColumn id="7" name="TravelDates" dataDxfId="52"/>
+    <tableColumn id="8" name="RentalAgency" dataDxfId="51"/>
+    <tableColumn id="9" name="CarType" dataDxfId="50"/>
+    <tableColumn id="10" name="AirConditioning" dataDxfId="49"/>
+    <tableColumn id="11" name="Transmission" dataDxfId="48"/>
+    <tableColumn id="12" name="CorpDiscRentalAgency" dataDxfId="47"/>
+    <tableColumn id="13" name="CorpDiscCode" dataDxfId="46"/>
+    <tableColumn id="14" name="CorpDiscPromotionalCode" dataDxfId="45"/>
+    <tableColumn id="15" name="UserType" dataDxfId="44"/>
+    <tableColumn id="16" name="PostFilters" dataDxfId="43"/>
+    <tableColumn id="17" name="PostFiltersValues" dataDxfId="42"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:Q2" totalsRowShown="0" headerRowDxfId="42" dataDxfId="40" headerRowBorderDxfId="41" tableBorderDxfId="39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:Q2" totalsRowShown="0" headerRowDxfId="41" dataDxfId="39" headerRowBorderDxfId="40" tableBorderDxfId="38">
   <autoFilter ref="A1:Q2"/>
   <tableColumns count="17">
-    <tableColumn id="1" name="Description" dataDxfId="38"/>
-    <tableColumn id="2" name="ExecutionPipeline" dataDxfId="37"/>
-    <tableColumn id="3" name="PickUpType-Location" dataDxfId="36"/>
-    <tableColumn id="4" name="OriginLocation" dataDxfId="35"/>
-    <tableColumn id="5" name="DropOffType-Location" dataDxfId="34"/>
-    <tableColumn id="6" name="DestinationLocation" dataDxfId="33"/>
-    <tableColumn id="7" name="TravelDates" dataDxfId="32"/>
-    <tableColumn id="8" name="RentalAgency" dataDxfId="31"/>
-    <tableColumn id="9" name="CarType" dataDxfId="30"/>
-    <tableColumn id="10" name="AirConditioning" dataDxfId="29"/>
-    <tableColumn id="11" name="Transmission" dataDxfId="28"/>
-    <tableColumn id="12" name="CorpDiscRentalAgency" dataDxfId="27"/>
-    <tableColumn id="13" name="CorpDiscCode" dataDxfId="26"/>
-    <tableColumn id="14" name="CorpDiscPromotionalCode" dataDxfId="25"/>
-    <tableColumn id="15" name="UserType" dataDxfId="24"/>
-    <tableColumn id="16" name="PostFilters" dataDxfId="23"/>
-    <tableColumn id="17" name="PostFiltersValues" dataDxfId="22"/>
+    <tableColumn id="1" name="Description" dataDxfId="37"/>
+    <tableColumn id="2" name="ExecutionPipeline" dataDxfId="36"/>
+    <tableColumn id="3" name="PickUpType-Location" dataDxfId="35"/>
+    <tableColumn id="4" name="OriginLocation" dataDxfId="34"/>
+    <tableColumn id="5" name="DropOffType-Location" dataDxfId="33"/>
+    <tableColumn id="6" name="DestinationLocation" dataDxfId="32"/>
+    <tableColumn id="7" name="TravelDates" dataDxfId="31"/>
+    <tableColumn id="8" name="RentalAgency" dataDxfId="30"/>
+    <tableColumn id="9" name="CarType" dataDxfId="29"/>
+    <tableColumn id="10" name="AirConditioning" dataDxfId="28"/>
+    <tableColumn id="11" name="Transmission" dataDxfId="27"/>
+    <tableColumn id="12" name="CorpDiscRentalAgency" dataDxfId="26"/>
+    <tableColumn id="13" name="CorpDiscCode" dataDxfId="25"/>
+    <tableColumn id="14" name="CorpDiscPromotionalCode" dataDxfId="24"/>
+    <tableColumn id="15" name="UserType" dataDxfId="23"/>
+    <tableColumn id="16" name="PostFilters" dataDxfId="22"/>
+    <tableColumn id="17" name="PostFiltersValues" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A1:Q2" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A1:Q2" totalsRowShown="0" headerRowDxfId="20" dataDxfId="18" headerRowBorderDxfId="19" tableBorderDxfId="17">
   <autoFilter ref="A1:Q2"/>
   <tableColumns count="17">
-    <tableColumn id="1" name="Description" dataDxfId="17"/>
-    <tableColumn id="2" name="ExecutionPipeline" dataDxfId="16"/>
-    <tableColumn id="3" name="PickUpType-Location" dataDxfId="15"/>
-    <tableColumn id="4" name="OriginLocation" dataDxfId="14"/>
-    <tableColumn id="5" name="DropOffType-Location" dataDxfId="13"/>
-    <tableColumn id="6" name="DestinationLocation" dataDxfId="12"/>
-    <tableColumn id="7" name="TravelDates" dataDxfId="11"/>
-    <tableColumn id="8" name="RentalAgency" dataDxfId="10"/>
-    <tableColumn id="9" name="CarType" dataDxfId="9"/>
-    <tableColumn id="10" name="AirConditioning" dataDxfId="8"/>
-    <tableColumn id="11" name="Transmission" dataDxfId="7"/>
-    <tableColumn id="12" name="CorpDiscRentalAgency" dataDxfId="6"/>
-    <tableColumn id="13" name="CorpDiscCode" dataDxfId="5"/>
-    <tableColumn id="14" name="CorpDiscPromotionalCode" dataDxfId="4"/>
-    <tableColumn id="15" name="UserType" dataDxfId="3"/>
-    <tableColumn id="16" name="PostFilters" dataDxfId="2"/>
-    <tableColumn id="17" name="PostFiltersValues" dataDxfId="1"/>
+    <tableColumn id="1" name="Description" dataDxfId="16"/>
+    <tableColumn id="2" name="ExecutionPipeline" dataDxfId="15"/>
+    <tableColumn id="3" name="PickUpType-Location" dataDxfId="14"/>
+    <tableColumn id="4" name="OriginLocation" dataDxfId="13"/>
+    <tableColumn id="5" name="DropOffType-Location" dataDxfId="12"/>
+    <tableColumn id="6" name="DestinationLocation" dataDxfId="11"/>
+    <tableColumn id="7" name="TravelDates" dataDxfId="10"/>
+    <tableColumn id="8" name="RentalAgency" dataDxfId="9"/>
+    <tableColumn id="9" name="CarType" dataDxfId="8"/>
+    <tableColumn id="10" name="AirConditioning" dataDxfId="7"/>
+    <tableColumn id="11" name="Transmission" dataDxfId="6"/>
+    <tableColumn id="12" name="CorpDiscRentalAgency" dataDxfId="5"/>
+    <tableColumn id="13" name="CorpDiscCode" dataDxfId="4"/>
+    <tableColumn id="14" name="CorpDiscPromotionalCode" dataDxfId="3"/>
+    <tableColumn id="15" name="UserType" dataDxfId="2"/>
+    <tableColumn id="16" name="PostFilters" dataDxfId="1"/>
+    <tableColumn id="17" name="PostFiltersValues" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4713,8 +4713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4971,14 +4971,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="72.42578125" style="33" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="64.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.7109375" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="22.7109375" customWidth="1"/>
@@ -5386,7 +5386,7 @@
   <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5647,7 +5647,7 @@
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6081,13 +6081,13 @@
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="86.140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="64.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.7109375" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="22.7109375" customWidth="1"/>
